--- a/4Hour MACD deals.xlsx
+++ b/4Hour MACD deals.xlsx
@@ -38,6 +38,9 @@
       </text>
     </comment>
     <comment ref="K8" authorId="0">
+      <text/>
+    </comment>
+    <comment ref="K9" authorId="0">
       <text>
         <r>
           <rPr>
@@ -46,20 +49,7 @@
             <rFont val="Times New Roman"/>
             <family val="1"/>
           </rPr>
-          <t>Aggressive turnaround after good run so correction was anticipated. Waited for the second red candle before entering on MACD confirmation. TP ± 21EMA</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="K9" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="8"/>
-            <rFont val="Times New Roman"/>
-            <family val="1"/>
-          </rPr>
-          <t>This was an early entry off the 1H due to pullback to breakout level.</t>
+          <t>Round Bottom after good run so correction was anticipated. Waited for the second green candle before entering on MACD confirmation. TP ± 21EMA!</t>
         </r>
       </text>
     </comment>
@@ -2839,6 +2829,11 @@
     <comment ref="K148" authorId="0">
       <text>
         <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
           <t xml:space="preserve">
 </t>
         </r>
@@ -3046,6 +3041,11 @@
     <comment ref="K155" authorId="0">
       <text>
         <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
           <t xml:space="preserve">
 </t>
         </r>
@@ -3193,7 +3193,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="599" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="600" uniqueCount="230">
   <si>
     <t>Oct2007 –July 2008</t>
   </si>
@@ -3237,18 +3237,12 @@
     <t>EurUsd</t>
   </si>
   <si>
-    <t>01/10/2007</t>
-  </si>
-  <si>
     <t>s</t>
   </si>
   <si>
     <t>1:</t>
   </si>
   <si>
-    <t>03/10/2007</t>
-  </si>
-  <si>
     <t>05/10/2007</t>
   </si>
   <si>
@@ -3303,9 +3297,6 @@
     <t>Page No</t>
   </si>
   <si>
-    <t xml:space="preserve">                       NOV 2007</t>
-  </si>
-  <si>
     <t>02/11/2007</t>
   </si>
   <si>
@@ -3384,9 +3375,6 @@
     <t>8875-592</t>
   </si>
   <si>
-    <t xml:space="preserve">                       DEC 2007</t>
-  </si>
-  <si>
     <t>05/12/2007</t>
   </si>
   <si>
@@ -3462,9 +3450,6 @@
     <t>9749-650</t>
   </si>
   <si>
-    <t xml:space="preserve">                       JAN 2008</t>
-  </si>
-  <si>
     <t>03/01/2008</t>
   </si>
   <si>
@@ -3543,9 +3528,6 @@
     <t>10951-731 / 10960-731</t>
   </si>
   <si>
-    <t xml:space="preserve">                       FEB 2008</t>
-  </si>
-  <si>
     <t>04/02/2008</t>
   </si>
   <si>
@@ -3609,9 +3591,6 @@
     <t>12348 – 824</t>
   </si>
   <si>
-    <t>Mch 2008</t>
-  </si>
-  <si>
     <t>04/03/2008</t>
   </si>
   <si>
@@ -3657,9 +3636,6 @@
     <t>13280 – 886</t>
   </si>
   <si>
-    <t>April 2008</t>
-  </si>
-  <si>
     <t>07/04/2008</t>
   </si>
   <si>
@@ -3753,9 +3729,6 @@
     <t>15093 - 1007</t>
   </si>
   <si>
-    <t>June 2008</t>
-  </si>
-  <si>
     <t>02/06/2008</t>
   </si>
   <si>
@@ -3796,9 +3769,6 @@
   </si>
   <si>
     <t>15705 – 1047</t>
-  </si>
-  <si>
-    <t>July 2008</t>
   </si>
   <si>
     <t>01/07/2008</t>
@@ -3919,8 +3889,29 @@
     <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">               OCT 2007</t>
+    <t>06/02/2015</t>
     <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">               Feb 2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">               Feb 2015</t>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <t>b</t>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <t>10/02/2015</t>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <t>EURUSD</t>
+  </si>
+  <si>
+    <t>EURGPB</t>
   </si>
 </sst>
 </file>
@@ -4436,7 +4427,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="156">
+  <cellXfs count="154">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -4719,6 +4710,27 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4732,33 +4744,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="17" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -5219,7 +5204,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C8" sqref="C8"/>
+      <selection pane="bottomLeft" activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5262,11 +5247,11 @@
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C3" s="11"/>
-      <c r="H3" s="142" t="s">
+      <c r="H3" s="149" t="s">
         <v>0</v>
       </c>
-      <c r="I3" s="142"/>
-      <c r="J3" s="142"/>
+      <c r="I3" s="149"/>
+      <c r="J3" s="149"/>
       <c r="K3" s="1" t="s">
         <v>1</v>
       </c>
@@ -5278,10 +5263,10 @@
       </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="H4" s="143" t="s">
+      <c r="H4" s="150" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="143"/>
+      <c r="I4" s="150"/>
       <c r="J4" s="14">
         <f>J6+J21+J39+J59+J79+J95+J109+J119+J135+J146</f>
         <v>3305</v>
@@ -5309,9 +5294,9 @@
       <c r="D5" t="s">
         <v>6</v>
       </c>
-      <c r="H5" s="144"/>
-      <c r="I5" s="144"/>
-      <c r="J5" s="144"/>
+      <c r="H5" s="151"/>
+      <c r="I5" s="151"/>
+      <c r="J5" s="151"/>
       <c r="S5" s="3">
         <f t="shared" ref="S5:S30" si="0">T4*($T$1/100)</f>
         <v>29.400000000000002</v>
@@ -5341,11 +5326,11 @@
       </c>
       <c r="K6" s="18"/>
       <c r="L6" s="16"/>
-      <c r="M6" s="145" t="s">
+      <c r="M6" s="152" t="s">
         <v>8</v>
       </c>
-      <c r="N6" s="145"/>
-      <c r="O6" s="145"/>
+      <c r="N6" s="152"/>
+      <c r="O6" s="152"/>
       <c r="P6" s="22"/>
       <c r="S6" s="3">
         <f t="shared" si="0"/>
@@ -5361,26 +5346,26 @@
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A7" s="23"/>
-      <c r="B7" s="153" t="s">
-        <v>224</v>
-      </c>
-      <c r="C7" s="155" t="s">
-        <v>225</v>
-      </c>
-      <c r="D7" s="154" t="s">
-        <v>226</v>
-      </c>
-      <c r="E7" s="154" t="s">
-        <v>227</v>
+      <c r="B7" s="142" t="s">
+        <v>214</v>
+      </c>
+      <c r="C7" s="144" t="s">
+        <v>215</v>
+      </c>
+      <c r="D7" s="143" t="s">
+        <v>216</v>
+      </c>
+      <c r="E7" s="143" t="s">
+        <v>217</v>
       </c>
       <c r="F7" s="25" t="s">
-        <v>228</v>
+        <v>218</v>
       </c>
       <c r="G7" s="26" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="H7" s="26" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="I7" s="26" t="s">
         <v>9</v>
@@ -5389,12 +5374,12 @@
         <v>10</v>
       </c>
       <c r="K7" s="26" t="s">
-        <v>231</v>
-      </c>
-      <c r="L7" s="146" t="s">
-        <v>232</v>
-      </c>
-      <c r="M7" s="146"/>
+        <v>221</v>
+      </c>
+      <c r="L7" s="153" t="s">
+        <v>222</v>
+      </c>
+      <c r="M7" s="153"/>
       <c r="N7" s="28" t="s">
         <v>2</v>
       </c>
@@ -5418,51 +5403,51 @@
       </c>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A8" s="147" t="s">
-        <v>233</v>
+      <c r="A8" s="146" t="s">
+        <v>225</v>
       </c>
       <c r="B8" s="30">
         <v>1</v>
       </c>
       <c r="C8" s="31" t="s">
-        <v>13</v>
+        <v>228</v>
       </c>
       <c r="D8" s="32" t="s">
-        <v>14</v>
+        <v>223</v>
       </c>
       <c r="E8" s="33">
-        <v>0.33333333333333331</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="F8" s="34" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="G8" s="35">
-        <v>1.4254</v>
+        <v>1.2538199999999999</v>
       </c>
       <c r="H8" s="35">
-        <v>1.4287000000000001</v>
+        <v>1.2487999999999999</v>
       </c>
       <c r="I8" s="35">
-        <v>1.4206000000000001</v>
+        <v>1.2675399999999999</v>
       </c>
       <c r="J8" s="10">
         <v>48</v>
       </c>
       <c r="K8" s="34"/>
       <c r="L8" s="36" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M8" s="37">
         <f t="shared" ref="M8:M19" si="2">IF((I8-G8)/(H8-G8)&lt;0,(I8-G8)/(H8-G8)*-1,(I8-G8)/(H8-G8))</f>
-        <v>1.4545454545453933</v>
+        <v>2.7330677290836429</v>
       </c>
       <c r="N8" s="38">
         <f t="shared" ref="N8:N19" si="3">IF((G8-H8)*10000&lt;1,(G8-H8)*-1*10000,(G8-H8)*10000)</f>
-        <v>33.00000000000081</v>
+        <v>50.200000000000244</v>
       </c>
       <c r="O8" s="39">
         <f t="shared" ref="O8:O19" si="4">N8*M8</f>
-        <v>47.999999999999154</v>
+        <v>137.19999999999953</v>
       </c>
       <c r="P8" s="40"/>
       <c r="R8" s="41"/>
@@ -5479,49 +5464,49 @@
       </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A9" s="147"/>
+      <c r="A9" s="146"/>
       <c r="B9" s="30">
         <v>2</v>
       </c>
       <c r="C9" s="31" t="s">
-        <v>13</v>
+        <v>229</v>
       </c>
       <c r="D9" s="32" t="s">
-        <v>17</v>
+        <v>227</v>
       </c>
       <c r="E9" s="33">
-        <v>0.66666666666666663</v>
+        <v>0.125</v>
       </c>
       <c r="F9" s="34" t="s">
-        <v>15</v>
+        <v>226</v>
       </c>
       <c r="G9" s="35">
-        <v>1.415</v>
+        <v>0.7429</v>
       </c>
       <c r="H9" s="35">
-        <v>1.4187000000000001</v>
+        <v>0.74</v>
       </c>
       <c r="I9" s="35">
-        <v>1.4108000000000001</v>
+        <v>0.74739999999999995</v>
       </c>
       <c r="J9" s="10">
         <v>42</v>
       </c>
       <c r="K9" s="34"/>
       <c r="L9" s="36" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M9" s="37">
         <f t="shared" si="2"/>
-        <v>1.1351351351351189</v>
+        <v>1.5517241379310094</v>
       </c>
       <c r="N9" s="38">
         <f t="shared" si="3"/>
-        <v>37.000000000000369</v>
+        <v>29.000000000000135</v>
       </c>
       <c r="O9" s="39">
         <f t="shared" si="4"/>
-        <v>41.999999999999815</v>
+        <v>44.999999999999481</v>
       </c>
       <c r="P9" s="40"/>
       <c r="R9" s="41"/>
@@ -5538,7 +5523,7 @@
       </c>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A10" s="147"/>
+      <c r="A10" s="146"/>
       <c r="B10" s="30">
         <v>3</v>
       </c>
@@ -5546,13 +5531,13 @@
         <v>13</v>
       </c>
       <c r="D10" s="32" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E10" s="33">
         <v>0.5</v>
       </c>
       <c r="F10" s="34" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G10" s="35">
         <v>1.4126000000000001</v>
@@ -5568,7 +5553,7 @@
       </c>
       <c r="K10" s="34"/>
       <c r="L10" s="36" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M10" s="37">
         <f t="shared" si="2"/>
@@ -5597,21 +5582,21 @@
       </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A11" s="147"/>
+      <c r="A11" s="146"/>
       <c r="B11" s="42">
         <v>4</v>
       </c>
       <c r="C11" s="31" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D11" s="32" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E11" s="33">
         <v>0.33333333333333331</v>
       </c>
       <c r="F11" s="34" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G11" s="35">
         <v>2.0331000000000001</v>
@@ -5627,7 +5612,7 @@
       </c>
       <c r="K11" s="34"/>
       <c r="L11" s="36" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M11" s="37">
         <f t="shared" si="2"/>
@@ -5656,7 +5641,7 @@
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A12" s="147"/>
+      <c r="A12" s="146"/>
       <c r="B12" s="30">
         <v>5</v>
       </c>
@@ -5664,13 +5649,13 @@
         <v>13</v>
       </c>
       <c r="D12" s="43" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E12" s="33">
         <v>0.33333333333333331</v>
       </c>
       <c r="F12" s="34" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G12" s="35">
         <v>1.4161999999999999</v>
@@ -5686,7 +5671,7 @@
       </c>
       <c r="K12" s="34"/>
       <c r="L12" s="36" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M12" s="37">
         <f t="shared" si="2"/>
@@ -5701,7 +5686,7 @@
         <v>73.000000000000838</v>
       </c>
       <c r="P12" s="40" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="R12" s="41"/>
       <c r="S12" s="3">
@@ -5717,21 +5702,21 @@
       </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A13" s="147"/>
+      <c r="A13" s="146"/>
       <c r="B13" s="42">
         <v>6</v>
       </c>
       <c r="C13" s="31" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D13" s="32" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E13" s="33">
         <v>0.33333333333333331</v>
       </c>
       <c r="F13" s="34" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G13" s="35">
         <v>2.0305</v>
@@ -5747,7 +5732,7 @@
       </c>
       <c r="K13" s="34"/>
       <c r="L13" s="36" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M13" s="37">
         <f t="shared" si="2"/>
@@ -5776,7 +5761,7 @@
       </c>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A14" s="147"/>
+      <c r="A14" s="146"/>
       <c r="B14" s="30">
         <v>7</v>
       </c>
@@ -5784,13 +5769,13 @@
         <v>13</v>
       </c>
       <c r="D14" s="32" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E14" s="33">
         <v>0.33333333333333331</v>
       </c>
       <c r="F14" s="34" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G14" s="35">
         <v>1.4184000000000001</v>
@@ -5805,10 +5790,10 @@
         <v>0</v>
       </c>
       <c r="K14" s="34" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="L14" s="36" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M14" s="37">
         <f t="shared" si="2"/>
@@ -5837,21 +5822,21 @@
       </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A15" s="147"/>
+      <c r="A15" s="146"/>
       <c r="B15" s="42">
         <v>8</v>
       </c>
       <c r="C15" s="31" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D15" s="32" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E15" s="33">
         <v>0.33333333333333331</v>
       </c>
       <c r="F15" s="34" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G15" s="35">
         <v>2.0413000000000001</v>
@@ -5867,7 +5852,7 @@
       </c>
       <c r="K15" s="34"/>
       <c r="L15" s="36" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M15" s="37">
         <f t="shared" si="2"/>
@@ -5896,7 +5881,7 @@
       </c>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A16" s="147"/>
+      <c r="A16" s="146"/>
       <c r="B16" s="30">
         <v>9</v>
       </c>
@@ -5904,13 +5889,13 @@
         <v>13</v>
       </c>
       <c r="D16" s="43" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E16" s="33">
         <v>0.4375</v>
       </c>
       <c r="F16" s="34" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G16" s="35">
         <v>1.4245000000000001</v>
@@ -5926,7 +5911,7 @@
       </c>
       <c r="K16" s="34"/>
       <c r="L16" s="36" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M16" s="37">
         <f t="shared" si="2"/>
@@ -5955,7 +5940,7 @@
       </c>
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A17" s="147"/>
+      <c r="A17" s="146"/>
       <c r="B17" s="30">
         <v>10</v>
       </c>
@@ -5963,13 +5948,13 @@
         <v>13</v>
       </c>
       <c r="D17" s="32" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E17" s="33">
         <v>0.33333333333333331</v>
       </c>
       <c r="F17" s="34" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G17" s="35">
         <v>1.425</v>
@@ -5985,7 +5970,7 @@
       </c>
       <c r="K17" s="34"/>
       <c r="L17" s="36" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M17" s="37">
         <f t="shared" si="2"/>
@@ -6000,7 +5985,7 @@
         <v>44.999999999999488</v>
       </c>
       <c r="P17" s="40" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="R17" s="41"/>
       <c r="S17" s="3">
@@ -6016,7 +6001,7 @@
       </c>
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A18" s="147"/>
+      <c r="A18" s="146"/>
       <c r="B18" s="30">
         <v>11</v>
       </c>
@@ -6024,13 +6009,13 @@
         <v>13</v>
       </c>
       <c r="D18" s="32" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E18" s="33">
         <v>0.5</v>
       </c>
       <c r="F18" s="34" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G18" s="35">
         <v>1.4415</v>
@@ -6046,7 +6031,7 @@
       </c>
       <c r="K18" s="34"/>
       <c r="L18" s="36" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M18" s="37">
         <f t="shared" si="2"/>
@@ -6075,7 +6060,7 @@
       </c>
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A19" s="147"/>
+      <c r="A19" s="146"/>
       <c r="B19" s="46">
         <v>12</v>
       </c>
@@ -6083,13 +6068,13 @@
         <v>13</v>
       </c>
       <c r="D19" s="48" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E19" s="49">
         <v>0.33333333333333331</v>
       </c>
       <c r="F19" s="50" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G19" s="51">
         <v>1.4441999999999999</v>
@@ -6104,10 +6089,10 @@
         <v>-8</v>
       </c>
       <c r="K19" s="50" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="L19" s="53" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M19" s="54">
         <f t="shared" si="2"/>
@@ -6143,7 +6128,7 @@
       <c r="L20" s="61"/>
       <c r="O20" s="15"/>
       <c r="P20" s="22" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="R20" s="41"/>
       <c r="S20" s="3">
@@ -6167,7 +6152,7 @@
         <v>335</v>
       </c>
       <c r="P21" s="62" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="R21" s="41"/>
       <c r="S21" s="3">
@@ -6183,8 +6168,8 @@
       </c>
     </row>
     <row r="22" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="147" t="s">
-        <v>36</v>
+      <c r="A22" s="146" t="s">
+        <v>224</v>
       </c>
       <c r="B22" s="16">
         <v>1</v>
@@ -6193,13 +6178,13 @@
         <v>13</v>
       </c>
       <c r="D22" s="63" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E22" s="64">
         <v>0.33333333333333331</v>
       </c>
       <c r="F22" s="18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G22" s="19">
         <v>1.4453</v>
@@ -6215,7 +6200,7 @@
       </c>
       <c r="K22" s="66"/>
       <c r="L22" s="67" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M22" s="68">
         <f t="shared" ref="M22:M36" si="5">IF((I22-G22)/(H22-G22)&lt;0,(I22-G22)/(H22-G22)*-1,(I22-G22)/(H22-G22))</f>
@@ -6244,7 +6229,7 @@
       </c>
     </row>
     <row r="23" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A23" s="147"/>
+      <c r="A23" s="146"/>
       <c r="B23" s="72">
         <v>2</v>
       </c>
@@ -6252,13 +6237,13 @@
         <v>13</v>
       </c>
       <c r="D23" s="30" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E23" s="33">
         <v>0.16666666666666666</v>
       </c>
       <c r="F23" s="34" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G23" s="35">
         <v>1.4494</v>
@@ -6275,7 +6260,7 @@
       </c>
       <c r="K23" s="34"/>
       <c r="L23" s="36" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M23" s="37">
         <f t="shared" si="5"/>
@@ -6290,7 +6275,7 @@
         <v>33.000000000000803</v>
       </c>
       <c r="P23" s="40" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="R23" s="41"/>
       <c r="S23" s="3">
@@ -6306,7 +6291,7 @@
       </c>
     </row>
     <row r="24" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A24" s="147"/>
+      <c r="A24" s="146"/>
       <c r="B24" s="72">
         <v>3</v>
       </c>
@@ -6314,13 +6299,13 @@
         <v>13</v>
       </c>
       <c r="D24" s="74" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E24" s="33">
         <v>0.29166666666666669</v>
       </c>
       <c r="F24" s="34" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G24" s="35">
         <v>1.448</v>
@@ -6336,7 +6321,7 @@
       </c>
       <c r="K24" s="34"/>
       <c r="L24" s="36" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M24" s="37">
         <f t="shared" si="5"/>
@@ -6351,7 +6336,7 @@
         <v>39.000000000000149</v>
       </c>
       <c r="P24" s="40" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="R24" s="41"/>
       <c r="S24" s="3">
@@ -6367,7 +6352,7 @@
       </c>
     </row>
     <row r="25" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A25" s="147"/>
+      <c r="A25" s="146"/>
       <c r="B25" s="72">
         <v>4</v>
       </c>
@@ -6375,13 +6360,13 @@
         <v>13</v>
       </c>
       <c r="D25" s="30" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E25" s="33">
         <v>0.875</v>
       </c>
       <c r="F25" s="34" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G25" s="35">
         <v>1.4664999999999999</v>
@@ -6398,7 +6383,7 @@
       </c>
       <c r="K25" s="34"/>
       <c r="L25" s="36" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M25" s="37">
         <f t="shared" si="5"/>
@@ -6427,7 +6412,7 @@
       </c>
     </row>
     <row r="26" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A26" s="147"/>
+      <c r="A26" s="146"/>
       <c r="B26" s="72">
         <v>5</v>
       </c>
@@ -6435,13 +6420,13 @@
         <v>13</v>
       </c>
       <c r="D26" s="30" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E26" s="33">
         <v>0.66666666666666663</v>
       </c>
       <c r="F26" s="34" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G26" s="35">
         <v>1.4674</v>
@@ -6457,7 +6442,7 @@
       </c>
       <c r="K26" s="34"/>
       <c r="L26" s="36" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M26" s="37">
         <f t="shared" si="5"/>
@@ -6472,7 +6457,7 @@
         <v>34.000000000000696</v>
       </c>
       <c r="P26" s="40" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="R26" s="41"/>
       <c r="S26" s="3">
@@ -6488,7 +6473,7 @@
       </c>
     </row>
     <row r="27" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A27" s="147"/>
+      <c r="A27" s="146"/>
       <c r="B27" s="72">
         <v>6</v>
       </c>
@@ -6496,13 +6481,13 @@
         <v>13</v>
       </c>
       <c r="D27" s="30" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E27" s="33">
         <v>0.58333333333333326</v>
       </c>
       <c r="F27" s="34" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G27" s="35">
         <v>1.4556</v>
@@ -6519,7 +6504,7 @@
       </c>
       <c r="K27" s="34"/>
       <c r="L27" s="36" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M27" s="37">
         <f t="shared" si="5"/>
@@ -6534,7 +6519,7 @@
         <v>47.999999999999154</v>
       </c>
       <c r="P27" s="40" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="R27" s="41"/>
       <c r="S27" s="3">
@@ -6550,7 +6535,7 @@
       </c>
     </row>
     <row r="28" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A28" s="147"/>
+      <c r="A28" s="146"/>
       <c r="B28" s="72">
         <v>7</v>
       </c>
@@ -6558,13 +6543,13 @@
         <v>13</v>
       </c>
       <c r="D28" s="30" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E28" s="33">
         <v>0.16666666666666666</v>
       </c>
       <c r="F28" s="34" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G28" s="35">
         <v>1.4565999999999999</v>
@@ -6581,7 +6566,7 @@
       </c>
       <c r="K28" s="34"/>
       <c r="L28" s="36" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M28" s="37">
         <f t="shared" si="5"/>
@@ -6596,7 +6581,7 @@
         <v>42.000000000002039</v>
       </c>
       <c r="P28" s="40" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="R28" s="41"/>
       <c r="S28" s="3">
@@ -6612,7 +6597,7 @@
       </c>
     </row>
     <row r="29" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A29" s="147"/>
+      <c r="A29" s="146"/>
       <c r="B29" s="72">
         <v>8</v>
       </c>
@@ -6620,13 +6605,13 @@
         <v>13</v>
       </c>
       <c r="D29" s="30" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E29" s="33">
         <v>0.375</v>
       </c>
       <c r="F29" s="34" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G29" s="35">
         <v>1.4595</v>
@@ -6641,10 +6626,10 @@
         <v>-3</v>
       </c>
       <c r="K29" s="34" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="L29" s="36" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M29" s="37">
         <f t="shared" si="5"/>
@@ -6659,7 +6644,7 @@
         <v>60.99999999999995</v>
       </c>
       <c r="P29" s="40" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="R29" s="41"/>
       <c r="S29" s="3">
@@ -6675,21 +6660,21 @@
       </c>
     </row>
     <row r="30" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A30" s="147"/>
+      <c r="A30" s="146"/>
       <c r="B30" s="76">
         <v>9</v>
       </c>
       <c r="C30" s="30" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D30" s="30" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E30" s="33">
         <v>0.5</v>
       </c>
       <c r="F30" s="34" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G30" s="35">
         <v>2.0718999999999999</v>
@@ -6706,7 +6691,7 @@
       </c>
       <c r="K30" s="34"/>
       <c r="L30" s="36" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M30" s="37">
         <f t="shared" si="5"/>
@@ -6735,7 +6720,7 @@
       </c>
     </row>
     <row r="31" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A31" s="147"/>
+      <c r="A31" s="146"/>
       <c r="B31" s="72">
         <v>10</v>
       </c>
@@ -6743,13 +6728,13 @@
         <v>13</v>
       </c>
       <c r="D31" s="30" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E31" s="33">
         <v>0.5</v>
       </c>
       <c r="F31" s="34" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G31" s="35">
         <v>1.4593</v>
@@ -6764,10 +6749,10 @@
         <v>-35</v>
       </c>
       <c r="K31" s="77" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="L31" s="36" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M31" s="37">
         <f t="shared" si="5"/>
@@ -6785,7 +6770,7 @@
       <c r="R31" s="41"/>
     </row>
     <row r="32" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A32" s="147"/>
+      <c r="A32" s="146"/>
       <c r="B32" s="72">
         <v>11</v>
       </c>
@@ -6793,13 +6778,13 @@
         <v>13</v>
       </c>
       <c r="D32" s="30" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E32" s="33">
         <v>0.33333333333333331</v>
       </c>
       <c r="F32" s="34" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G32" s="35">
         <v>1.4665999999999999</v>
@@ -6816,7 +6801,7 @@
       </c>
       <c r="K32" s="34"/>
       <c r="L32" s="36" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M32" s="37">
         <f t="shared" si="5"/>
@@ -6834,21 +6819,21 @@
       <c r="R32" s="41"/>
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A33" s="147"/>
+      <c r="A33" s="146"/>
       <c r="B33" s="78">
         <v>12</v>
       </c>
       <c r="C33" s="30" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D33" s="30" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E33" s="33">
         <v>0.83333333333333326</v>
       </c>
       <c r="F33" s="34" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G33" s="79">
         <v>109.9</v>
@@ -6864,7 +6849,7 @@
       </c>
       <c r="K33" s="34"/>
       <c r="L33" s="36" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M33" s="37">
         <f t="shared" si="5"/>
@@ -6878,12 +6863,12 @@
         <v>80.000000000001549</v>
       </c>
       <c r="P33" s="40" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="R33" s="41"/>
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A34" s="147"/>
+      <c r="A34" s="146"/>
       <c r="B34" s="72">
         <v>13</v>
       </c>
@@ -6891,13 +6876,13 @@
         <v>13</v>
       </c>
       <c r="D34" s="30" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E34" s="33">
         <v>0.83333333333333337</v>
       </c>
       <c r="F34" s="34" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G34" s="35">
         <v>1.4855</v>
@@ -6914,7 +6899,7 @@
       </c>
       <c r="K34" s="34"/>
       <c r="L34" s="36" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M34" s="37">
         <f t="shared" si="5"/>
@@ -6929,26 +6914,26 @@
         <v>64.999999999999503</v>
       </c>
       <c r="P34" s="40" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="R34" s="41"/>
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A35" s="147"/>
+      <c r="A35" s="146"/>
       <c r="B35" s="76">
         <v>14</v>
       </c>
       <c r="C35" s="30" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D35" s="30" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E35" s="33">
         <v>0.83333333333333337</v>
       </c>
       <c r="F35" s="34" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G35" s="35">
         <v>2.0722999999999998</v>
@@ -6965,7 +6950,7 @@
       </c>
       <c r="K35" s="34"/>
       <c r="L35" s="36" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M35" s="37">
         <f t="shared" si="5"/>
@@ -6980,12 +6965,12 @@
         <v>126.00000000000389</v>
       </c>
       <c r="P35" s="40" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="R35" s="41"/>
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A36" s="147"/>
+      <c r="A36" s="146"/>
       <c r="B36" s="72">
         <v>15</v>
       </c>
@@ -6993,13 +6978,13 @@
         <v>13</v>
       </c>
       <c r="D36" s="81" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="E36" s="33">
         <v>0.33333333333333331</v>
       </c>
       <c r="F36" s="34" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G36" s="35">
         <v>1.4802</v>
@@ -7015,7 +7000,7 @@
       </c>
       <c r="K36" s="34"/>
       <c r="L36" s="36" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M36" s="37">
         <f t="shared" si="5"/>
@@ -7030,12 +7015,12 @@
         <v>61.999999999999829</v>
       </c>
       <c r="P36" s="40" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="R36" s="41"/>
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A37" s="147"/>
+      <c r="A37" s="146"/>
       <c r="B37" s="82"/>
       <c r="C37" s="46"/>
       <c r="D37" s="46"/>
@@ -7057,7 +7042,7 @@
       <c r="L38" s="61"/>
       <c r="O38" s="15"/>
       <c r="P38" s="22" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="R38" s="41"/>
     </row>
@@ -7070,28 +7055,28 @@
         <v>319.5</v>
       </c>
       <c r="P39" s="62" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="R39" s="41"/>
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A40" s="147" t="s">
-        <v>63</v>
+      <c r="A40" s="146" t="s">
+        <v>224</v>
       </c>
       <c r="B40" s="85">
         <v>1</v>
       </c>
       <c r="C40" s="86" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D40" s="86" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="E40" s="64">
         <v>0.16666666666666666</v>
       </c>
       <c r="F40" s="18" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G40" s="87">
         <v>110.06</v>
@@ -7107,7 +7092,7 @@
       </c>
       <c r="K40" s="18"/>
       <c r="L40" s="67" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M40" s="68">
         <f t="shared" ref="M40:M52" si="8">IF((I40-G40)/(H40-G40)&lt;0,(I40-G40)/(H40-G40)*-1,(I40-G40)/(H40-G40))</f>
@@ -7121,26 +7106,26 @@
         <v>103.00000000000064</v>
       </c>
       <c r="P40" s="71" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="R40" s="41"/>
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A41" s="147"/>
+      <c r="A41" s="146"/>
       <c r="B41" s="78">
         <v>2</v>
       </c>
       <c r="C41" s="81" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D41" s="81" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="E41" s="33">
         <v>0.66666666666666663</v>
       </c>
       <c r="F41" s="34" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G41" s="79">
         <v>111.14</v>
@@ -7155,10 +7140,10 @@
         <v>0</v>
       </c>
       <c r="K41" s="34" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="L41" s="36" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M41" s="37">
         <f t="shared" si="8"/>
@@ -7172,12 +7157,12 @@
         <v>45.999999999999311</v>
       </c>
       <c r="P41" s="40" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="R41" s="41"/>
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A42" s="147"/>
+      <c r="A42" s="146"/>
       <c r="B42" s="72">
         <v>3</v>
       </c>
@@ -7185,13 +7170,13 @@
         <v>13</v>
       </c>
       <c r="D42" s="74" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="E42" s="33">
         <v>0.66666666666666663</v>
       </c>
       <c r="F42" s="34" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G42" s="35">
         <v>1.4636</v>
@@ -7207,7 +7192,7 @@
       </c>
       <c r="K42" s="34"/>
       <c r="L42" s="36" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M42" s="37">
         <f t="shared" si="8"/>
@@ -7222,12 +7207,12 @@
         <v>29.999999999998916</v>
       </c>
       <c r="P42" s="40" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="R42" s="41"/>
     </row>
     <row r="43" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A43" s="147"/>
+      <c r="A43" s="146"/>
       <c r="B43" s="72">
         <v>4</v>
       </c>
@@ -7235,13 +7220,13 @@
         <v>13</v>
       </c>
       <c r="D43" s="81" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="E43" s="33">
         <v>0.29166666666666669</v>
       </c>
       <c r="F43" s="34" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G43" s="35">
         <v>1.4605999999999999</v>
@@ -7256,10 +7241,10 @@
         <v>-38</v>
       </c>
       <c r="K43" s="77" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="L43" s="36" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M43" s="37">
         <f t="shared" si="8"/>
@@ -7274,12 +7259,12 @@
         <v>65.999999999999389</v>
       </c>
       <c r="P43" s="40" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="R43" s="41"/>
     </row>
     <row r="44" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A44" s="147"/>
+      <c r="A44" s="146"/>
       <c r="B44" s="72">
         <v>5</v>
       </c>
@@ -7287,13 +7272,13 @@
         <v>13</v>
       </c>
       <c r="D44" s="81" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E44" s="33">
         <v>0.45833333333333331</v>
       </c>
       <c r="F44" s="34" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G44" s="35">
         <v>1.466</v>
@@ -7310,7 +7295,7 @@
       </c>
       <c r="K44" s="34"/>
       <c r="L44" s="36" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M44" s="37">
         <f t="shared" si="8"/>
@@ -7325,12 +7310,12 @@
         <v>81.999999999999858</v>
       </c>
       <c r="P44" s="40" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="R44" s="41"/>
     </row>
     <row r="45" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A45" s="147"/>
+      <c r="A45" s="146"/>
       <c r="B45" s="72">
         <v>6</v>
       </c>
@@ -7338,13 +7323,13 @@
         <v>13</v>
       </c>
       <c r="D45" s="81" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="E45" s="33">
         <v>0.33333333333333331</v>
       </c>
       <c r="F45" s="34" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G45" s="35">
         <v>1.4689000000000001</v>
@@ -7360,7 +7345,7 @@
       </c>
       <c r="K45" s="91"/>
       <c r="L45" s="36" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M45" s="37">
         <f t="shared" si="8"/>
@@ -7375,12 +7360,12 @@
         <v>40.000000000000036</v>
       </c>
       <c r="P45" s="40" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="R45" s="41"/>
     </row>
     <row r="46" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A46" s="147"/>
+      <c r="A46" s="146"/>
       <c r="B46" s="72">
         <v>7</v>
       </c>
@@ -7388,13 +7373,13 @@
         <v>13</v>
       </c>
       <c r="D46" s="81" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="E46" s="33">
         <v>0.5</v>
       </c>
       <c r="F46" s="34" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G46" s="35">
         <v>1.4685999999999999</v>
@@ -7410,7 +7395,7 @@
       </c>
       <c r="K46" s="92"/>
       <c r="L46" s="36" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M46" s="93">
         <f t="shared" si="8"/>
@@ -7425,12 +7410,12 @@
         <v>107.99999999999922</v>
       </c>
       <c r="P46" s="40" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="R46" s="41"/>
     </row>
     <row r="47" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A47" s="147"/>
+      <c r="A47" s="146"/>
       <c r="B47" s="94">
         <v>8</v>
       </c>
@@ -7438,13 +7423,13 @@
         <v>13</v>
       </c>
       <c r="D47" s="81" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="E47" s="33">
         <v>0.375</v>
       </c>
       <c r="F47" s="34" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G47" s="35">
         <v>1.4625000000000001</v>
@@ -7461,7 +7446,7 @@
       </c>
       <c r="K47" s="92"/>
       <c r="L47" s="36" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M47" s="93">
         <f t="shared" si="8"/>
@@ -7476,12 +7461,12 @@
         <v>47.000000000001492</v>
       </c>
       <c r="P47" s="40" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="R47" s="41"/>
     </row>
     <row r="48" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A48" s="147"/>
+      <c r="A48" s="146"/>
       <c r="B48" s="94">
         <v>9</v>
       </c>
@@ -7489,13 +7474,13 @@
         <v>13</v>
       </c>
       <c r="D48" s="30" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="E48" s="33">
         <v>0.41666666666666702</v>
       </c>
       <c r="F48" s="34" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G48" s="35">
         <v>1.4414</v>
@@ -7511,7 +7496,7 @@
       </c>
       <c r="K48" s="92"/>
       <c r="L48" s="95" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M48" s="93">
         <f t="shared" si="8"/>
@@ -7526,26 +7511,26 @@
         <v>34.000000000000696</v>
       </c>
       <c r="P48" s="40" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="R48" s="41"/>
     </row>
     <row r="49" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A49" s="147"/>
+      <c r="A49" s="146"/>
       <c r="B49" s="76">
         <v>10</v>
       </c>
       <c r="C49" s="81" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D49" s="81" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="E49" s="33">
         <v>0.29166666666666669</v>
       </c>
       <c r="F49" s="34" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G49" s="35">
         <v>2.0188999999999999</v>
@@ -7561,7 +7546,7 @@
       </c>
       <c r="K49" s="92"/>
       <c r="L49" s="95" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M49" s="93">
         <f t="shared" si="8"/>
@@ -7576,26 +7561,26 @@
         <v>41.999999999999815</v>
       </c>
       <c r="P49" s="40" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="R49" s="41"/>
     </row>
     <row r="50" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A50" s="147"/>
+      <c r="A50" s="146"/>
       <c r="B50" s="78">
         <v>11</v>
       </c>
       <c r="C50" s="81" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D50" s="81" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="E50" s="33">
         <v>0.83333333333333337</v>
       </c>
       <c r="F50" s="34" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G50" s="79">
         <v>113.32</v>
@@ -7610,10 +7595,10 @@
         <v>-29</v>
       </c>
       <c r="K50" s="97" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="L50" s="95" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M50" s="93">
         <f t="shared" si="8"/>
@@ -7626,26 +7611,26 @@
         <v>20</v>
       </c>
       <c r="P50" s="40" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="R50" s="41"/>
     </row>
     <row r="51" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A51" s="147"/>
+      <c r="A51" s="146"/>
       <c r="B51" s="76">
         <v>12</v>
       </c>
       <c r="C51" s="81" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D51" s="81" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="E51" s="33">
         <v>0.83333333333333337</v>
       </c>
       <c r="F51" s="34" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G51" s="35">
         <v>1.9856</v>
@@ -7661,7 +7646,7 @@
       </c>
       <c r="K51" s="34"/>
       <c r="L51" s="36" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M51" s="37">
         <f t="shared" si="8"/>
@@ -7676,26 +7661,26 @@
         <v>40.000000000000036</v>
       </c>
       <c r="P51" s="40" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="R51" s="41"/>
     </row>
     <row r="52" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A52" s="147"/>
+      <c r="A52" s="146"/>
       <c r="B52" s="76">
         <v>13</v>
       </c>
       <c r="C52" s="81" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D52" s="81" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="E52" s="33">
         <v>0.375</v>
       </c>
       <c r="F52" s="34" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G52" s="35">
         <v>1.9851000000000001</v>
@@ -7711,7 +7696,7 @@
       </c>
       <c r="K52" s="34"/>
       <c r="L52" s="36" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M52" s="37">
         <f t="shared" si="8"/>
@@ -7726,12 +7711,12 @@
         <v>34.000000000000696</v>
       </c>
       <c r="P52" s="40" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="R52" s="41"/>
     </row>
     <row r="53" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A53" s="147"/>
+      <c r="A53" s="146"/>
       <c r="B53" s="94"/>
       <c r="C53" s="81"/>
       <c r="D53" s="30"/>
@@ -7750,7 +7735,7 @@
       <c r="R53" s="41"/>
     </row>
     <row r="54" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A54" s="147"/>
+      <c r="A54" s="146"/>
       <c r="B54" s="72"/>
       <c r="C54" s="81"/>
       <c r="D54" s="81"/>
@@ -7769,7 +7754,7 @@
       <c r="R54" s="41"/>
     </row>
     <row r="55" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A55" s="147"/>
+      <c r="A55" s="146"/>
       <c r="B55" s="82"/>
       <c r="C55" s="46"/>
       <c r="D55" s="46"/>
@@ -7805,8 +7790,8 @@
       </c>
     </row>
     <row r="60" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A60" s="147" t="s">
-        <v>89</v>
+      <c r="A60" s="146" t="s">
+        <v>224</v>
       </c>
       <c r="B60" s="17">
         <v>1</v>
@@ -7815,13 +7800,13 @@
         <v>13</v>
       </c>
       <c r="D60" s="86" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="E60" s="64">
         <v>0.33333333333333331</v>
       </c>
       <c r="F60" s="18" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G60" s="19">
         <v>1.4724999999999999</v>
@@ -7836,10 +7821,10 @@
         <v>-25</v>
       </c>
       <c r="K60" s="100" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="L60" s="67" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M60" s="68">
         <f>IF((I60-G60)/(H60-G60)&lt;0,(I60-G60)/(H60-G60)*-1,(I60-G60)/(H60-G60))</f>
@@ -7854,25 +7839,25 @@
         <v>20.000000000000018</v>
       </c>
       <c r="P60" s="71" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="61" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A61" s="147"/>
+      <c r="A61" s="146"/>
       <c r="B61" s="76">
         <v>2</v>
       </c>
       <c r="C61" s="81" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D61" s="81" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="E61" s="33">
         <v>0.33333333333333331</v>
       </c>
       <c r="F61" s="34" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G61" s="35">
         <v>1.9708000000000001</v>
@@ -7888,7 +7873,7 @@
       </c>
       <c r="K61" s="35"/>
       <c r="L61" s="36" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M61" s="37">
         <f>IF((I61-G61)/(H61-G61)&lt;0,(I61-G61)/(H61-G61)*-1,(I61-G61)/(H61-G61))</f>
@@ -7903,25 +7888,25 @@
         <v>58.00000000000027</v>
       </c>
       <c r="P61" s="40" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="62" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A62" s="147"/>
+      <c r="A62" s="146"/>
       <c r="B62" s="101">
         <v>3</v>
       </c>
       <c r="C62" s="30" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="D62" s="74" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="E62" s="33">
         <v>0.5</v>
       </c>
       <c r="F62" s="34" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G62" s="35">
         <v>1.0026999999999999</v>
@@ -7938,7 +7923,7 @@
       </c>
       <c r="K62" s="35"/>
       <c r="L62" s="36" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M62" s="37">
         <f>O62/N62</f>
@@ -7951,11 +7936,11 @@
         <v>47</v>
       </c>
       <c r="P62" s="40" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="63" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A63" s="147"/>
+      <c r="A63" s="146"/>
       <c r="B63" s="72">
         <v>4</v>
       </c>
@@ -7963,13 +7948,13 @@
         <v>13</v>
       </c>
       <c r="D63" s="81" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="E63" s="33">
         <v>0.66666666666666663</v>
       </c>
       <c r="F63" s="34" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G63" s="35">
         <v>1.4683000000000002</v>
@@ -7986,7 +7971,7 @@
       </c>
       <c r="K63" s="35"/>
       <c r="L63" s="36" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M63" s="37">
         <f>IF((I63-G63)/(H63-G63)&lt;0,(I63-G63)/(H63-G63)*-1,(I63-G63)/(H63-G63))</f>
@@ -8001,11 +7986,11 @@
         <v>35.00000000000059</v>
       </c>
       <c r="P63" s="40" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="64" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A64" s="147"/>
+      <c r="A64" s="146"/>
       <c r="B64" s="72">
         <v>5</v>
       </c>
@@ -8013,13 +7998,13 @@
         <v>13</v>
       </c>
       <c r="D64" s="81" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="E64" s="33">
         <v>0.33333333333333331</v>
       </c>
       <c r="F64" s="34" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G64" s="35">
         <v>1.4792000000000001</v>
@@ -8036,7 +8021,7 @@
       </c>
       <c r="K64" s="35"/>
       <c r="L64" s="36" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M64" s="37">
         <f>IF((I64-G64)/(H64-G64)&lt;0,(I64-G64)/(H64-G64)*-1,(I64-G64)/(H64-G64))</f>
@@ -8051,25 +8036,25 @@
         <v>28.000000000001361</v>
       </c>
       <c r="P64" s="40" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="65" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A65" s="147"/>
+      <c r="A65" s="146"/>
       <c r="B65" s="78">
         <v>6</v>
       </c>
       <c r="C65" s="81" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D65" s="81" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="E65" s="33">
         <v>0.33333333333333331</v>
       </c>
       <c r="F65" s="34" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G65" s="79">
         <v>108.4</v>
@@ -8086,7 +8071,7 @@
       </c>
       <c r="K65" s="35"/>
       <c r="L65" s="36" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M65" s="37">
         <f>IF((I65-G65)/(H65-G65)&lt;0,(I65-G65)/(H65-G65)*-1,(I65-G65)/(H65-G65))</f>
@@ -8100,25 +8085,25 @@
         <v>35.000000000000853</v>
       </c>
       <c r="P65" s="40" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="66" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A66" s="147"/>
+      <c r="A66" s="146"/>
       <c r="B66" s="76">
         <v>7</v>
       </c>
       <c r="C66" s="81" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D66" s="81" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="E66" s="33">
         <v>0.75</v>
       </c>
       <c r="F66" s="34" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G66" s="35">
         <v>1.96</v>
@@ -8134,7 +8119,7 @@
       </c>
       <c r="K66" s="35"/>
       <c r="L66" s="36" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M66" s="37">
         <f>IF((I66-G66)/(H66-G66)&lt;0,(I66-G66)/(H66-G66)*-1,(I66-G66)/(H66-G66))</f>
@@ -8149,25 +8134,25 @@
         <v>100.00000000000009</v>
       </c>
       <c r="P66" s="40" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="67" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A67" s="147"/>
+      <c r="A67" s="146"/>
       <c r="B67" s="78">
         <v>8</v>
       </c>
       <c r="C67" s="81" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D67" s="81" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="E67" s="33">
         <v>0.66666666666666663</v>
       </c>
       <c r="F67" s="34" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G67" s="79">
         <v>106.52</v>
@@ -8184,7 +8169,7 @@
       </c>
       <c r="K67" s="35"/>
       <c r="L67" s="36" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M67" s="37">
         <f>IF((I67-G67)/(H67-G67)&lt;0,(I67-G67)/(H67-G67)*-1,(I67-G67)/(H67-G67))</f>
@@ -8198,25 +8183,25 @@
         <v>90.000000000000782</v>
       </c>
       <c r="P67" s="40" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="68" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A68" s="147"/>
+      <c r="A68" s="146"/>
       <c r="B68" s="78">
         <v>9</v>
       </c>
       <c r="C68" s="81" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D68" s="81" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="E68" s="33">
         <v>0.33333333333333331</v>
       </c>
       <c r="F68" s="34" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G68" s="79">
         <v>106.39</v>
@@ -8233,7 +8218,7 @@
       </c>
       <c r="K68" s="35"/>
       <c r="L68" s="95" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M68" s="93">
         <f>O68/N68</f>
@@ -8246,11 +8231,11 @@
         <v>78</v>
       </c>
       <c r="P68" s="40" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="69" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A69" s="147"/>
+      <c r="A69" s="146"/>
       <c r="B69" s="72">
         <v>10</v>
       </c>
@@ -8258,13 +8243,13 @@
         <v>13</v>
       </c>
       <c r="D69" s="81" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="E69" s="33">
         <v>0.33333333333333331</v>
       </c>
       <c r="F69" s="34" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G69" s="35">
         <v>1.4759</v>
@@ -8280,7 +8265,7 @@
       </c>
       <c r="K69" s="79"/>
       <c r="L69" s="95" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M69" s="37">
         <f>IF((I69-G69)/(H69-G69)&lt;0,(I69-G69)/(H69-G69)*-1,(I69-G69)/(H69-G69))</f>
@@ -8295,25 +8280,25 @@
         <v>37.000000000000369</v>
       </c>
       <c r="P69" s="40" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="70" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A70" s="147"/>
+      <c r="A70" s="146"/>
       <c r="B70" s="76">
         <v>11</v>
       </c>
       <c r="C70" s="58" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D70" s="81" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="E70" s="33">
         <v>0.16666666666666666</v>
       </c>
       <c r="F70" s="34" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G70" s="35">
         <v>1.9767999999999999</v>
@@ -8329,7 +8314,7 @@
       </c>
       <c r="K70" s="35"/>
       <c r="L70" s="95" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M70" s="93">
         <f>IF((I70-G70)/(H70-G70)&lt;0,(I70-G70)/(H70-G70)*-1,(I70-G70)/(H70-G70))</f>
@@ -8344,11 +8329,11 @@
         <v>60.999999999999936</v>
       </c>
       <c r="P70" s="40" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="71" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A71" s="147"/>
+      <c r="A71" s="146"/>
       <c r="B71" s="72">
         <v>12</v>
       </c>
@@ -8356,13 +8341,13 @@
         <v>13</v>
       </c>
       <c r="D71" s="81" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="E71" s="33">
         <v>0.5</v>
       </c>
       <c r="F71" s="34" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G71" s="35">
         <v>1.4717</v>
@@ -8378,7 +8363,7 @@
       </c>
       <c r="K71" s="35"/>
       <c r="L71" s="36" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M71" s="37">
         <f>IF((I71-G71)/(H71-G71)&lt;0,(I71-G71)/(H71-G71)*-1,(I71-G71)/(H71-G71))</f>
@@ -8393,25 +8378,25 @@
         <v>47.999999999999147</v>
       </c>
       <c r="P71" s="40" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="72" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A72" s="147"/>
+      <c r="A72" s="146"/>
       <c r="B72" s="76">
         <v>13</v>
       </c>
       <c r="C72" s="58" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D72" s="81" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="E72" s="33">
         <v>0.5</v>
       </c>
       <c r="F72" s="34" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G72" s="35">
         <v>1.9874000000000001</v>
@@ -8427,7 +8412,7 @@
       </c>
       <c r="K72" s="34"/>
       <c r="L72" s="36" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M72" s="37">
         <f>IF((I72-G72)/(H72-G72)&lt;0,(I72-G72)/(H72-G72)*-1,(I72-G72)/(H72-G72))</f>
@@ -8442,11 +8427,11 @@
         <v>120.00000000000011</v>
       </c>
       <c r="P72" s="40" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="73" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A73" s="147"/>
+      <c r="A73" s="146"/>
       <c r="B73" s="72">
         <v>14</v>
       </c>
@@ -8454,13 +8439,13 @@
         <v>13</v>
       </c>
       <c r="D73" s="30" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="E73" s="33">
         <v>0.5</v>
       </c>
       <c r="F73" s="34" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G73" s="35">
         <v>1.4809000000000001</v>
@@ -8475,10 +8460,10 @@
         <v>-39</v>
       </c>
       <c r="K73" s="77" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="L73" s="36" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M73" s="37">
         <f>IF((I73-G73)/(H73-G73)&lt;0,(I73-G73)/(H73-G73)*-1,(I73-G73)/(H73-G73))</f>
@@ -8493,11 +8478,11 @@
         <v>62.999999999999723</v>
       </c>
       <c r="P73" s="40" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="74" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A74" s="147"/>
+      <c r="A74" s="146"/>
       <c r="B74" s="72"/>
       <c r="C74" s="81"/>
       <c r="D74" s="81"/>
@@ -8515,7 +8500,7 @@
       <c r="P74" s="40"/>
     </row>
     <row r="75" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A75" s="147"/>
+      <c r="A75" s="146"/>
       <c r="B75" s="82"/>
       <c r="C75" s="46"/>
       <c r="D75" s="46"/>
@@ -8544,24 +8529,24 @@
         <v>12</v>
       </c>
     </row>
-    <row r="80" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A80" s="148" t="s">
-        <v>116</v>
+    <row r="80" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A80" s="146" t="s">
+        <v>225</v>
       </c>
       <c r="B80" s="104">
         <v>1</v>
       </c>
       <c r="C80" s="86" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D80" s="86" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="E80" s="64">
         <v>0.83333333333333337</v>
       </c>
       <c r="F80" s="18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G80" s="19">
         <v>1.9737</v>
@@ -8578,7 +8563,7 @@
       </c>
       <c r="K80" s="100"/>
       <c r="L80" s="67" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M80" s="68">
         <f t="shared" ref="M80:M90" si="11">IF((I80-G80)/(H80-G80)&lt;0,(I80-G80)/(H80-G80)*-1,(I80-G80)/(H80-G80))</f>
@@ -8593,11 +8578,11 @@
         <v>34.000000000000696</v>
       </c>
       <c r="P80" s="106" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
     </row>
     <row r="81" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A81" s="148"/>
+      <c r="A81" s="146"/>
       <c r="B81" s="94">
         <v>2</v>
       </c>
@@ -8605,13 +8590,13 @@
         <v>13</v>
       </c>
       <c r="D81" s="58" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="E81" s="33">
         <v>0.33333333333333331</v>
       </c>
       <c r="F81" s="34" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G81" s="35">
         <v>1.4813000000000001</v>
@@ -8627,7 +8612,7 @@
       </c>
       <c r="K81" s="35"/>
       <c r="L81" s="36" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M81" s="37">
         <f t="shared" si="11"/>
@@ -8642,25 +8627,25 @@
         <v>86.000000000001634</v>
       </c>
       <c r="P81" s="106" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
     </row>
     <row r="82" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A82" s="148"/>
+      <c r="A82" s="146"/>
       <c r="B82" s="76">
         <v>3</v>
       </c>
       <c r="C82" s="58" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D82" s="74" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="E82" s="33">
         <v>0.33333333333333331</v>
       </c>
       <c r="F82" s="34" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G82" s="35">
         <v>1.9649000000000001</v>
@@ -8676,7 +8661,7 @@
       </c>
       <c r="K82" s="35"/>
       <c r="L82" s="36" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M82" s="37">
         <f t="shared" si="11"/>
@@ -8691,25 +8676,25 @@
         <v>40.000000000000043</v>
       </c>
       <c r="P82" s="106" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
     </row>
     <row r="83" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A83" s="148"/>
+      <c r="A83" s="146"/>
       <c r="B83" s="76">
         <v>4</v>
       </c>
       <c r="C83" s="81" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D83" s="81" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="E83" s="33">
         <v>0.66666666666666663</v>
       </c>
       <c r="F83" s="34" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G83" s="35">
         <v>1.9704000000000002</v>
@@ -8725,7 +8710,7 @@
       </c>
       <c r="K83" s="35"/>
       <c r="L83" s="36" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M83" s="37">
         <f t="shared" si="11"/>
@@ -8740,25 +8725,25 @@
         <v>33.999999999998472</v>
       </c>
       <c r="P83" s="106" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
     </row>
     <row r="84" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A84" s="148"/>
+      <c r="A84" s="146"/>
       <c r="B84" s="76">
         <v>5</v>
       </c>
       <c r="C84" s="81" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D84" s="81" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="E84" s="33">
         <v>0.33333333333333331</v>
       </c>
       <c r="F84" s="34" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G84" s="35">
         <v>1.9580000000000002</v>
@@ -8775,7 +8760,7 @@
       </c>
       <c r="K84" s="35"/>
       <c r="L84" s="36" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M84" s="37">
         <f t="shared" si="11"/>
@@ -8790,25 +8775,25 @@
         <v>52.000000000000931</v>
       </c>
       <c r="P84" s="106" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
     </row>
     <row r="85" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A85" s="148"/>
+      <c r="A85" s="146"/>
       <c r="B85" s="76">
         <v>6</v>
       </c>
       <c r="C85" s="81" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D85" s="81" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="E85" s="33">
         <v>0.52083333333333326</v>
       </c>
       <c r="F85" s="34" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G85" s="35">
         <v>1.9433</v>
@@ -8824,7 +8809,7 @@
       </c>
       <c r="K85" s="35"/>
       <c r="L85" s="36" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M85" s="37">
         <f t="shared" si="11"/>
@@ -8839,11 +8824,11 @@
         <v>92.99999999999865</v>
       </c>
       <c r="P85" s="106" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
     </row>
     <row r="86" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A86" s="148"/>
+      <c r="A86" s="146"/>
       <c r="B86" s="94">
         <v>7</v>
       </c>
@@ -8851,13 +8836,13 @@
         <v>13</v>
       </c>
       <c r="D86" s="81" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="E86" s="33">
         <v>0.83333333333333326</v>
       </c>
       <c r="F86" s="34" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G86" s="35">
         <v>1.4717</v>
@@ -8874,7 +8859,7 @@
       </c>
       <c r="K86" s="35"/>
       <c r="L86" s="36" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M86" s="37">
         <f t="shared" si="11"/>
@@ -8889,25 +8874,25 @@
         <v>73.000000000000853</v>
       </c>
       <c r="P86" s="106" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
     </row>
     <row r="87" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A87" s="148"/>
+      <c r="A87" s="146"/>
       <c r="B87" s="76">
         <v>8</v>
       </c>
       <c r="C87" s="81" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D87" s="81" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="E87" s="33">
         <v>0.83333333333333337</v>
       </c>
       <c r="F87" s="34" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G87" s="35">
         <v>1.9661</v>
@@ -8922,10 +8907,10 @@
         <v>0</v>
       </c>
       <c r="K87" s="6" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="L87" s="36" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M87" s="37">
         <f t="shared" si="11"/>
@@ -8940,25 +8925,25 @@
         <v>154.0000000000008</v>
       </c>
       <c r="P87" s="106" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
     </row>
     <row r="88" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A88" s="148"/>
+      <c r="A88" s="146"/>
       <c r="B88" s="76">
         <v>9</v>
       </c>
       <c r="C88" s="81" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D88" s="81" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="E88" s="33">
         <v>0.54166666666666663</v>
       </c>
       <c r="F88" s="34" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G88" s="35">
         <v>1.9704999999999999</v>
@@ -8975,7 +8960,7 @@
       </c>
       <c r="K88" s="35"/>
       <c r="L88" s="95" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M88" s="37">
         <f t="shared" si="11"/>
@@ -8990,25 +8975,25 @@
         <v>110.00000000000122</v>
       </c>
       <c r="P88" s="106" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
     </row>
     <row r="89" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A89" s="148"/>
+      <c r="A89" s="146"/>
       <c r="B89" s="76">
         <v>10</v>
       </c>
       <c r="C89" s="81" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D89" s="81" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="E89" s="33">
         <v>0.5</v>
       </c>
       <c r="F89" s="34" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G89" s="35">
         <v>1.9860000000000002</v>
@@ -9024,7 +9009,7 @@
       </c>
       <c r="K89" s="79"/>
       <c r="L89" s="95" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M89" s="37">
         <f t="shared" si="11"/>
@@ -9039,11 +9024,11 @@
         <v>44.000000000001812</v>
       </c>
       <c r="P89" s="106" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
     </row>
     <row r="90" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A90" s="148"/>
+      <c r="A90" s="146"/>
       <c r="B90" s="94">
         <v>11</v>
       </c>
@@ -9051,13 +9036,13 @@
         <v>13</v>
       </c>
       <c r="D90" s="81" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="E90" s="33">
         <v>0.66666666666666663</v>
       </c>
       <c r="F90" s="34" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G90" s="35">
         <v>1.514</v>
@@ -9074,7 +9059,7 @@
       </c>
       <c r="K90" s="35"/>
       <c r="L90" s="95" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M90" s="37">
         <f t="shared" si="11"/>
@@ -9089,11 +9074,11 @@
         <v>60.000000000000057</v>
       </c>
       <c r="P90" s="106" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
     </row>
     <row r="91" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A91" s="148"/>
+      <c r="A91" s="146"/>
       <c r="B91" s="82"/>
       <c r="C91" s="46"/>
       <c r="D91" s="46"/>
@@ -9123,8 +9108,8 @@
       </c>
     </row>
     <row r="96" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A96" s="149" t="s">
-        <v>138</v>
+      <c r="A96" s="147" t="s">
+        <v>224</v>
       </c>
       <c r="B96" s="109">
         <v>1</v>
@@ -9133,13 +9118,13 @@
         <v>13</v>
       </c>
       <c r="D96" s="86" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="E96" s="64">
         <v>0.5</v>
       </c>
       <c r="F96" s="66" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G96" s="19">
         <v>1.5221</v>
@@ -9155,7 +9140,7 @@
       </c>
       <c r="K96" s="100"/>
       <c r="L96" s="67" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M96" s="68">
         <f t="shared" ref="M96:M104" si="14">IF((I96-G96)/(H96-G96)&lt;0,(I96-G96)/(H96-G96)*-1,(I96-G96)/(H96-G96))</f>
@@ -9170,11 +9155,11 @@
         <v>40.000000000000036</v>
       </c>
       <c r="P96" s="110" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
     </row>
     <row r="97" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A97" s="149"/>
+      <c r="A97" s="147"/>
       <c r="B97" s="58">
         <v>2</v>
       </c>
@@ -9182,13 +9167,13 @@
         <v>13</v>
       </c>
       <c r="D97" s="58" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="E97" s="33">
         <v>0.5</v>
       </c>
       <c r="F97" s="34" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G97" s="35">
         <v>1.5185999999999999</v>
@@ -9203,10 +9188,10 @@
         <v>-24</v>
       </c>
       <c r="K97" s="111" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="L97" s="36" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M97" s="37">
         <f t="shared" si="14"/>
@@ -9221,11 +9206,11 @@
         <v>35.999999999998259</v>
       </c>
       <c r="P97" s="106" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
     </row>
     <row r="98" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A98" s="149"/>
+      <c r="A98" s="147"/>
       <c r="B98" s="58">
         <v>3</v>
       </c>
@@ -9233,13 +9218,13 @@
         <v>13</v>
       </c>
       <c r="D98" s="74" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="E98" s="33">
         <v>0.66666666666666663</v>
       </c>
       <c r="F98" s="34" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G98" s="35">
         <v>1.5207000000000002</v>
@@ -9256,7 +9241,7 @@
       </c>
       <c r="K98" s="35"/>
       <c r="L98" s="36" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M98" s="37">
         <f t="shared" si="14"/>
@@ -9271,11 +9256,11 @@
         <v>92.999999999998636</v>
       </c>
       <c r="P98" s="106" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
     </row>
     <row r="99" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A99" s="149"/>
+      <c r="A99" s="147"/>
       <c r="B99" s="58">
         <v>4</v>
       </c>
@@ -9283,13 +9268,13 @@
         <v>13</v>
       </c>
       <c r="D99" s="81" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="E99" s="33">
         <v>0.41666666666666663</v>
       </c>
       <c r="F99" s="34" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G99" s="89">
         <v>1.5399</v>
@@ -9305,7 +9290,7 @@
       </c>
       <c r="K99" s="89"/>
       <c r="L99" s="36" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M99" s="37">
         <f t="shared" si="14"/>
@@ -9320,11 +9305,11 @@
         <v>56.000000000000497</v>
       </c>
       <c r="P99" s="106" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
     </row>
     <row r="100" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A100" s="149"/>
+      <c r="A100" s="147"/>
       <c r="B100" s="58">
         <v>5</v>
       </c>
@@ -9332,13 +9317,13 @@
         <v>13</v>
       </c>
       <c r="D100" s="81" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="E100" s="33">
         <v>0.33333333333333331</v>
       </c>
       <c r="F100" s="34" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G100" s="89">
         <v>1.5773999999999999</v>
@@ -9354,7 +9339,7 @@
       </c>
       <c r="K100" s="89"/>
       <c r="L100" s="36" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M100" s="37">
         <f t="shared" si="14"/>
@@ -9369,11 +9354,11 @@
         <v>78.000000000000284</v>
       </c>
       <c r="P100" s="106" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
     </row>
     <row r="101" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A101" s="149"/>
+      <c r="A101" s="147"/>
       <c r="B101" s="58">
         <v>6</v>
       </c>
@@ -9381,13 +9366,13 @@
         <v>13</v>
       </c>
       <c r="D101" s="81" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="E101" s="33">
         <v>0.66666666666666663</v>
       </c>
       <c r="F101" s="34" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G101" s="89">
         <v>1.5701000000000001</v>
@@ -9403,7 +9388,7 @@
       </c>
       <c r="K101" s="89"/>
       <c r="L101" s="36" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M101" s="37">
         <f t="shared" si="14"/>
@@ -9418,11 +9403,11 @@
         <v>78.000000000000284</v>
       </c>
       <c r="P101" s="106" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
     </row>
     <row r="102" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A102" s="149"/>
+      <c r="A102" s="147"/>
       <c r="B102" s="58">
         <v>7</v>
       </c>
@@ -9430,13 +9415,13 @@
         <v>13</v>
       </c>
       <c r="D102" s="81" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="E102" s="33">
         <v>0.70833333333333326</v>
       </c>
       <c r="F102" s="34" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G102" s="89">
         <v>1.5619000000000001</v>
@@ -9452,7 +9437,7 @@
       </c>
       <c r="K102" s="89"/>
       <c r="L102" s="36" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M102" s="37">
         <f t="shared" si="14"/>
@@ -9467,25 +9452,25 @@
         <v>49.000000000001258</v>
       </c>
       <c r="P102" s="106" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
     </row>
     <row r="103" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A103" s="149"/>
+      <c r="A103" s="147"/>
       <c r="B103" s="58">
         <v>8</v>
       </c>
       <c r="C103" s="81" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D103" s="81" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="E103" s="33">
         <v>0.66666666666666663</v>
       </c>
       <c r="F103" s="34" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G103" s="89">
         <v>1.9832000000000001</v>
@@ -9501,7 +9486,7 @@
       </c>
       <c r="K103" s="89"/>
       <c r="L103" s="36" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M103" s="37">
         <f t="shared" si="14"/>
@@ -9516,11 +9501,11 @@
         <v>72.999999999998622</v>
       </c>
       <c r="P103" s="106" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
     </row>
     <row r="104" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A104" s="149"/>
+      <c r="A104" s="147"/>
       <c r="B104" s="58">
         <v>9</v>
       </c>
@@ -9528,13 +9513,13 @@
         <v>13</v>
       </c>
       <c r="D104" s="81" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="E104" s="33">
         <v>0.66666666666666663</v>
       </c>
       <c r="F104" s="34" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G104" s="89">
         <v>1.5815000000000001</v>
@@ -9550,7 +9535,7 @@
       </c>
       <c r="K104" s="89"/>
       <c r="L104" s="95" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M104" s="37">
         <f t="shared" si="14"/>
@@ -9565,11 +9550,11 @@
         <v>245.00000000000188</v>
       </c>
       <c r="P104" s="106" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
     </row>
     <row r="105" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A105" s="149"/>
+      <c r="A105" s="147"/>
       <c r="B105" s="113"/>
       <c r="C105" s="114"/>
       <c r="D105" s="114"/>
@@ -9599,8 +9584,8 @@
       </c>
     </row>
     <row r="110" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A110" s="150" t="s">
-        <v>154</v>
+      <c r="A110" s="148" t="s">
+        <v>224</v>
       </c>
       <c r="B110" s="122">
         <v>1</v>
@@ -9609,13 +9594,13 @@
         <v>13</v>
       </c>
       <c r="D110" s="86" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="E110" s="64">
         <v>0.66666666666666663</v>
       </c>
       <c r="F110" s="66" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G110" s="19">
         <v>1.5710000000000002</v>
@@ -9631,7 +9616,7 @@
       </c>
       <c r="K110" s="100"/>
       <c r="L110" s="67" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M110" s="68">
         <f>IF((I110-G110)/(H110-G110)&lt;0,(I110-G110)/(H110-G110)*-1,(I110-G110)/(H110-G110))</f>
@@ -9646,25 +9631,25 @@
         <v>57.999999999998053</v>
       </c>
       <c r="P110" s="110" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
     </row>
     <row r="111" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A111" s="150"/>
+      <c r="A111" s="148"/>
       <c r="B111" s="94">
         <v>2</v>
       </c>
       <c r="C111" s="58" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D111" s="58" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="E111" s="33">
         <v>0.33333333333333331</v>
       </c>
       <c r="F111" s="34" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G111" s="35">
         <v>1.9855</v>
@@ -9680,7 +9665,7 @@
       </c>
       <c r="K111" s="111"/>
       <c r="L111" s="36" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M111" s="37">
         <f>IF((I111-G111)/(H111-G111)&lt;0,(I111-G111)/(H111-G111)*-1,(I111-G111)/(H111-G111))</f>
@@ -9695,11 +9680,11 @@
         <v>102.99999999999976</v>
       </c>
       <c r="P111" s="106" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
     </row>
     <row r="112" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A112" s="150"/>
+      <c r="A112" s="148"/>
       <c r="B112" s="94">
         <v>3</v>
       </c>
@@ -9707,13 +9692,13 @@
         <v>13</v>
       </c>
       <c r="D112" s="74" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="E112" s="33">
         <v>0.33333333333333331</v>
       </c>
       <c r="F112" s="34" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G112" s="35">
         <v>1.5728</v>
@@ -9729,7 +9714,7 @@
       </c>
       <c r="K112" s="35"/>
       <c r="L112" s="36" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M112" s="37">
         <f>IF((I112-G112)/(H112-G112)&lt;0,(I112-G112)/(H112-G112)*-1,(I112-G112)/(H112-G112))</f>
@@ -9744,11 +9729,11 @@
         <v>62.999999999999723</v>
       </c>
       <c r="P112" s="106" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
     </row>
     <row r="113" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A113" s="150"/>
+      <c r="A113" s="148"/>
       <c r="B113" s="94">
         <v>4</v>
       </c>
@@ -9756,13 +9741,13 @@
         <v>13</v>
       </c>
       <c r="D113" s="81" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="E113" s="33">
         <v>0.83333333333333326</v>
       </c>
       <c r="F113" s="34" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G113" s="89">
         <v>1.5882000000000001</v>
@@ -9778,7 +9763,7 @@
       </c>
       <c r="K113" s="89"/>
       <c r="L113" s="36" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M113" s="37">
         <f>IF((I113-G113)/(H113-G113)&lt;0,(I113-G113)/(H113-G113)*-1,(I113-G113)/(H113-G113))</f>
@@ -9793,11 +9778,11 @@
         <v>60.99999999999995</v>
       </c>
       <c r="P113" s="106" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
     </row>
     <row r="114" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A114" s="150"/>
+      <c r="A114" s="148"/>
       <c r="B114" s="94">
         <v>5</v>
       </c>
@@ -9805,13 +9790,13 @@
         <v>13</v>
       </c>
       <c r="D114" s="81" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="E114" s="33">
         <v>0.66666666666666663</v>
       </c>
       <c r="F114" s="34" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G114" s="89">
         <v>1.5649000000000002</v>
@@ -9823,11 +9808,11 @@
         <v>1.5545</v>
       </c>
       <c r="J114" s="127" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="K114" s="89"/>
       <c r="L114" s="36" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M114" s="37">
         <f>IF((I114-G114)/(H114-G114)&lt;0,(I114-G114)/(H114-G114)*-1,(I114-G114)/(H114-G114))</f>
@@ -9842,11 +9827,11 @@
         <v>104.00000000000186</v>
       </c>
       <c r="P114" s="106" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
     </row>
     <row r="115" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A115" s="150"/>
+      <c r="A115" s="148"/>
       <c r="B115" s="128"/>
       <c r="C115" s="114"/>
       <c r="D115" s="114"/>
@@ -9887,24 +9872,24 @@
         <v>12</v>
       </c>
     </row>
-    <row r="120" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A120" s="151">
-        <v>39569</v>
+    <row r="120" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A120" s="146" t="s">
+        <v>225</v>
       </c>
       <c r="B120" s="122">
         <v>1</v>
       </c>
       <c r="C120" s="86" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D120" s="86" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="E120" s="64">
         <v>0.33333333333333331</v>
       </c>
       <c r="F120" s="18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G120" s="19">
         <v>1.9767000000000001</v>
@@ -9919,10 +9904,10 @@
         <v>0</v>
       </c>
       <c r="K120" s="132" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="L120" s="67" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M120" s="68">
         <f t="shared" ref="M120:M130" si="17">IF((I120-G120)/(H120-G120)&lt;0,(I120-G120)/(H120-G120)*-1,(I120-G120)/(H120-G120))</f>
@@ -9937,25 +9922,25 @@
         <v>102.99999999999976</v>
       </c>
       <c r="P120" s="134" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
     </row>
     <row r="121" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A121" s="151"/>
+      <c r="A121" s="146"/>
       <c r="B121" s="94">
         <v>2</v>
       </c>
       <c r="C121" s="58" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D121" s="58" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="E121" s="33">
         <v>0.5</v>
       </c>
       <c r="F121" s="34" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G121" s="35">
         <v>1.9708000000000001</v>
@@ -9971,7 +9956,7 @@
       </c>
       <c r="K121" s="111"/>
       <c r="L121" s="36" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M121" s="135">
         <f t="shared" si="17"/>
@@ -9986,25 +9971,25 @@
         <v>78.000000000000298</v>
       </c>
       <c r="P121" s="137" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
     </row>
     <row r="122" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A122" s="151"/>
+      <c r="A122" s="146"/>
       <c r="B122" s="94">
         <v>3</v>
       </c>
       <c r="C122" s="58" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D122" s="74" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="E122" s="33">
         <v>0.33333333333333331</v>
       </c>
       <c r="F122" s="34" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G122" s="35">
         <v>1.9733000000000001</v>
@@ -10020,7 +10005,7 @@
       </c>
       <c r="K122" s="35"/>
       <c r="L122" s="36" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M122" s="135">
         <f t="shared" si="17"/>
@@ -10035,11 +10020,11 @@
         <v>59.000000000000163</v>
       </c>
       <c r="P122" s="137" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
     </row>
     <row r="123" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A123" s="151"/>
+      <c r="A123" s="146"/>
       <c r="B123" s="94">
         <v>4</v>
       </c>
@@ -10047,13 +10032,13 @@
         <v>13</v>
       </c>
       <c r="D123" s="81" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="E123" s="33">
         <v>0.5</v>
       </c>
       <c r="F123" s="34" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G123" s="89">
         <v>1.5524</v>
@@ -10069,7 +10054,7 @@
       </c>
       <c r="K123" s="89"/>
       <c r="L123" s="36" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M123" s="135">
         <f t="shared" si="17"/>
@@ -10084,11 +10069,11 @@
         <v>70.999999999998849</v>
       </c>
       <c r="P123" s="137" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
     </row>
     <row r="124" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A124" s="151"/>
+      <c r="A124" s="146"/>
       <c r="B124" s="94">
         <v>5</v>
       </c>
@@ -10096,13 +10081,13 @@
         <v>13</v>
       </c>
       <c r="D124" s="81" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="E124" s="33">
         <v>0.41666666666666663</v>
       </c>
       <c r="F124" s="34" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G124" s="89">
         <v>1.5483</v>
@@ -10118,7 +10103,7 @@
       </c>
       <c r="K124" s="89"/>
       <c r="L124" s="36" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M124" s="135">
         <f t="shared" si="17"/>
@@ -10133,11 +10118,11 @@
         <v>29.999999999998916</v>
       </c>
       <c r="P124" s="137" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
     </row>
     <row r="125" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A125" s="151"/>
+      <c r="A125" s="146"/>
       <c r="B125" s="94">
         <v>6</v>
       </c>
@@ -10145,13 +10130,13 @@
         <v>13</v>
       </c>
       <c r="D125" s="81" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="E125" s="33">
         <v>0.5</v>
       </c>
       <c r="F125" s="34" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G125" s="89">
         <v>1.5441</v>
@@ -10167,7 +10152,7 @@
       </c>
       <c r="K125" s="89"/>
       <c r="L125" s="36" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M125" s="135">
         <f t="shared" si="17"/>
@@ -10182,11 +10167,11 @@
         <v>108.9999999999991</v>
       </c>
       <c r="P125" s="137" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
     </row>
     <row r="126" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A126" s="151"/>
+      <c r="A126" s="146"/>
       <c r="B126" s="94">
         <v>7</v>
       </c>
@@ -10194,13 +10179,13 @@
         <v>13</v>
       </c>
       <c r="D126" s="81" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="E126" s="33">
         <v>0.5</v>
       </c>
       <c r="F126" s="34" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G126" s="89">
         <v>1.5487000000000002</v>
@@ -10215,10 +10200,10 @@
         <v>-15</v>
       </c>
       <c r="K126" s="111" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="L126" s="36" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M126" s="135">
         <f t="shared" si="17"/>
@@ -10233,11 +10218,11 @@
         <v>57.000000000000384</v>
       </c>
       <c r="P126" s="137" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
     </row>
     <row r="127" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A127" s="151"/>
+      <c r="A127" s="146"/>
       <c r="B127" s="94">
         <v>8</v>
       </c>
@@ -10245,13 +10230,13 @@
         <v>13</v>
       </c>
       <c r="D127" s="81" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="E127" s="33">
         <v>0.5</v>
       </c>
       <c r="F127" s="34" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G127" s="89">
         <v>1.5472000000000001</v>
@@ -10266,10 +10251,10 @@
         <v>-13</v>
       </c>
       <c r="K127" s="111" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="L127" s="36" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M127" s="135">
         <f t="shared" si="17"/>
@@ -10284,25 +10269,25 @@
         <v>37.000000000002593</v>
       </c>
       <c r="P127" s="137" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
     </row>
     <row r="128" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A128" s="151"/>
+      <c r="A128" s="146"/>
       <c r="B128" s="94">
         <v>9</v>
       </c>
       <c r="C128" s="81" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D128" s="81" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="E128" s="33">
         <v>0.56597222222222221</v>
       </c>
       <c r="F128" s="34" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G128" s="89">
         <v>1.9823</v>
@@ -10318,7 +10303,7 @@
       </c>
       <c r="K128" s="89"/>
       <c r="L128" s="95" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M128" s="135">
         <f t="shared" si="17"/>
@@ -10333,11 +10318,11 @@
         <v>62.999999999999723</v>
       </c>
       <c r="P128" s="137" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
     </row>
     <row r="129" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A129" s="151"/>
+      <c r="A129" s="146"/>
       <c r="B129" s="94">
         <v>10</v>
       </c>
@@ -10345,13 +10330,13 @@
         <v>13</v>
       </c>
       <c r="D129" s="81" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="E129" s="33">
         <v>0.66666666666666663</v>
       </c>
       <c r="F129" s="34" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G129" s="89">
         <v>1.5758000000000001</v>
@@ -10367,7 +10352,7 @@
       </c>
       <c r="K129" s="96"/>
       <c r="L129" s="95" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M129" s="135">
         <f t="shared" si="17"/>
@@ -10382,11 +10367,11 @@
         <v>41.999999999999815</v>
       </c>
       <c r="P129" s="137" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
     </row>
     <row r="130" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A130" s="151"/>
+      <c r="A130" s="146"/>
       <c r="B130" s="94">
         <v>11</v>
       </c>
@@ -10394,13 +10379,13 @@
         <v>13</v>
       </c>
       <c r="D130" s="81" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="E130" s="33">
         <v>0.66666666666666663</v>
       </c>
       <c r="F130" s="34" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G130" s="89">
         <v>1.5772999999999999</v>
@@ -10416,7 +10401,7 @@
       </c>
       <c r="K130" s="89"/>
       <c r="L130" s="95" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M130" s="37">
         <f t="shared" si="17"/>
@@ -10431,11 +10416,11 @@
         <v>117.00000000000044</v>
       </c>
       <c r="P130" s="40" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
     </row>
     <row r="131" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A131" s="151"/>
+      <c r="A131" s="146"/>
       <c r="B131" s="82"/>
       <c r="C131" s="46"/>
       <c r="D131" s="46"/>
@@ -10465,8 +10450,8 @@
       </c>
     </row>
     <row r="136" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A136" s="152" t="s">
-        <v>186</v>
+      <c r="A136" s="145" t="s">
+        <v>224</v>
       </c>
       <c r="B136" s="122">
         <v>1</v>
@@ -10475,13 +10460,13 @@
         <v>13</v>
       </c>
       <c r="D136" s="86" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="E136" s="64">
         <v>0.5</v>
       </c>
       <c r="F136" s="18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G136" s="19">
         <v>1.5510999999999999</v>
@@ -10496,10 +10481,10 @@
         <v>0</v>
       </c>
       <c r="K136" s="132" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="L136" s="67" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M136" s="68">
         <f t="shared" ref="M136:M142" si="20">IF((I136-G136)/(H136-G136)&lt;0,(I136-G136)/(H136-G136)*-1,(I136-G136)/(H136-G136))</f>
@@ -10514,25 +10499,25 @@
         <v>46.999999999999268</v>
       </c>
       <c r="P136" s="134" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
     </row>
     <row r="137" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A137" s="152"/>
+      <c r="A137" s="145"/>
       <c r="B137" s="94">
         <v>2</v>
       </c>
       <c r="C137" s="58" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D137" s="74" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="E137" s="33">
         <v>0.5</v>
       </c>
       <c r="F137" s="34" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G137" s="35">
         <v>1.9556</v>
@@ -10548,7 +10533,7 @@
       </c>
       <c r="K137" s="89"/>
       <c r="L137" s="36" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M137" s="37">
         <f t="shared" si="20"/>
@@ -10563,11 +10548,11 @@
         <v>43.999999999999588</v>
       </c>
       <c r="P137" s="137" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
     </row>
     <row r="138" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A138" s="152"/>
+      <c r="A138" s="145"/>
       <c r="B138" s="94">
         <v>3</v>
       </c>
@@ -10575,13 +10560,13 @@
         <v>13</v>
       </c>
       <c r="D138" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="E138" s="60">
         <v>0.33333333333333331</v>
       </c>
       <c r="F138" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G138" s="2">
         <v>1.5441</v>
@@ -10596,7 +10581,7 @@
         <v>73</v>
       </c>
       <c r="L138" s="36" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M138" s="37">
         <f t="shared" si="20"/>
@@ -10611,11 +10596,11 @@
         <v>40.999999999999922</v>
       </c>
       <c r="P138" s="137" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
     </row>
     <row r="139" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A139" s="152"/>
+      <c r="A139" s="145"/>
       <c r="B139" s="94">
         <v>4</v>
       </c>
@@ -10623,13 +10608,13 @@
         <v>13</v>
       </c>
       <c r="D139" s="81" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="E139" s="33">
         <v>0.5</v>
       </c>
       <c r="F139" s="34" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G139" s="89">
         <v>1.5423</v>
@@ -10645,7 +10630,7 @@
       </c>
       <c r="K139" s="89"/>
       <c r="L139" s="36" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M139" s="37">
         <f t="shared" si="20"/>
@@ -10660,11 +10645,11 @@
         <v>106.99999999999932</v>
       </c>
       <c r="P139" s="137" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
     </row>
     <row r="140" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A140" s="152"/>
+      <c r="A140" s="145"/>
       <c r="B140" s="94">
         <v>5</v>
       </c>
@@ -10672,13 +10657,13 @@
         <v>13</v>
       </c>
       <c r="D140" s="81" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="E140" s="33">
         <v>0.83333333333333326</v>
       </c>
       <c r="F140" s="34" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G140" s="89">
         <v>1.5527000000000002</v>
@@ -10694,7 +10679,7 @@
       </c>
       <c r="K140" s="89"/>
       <c r="L140" s="36" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M140" s="37">
         <f t="shared" si="20"/>
@@ -10709,11 +10694,11 @@
         <v>47.999999999999162</v>
       </c>
       <c r="P140" s="137" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
     </row>
     <row r="141" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A141" s="152"/>
+      <c r="A141" s="145"/>
       <c r="B141" s="94">
         <v>6</v>
       </c>
@@ -10721,13 +10706,13 @@
         <v>13</v>
       </c>
       <c r="D141" s="81" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c r="E141" s="33">
         <v>0.16666666666666666</v>
       </c>
       <c r="F141" s="34" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G141" s="89">
         <v>1.5521</v>
@@ -10743,7 +10728,7 @@
       </c>
       <c r="K141" s="89"/>
       <c r="L141" s="36" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M141" s="37">
         <f t="shared" si="20"/>
@@ -10758,25 +10743,25 @@
         <v>54.000000000000711</v>
       </c>
       <c r="P141" s="137" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
     </row>
     <row r="142" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A142" s="152"/>
+      <c r="A142" s="145"/>
       <c r="B142" s="94">
         <v>7</v>
       </c>
       <c r="C142" s="81" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D142" s="81" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
       <c r="E142" s="33">
         <v>0.5</v>
       </c>
       <c r="F142" s="34" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G142" s="89">
         <v>1.9719000000000002</v>
@@ -10792,7 +10777,7 @@
       </c>
       <c r="K142" s="111"/>
       <c r="L142" s="36" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M142" s="37">
         <f t="shared" si="20"/>
@@ -10807,11 +10792,11 @@
         <v>25.999999999997137</v>
       </c>
       <c r="P142" s="137" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
     </row>
     <row r="143" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A143" s="152"/>
+      <c r="A143" s="145"/>
       <c r="B143" s="82"/>
       <c r="C143" s="46"/>
       <c r="D143" s="46"/>
@@ -10841,8 +10826,8 @@
       </c>
     </row>
     <row r="147" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A147" s="152" t="s">
-        <v>201</v>
+      <c r="A147" s="145" t="s">
+        <v>224</v>
       </c>
       <c r="B147" s="122">
         <v>1</v>
@@ -10851,13 +10836,13 @@
         <v>13</v>
       </c>
       <c r="D147" s="86" t="s">
-        <v>202</v>
+        <v>192</v>
       </c>
       <c r="E147" s="64">
         <v>0.5</v>
       </c>
       <c r="F147" s="66" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G147" s="19">
         <v>1.5779000000000001</v>
@@ -10873,7 +10858,7 @@
       </c>
       <c r="K147" s="132"/>
       <c r="L147" s="67" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M147" s="68">
         <f t="shared" ref="M147:M158" si="23">IF((I147-G147)/(H147-G147)&lt;0,(I147-G147)/(H147-G147)*-1,(I147-G147)/(H147-G147))</f>
@@ -10888,11 +10873,11 @@
         <v>47.999999999999147</v>
       </c>
       <c r="P147" s="134" t="s">
-        <v>203</v>
+        <v>193</v>
       </c>
     </row>
     <row r="148" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A148" s="152"/>
+      <c r="A148" s="145"/>
       <c r="B148" s="94">
         <v>2</v>
       </c>
@@ -10900,13 +10885,13 @@
         <v>13</v>
       </c>
       <c r="D148" s="74" t="s">
-        <v>204</v>
+        <v>194</v>
       </c>
       <c r="E148" s="33">
         <v>0.5</v>
       </c>
       <c r="F148" s="34" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G148" s="35">
         <v>1.5790000000000002</v>
@@ -10921,10 +10906,10 @@
         <v>-30</v>
       </c>
       <c r="K148" s="111" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="L148" s="36" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M148" s="37">
         <f t="shared" si="23"/>
@@ -10939,11 +10924,11 @@
         <v>30.000000000001133</v>
       </c>
       <c r="P148" s="137" t="s">
-        <v>205</v>
+        <v>195</v>
       </c>
     </row>
     <row r="149" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A149" s="152"/>
+      <c r="A149" s="145"/>
       <c r="B149" s="94">
         <v>3</v>
       </c>
@@ -10951,13 +10936,13 @@
         <v>13</v>
       </c>
       <c r="D149" s="30" t="s">
-        <v>204</v>
+        <v>194</v>
       </c>
       <c r="E149" s="33">
         <v>0.66666666666666663</v>
       </c>
       <c r="F149" s="34" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G149" s="35">
         <v>1.5851999999999999</v>
@@ -10973,7 +10958,7 @@
       </c>
       <c r="K149" s="34"/>
       <c r="L149" s="36" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M149" s="37">
         <f t="shared" si="23"/>
@@ -10988,11 +10973,11 @@
         <v>133.00000000000091</v>
       </c>
       <c r="P149" s="137" t="s">
-        <v>206</v>
+        <v>196</v>
       </c>
     </row>
     <row r="150" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A150" s="152"/>
+      <c r="A150" s="145"/>
       <c r="B150" s="94">
         <v>4</v>
       </c>
@@ -11000,13 +10985,13 @@
         <v>13</v>
       </c>
       <c r="D150" s="81" t="s">
-        <v>207</v>
+        <v>197</v>
       </c>
       <c r="E150" s="33">
         <v>0.5</v>
       </c>
       <c r="F150" s="34" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G150" s="89">
         <v>1.569</v>
@@ -11022,7 +11007,7 @@
       </c>
       <c r="K150" s="89"/>
       <c r="L150" s="36" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M150" s="37">
         <f t="shared" si="23"/>
@@ -11037,25 +11022,25 @@
         <v>40.000000000000043</v>
       </c>
       <c r="P150" s="137" t="s">
-        <v>208</v>
+        <v>198</v>
       </c>
     </row>
     <row r="151" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A151" s="152"/>
+      <c r="A151" s="145"/>
       <c r="B151" s="94">
         <v>5</v>
       </c>
       <c r="C151" s="81" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D151" s="81" t="s">
-        <v>209</v>
+        <v>199</v>
       </c>
       <c r="E151" s="33">
         <v>0.33333333333333331</v>
       </c>
       <c r="F151" s="34" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G151" s="89">
         <v>1.9755</v>
@@ -11071,7 +11056,7 @@
       </c>
       <c r="K151" s="89"/>
       <c r="L151" s="36" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M151" s="37">
         <f t="shared" si="23"/>
@@ -11086,11 +11071,11 @@
         <v>37.000000000000369</v>
       </c>
       <c r="P151" s="137" t="s">
-        <v>210</v>
+        <v>200</v>
       </c>
     </row>
     <row r="152" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A152" s="152"/>
+      <c r="A152" s="145"/>
       <c r="B152" s="94">
         <v>6</v>
       </c>
@@ -11098,13 +11083,13 @@
         <v>13</v>
       </c>
       <c r="D152" s="81" t="s">
-        <v>211</v>
+        <v>201</v>
       </c>
       <c r="E152" s="33">
         <v>0.66666666666666663</v>
       </c>
       <c r="F152" s="34" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G152" s="89">
         <v>1.5727</v>
@@ -11120,7 +11105,7 @@
       </c>
       <c r="K152" s="89"/>
       <c r="L152" s="36" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M152" s="37">
         <f t="shared" si="23"/>
@@ -11135,11 +11120,11 @@
         <v>73.000000000000838</v>
       </c>
       <c r="P152" s="137" t="s">
-        <v>212</v>
+        <v>202</v>
       </c>
     </row>
     <row r="153" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A153" s="152"/>
+      <c r="A153" s="145"/>
       <c r="B153" s="94">
         <v>7</v>
       </c>
@@ -11147,13 +11132,13 @@
         <v>13</v>
       </c>
       <c r="D153" s="81" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
       <c r="E153" s="33">
         <v>0.33333333333333331</v>
       </c>
       <c r="F153" s="34" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G153" s="89">
         <v>1.5936999999999999</v>
@@ -11169,7 +11154,7 @@
       </c>
       <c r="K153" s="89"/>
       <c r="L153" s="36" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M153" s="37">
         <f t="shared" si="23"/>
@@ -11184,25 +11169,25 @@
         <v>63.00000000000194</v>
       </c>
       <c r="P153" s="137" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
     </row>
     <row r="154" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A154" s="152"/>
+      <c r="A154" s="145"/>
       <c r="B154" s="94">
         <v>8</v>
       </c>
       <c r="C154" s="81" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D154" s="81" t="s">
-        <v>215</v>
+        <v>205</v>
       </c>
       <c r="E154" s="33">
         <v>0.16666666666666666</v>
       </c>
       <c r="F154" s="34" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G154" s="89">
         <v>1.9953000000000001</v>
@@ -11218,7 +11203,7 @@
       </c>
       <c r="K154" s="89"/>
       <c r="L154" s="36" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M154" s="37">
         <f t="shared" si="23"/>
@@ -11233,11 +11218,11 @@
         <v>71.000000000001052</v>
       </c>
       <c r="P154" s="137" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
     </row>
     <row r="155" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A155" s="152"/>
+      <c r="A155" s="145"/>
       <c r="B155" s="94">
         <v>9</v>
       </c>
@@ -11245,13 +11230,13 @@
         <v>13</v>
       </c>
       <c r="D155" s="81" t="s">
-        <v>215</v>
+        <v>205</v>
       </c>
       <c r="E155" s="33">
         <v>0.5</v>
       </c>
       <c r="F155" s="34" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G155" s="89">
         <v>1.5847</v>
@@ -11267,7 +11252,7 @@
       </c>
       <c r="K155" s="89"/>
       <c r="L155" s="36" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M155" s="37">
         <f t="shared" si="23"/>
@@ -11282,11 +11267,11 @@
         <v>41.999999999999815</v>
       </c>
       <c r="P155" s="137" t="s">
-        <v>217</v>
+        <v>207</v>
       </c>
     </row>
     <row r="156" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A156" s="152"/>
+      <c r="A156" s="145"/>
       <c r="B156" s="94">
         <v>10</v>
       </c>
@@ -11294,13 +11279,13 @@
         <v>13</v>
       </c>
       <c r="D156" s="81" t="s">
-        <v>218</v>
+        <v>208</v>
       </c>
       <c r="E156" s="33">
         <v>0.75</v>
       </c>
       <c r="F156" s="34" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G156" s="89">
         <v>1.5860000000000001</v>
@@ -11316,7 +11301,7 @@
       </c>
       <c r="K156" s="111"/>
       <c r="L156" s="36" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M156" s="37">
         <f t="shared" si="23"/>
@@ -11331,11 +11316,11 @@
         <v>40.000000000000036</v>
       </c>
       <c r="P156" s="137" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
     </row>
     <row r="157" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A157" s="152"/>
+      <c r="A157" s="145"/>
       <c r="B157" s="94">
         <v>11</v>
       </c>
@@ -11343,13 +11328,13 @@
         <v>13</v>
       </c>
       <c r="D157" s="81" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="E157" s="33">
         <v>0.33333333333333331</v>
       </c>
       <c r="F157" s="34" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G157" s="89">
         <v>1.5756999999999999</v>
@@ -11365,7 +11350,7 @@
       </c>
       <c r="K157" s="89"/>
       <c r="L157" s="36" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M157" s="37">
         <f t="shared" si="23"/>
@@ -11380,11 +11365,11 @@
         <v>56.999999999998167</v>
       </c>
       <c r="P157" s="137" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
     </row>
     <row r="158" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A158" s="152"/>
+      <c r="A158" s="145"/>
       <c r="B158" s="94">
         <v>12</v>
       </c>
@@ -11392,7 +11377,7 @@
         <v>13</v>
       </c>
       <c r="D158" s="81" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="E158" s="33">
         <v>0.5</v>
@@ -11411,10 +11396,10 @@
         <v>0</v>
       </c>
       <c r="K158" s="139" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="L158" s="95" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M158" s="37">
         <f t="shared" si="23"/>
@@ -11429,11 +11414,11 @@
         <v>30.000000000001133</v>
       </c>
       <c r="P158" s="137" t="s">
-        <v>223</v>
+        <v>213</v>
       </c>
     </row>
     <row r="159" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A159" s="152"/>
+      <c r="A159" s="145"/>
       <c r="B159" s="94"/>
       <c r="C159" s="30"/>
       <c r="D159" s="30"/>
@@ -11451,7 +11436,7 @@
       <c r="P159" s="137"/>
     </row>
     <row r="160" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A160" s="152"/>
+      <c r="A160" s="145"/>
       <c r="B160" s="94"/>
       <c r="C160" s="30"/>
       <c r="D160" s="30"/>
@@ -11469,7 +11454,7 @@
       <c r="P160" s="137"/>
     </row>
     <row r="161" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A161" s="152"/>
+      <c r="A161" s="145"/>
       <c r="B161" s="128"/>
       <c r="C161" s="46"/>
       <c r="D161" s="46"/>
@@ -11488,6 +11473,12 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A8:A19"/>
+    <mergeCell ref="H3:J3"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="H5:J5"/>
+    <mergeCell ref="M6:O6"/>
+    <mergeCell ref="L7:M7"/>
     <mergeCell ref="A120:A131"/>
     <mergeCell ref="A136:A143"/>
     <mergeCell ref="A147:A161"/>
@@ -11497,14 +11488,16 @@
     <mergeCell ref="A80:A91"/>
     <mergeCell ref="A96:A105"/>
     <mergeCell ref="A110:A115"/>
-    <mergeCell ref="H3:J3"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="H5:J5"/>
-    <mergeCell ref="M6:O6"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="A8:A19"/>
   </mergeCells>
   <phoneticPr fontId="28" type="noConversion"/>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F8">
+      <formula1>"s,b"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8:C9">
+      <formula1>"EURUSD,EURGPB,AUDUSD,NZDUSD,EURJPY,USDJPY,AUDJPY,USDCAD"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.74791666666666667" right="0.74791666666666667" top="0.98402777777777783" bottom="0.98402777777777783" header="0.51180555555555562" footer="0.51180555555555562"/>
   <pageSetup scale="52" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter alignWithMargins="0"/>

--- a/4Hour MACD deals.xlsx
+++ b/4Hour MACD deals.xlsx
@@ -2,12 +2,13 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr/>
+  <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="277"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="277" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Transactions" sheetId="1" r:id="rId1"/>
+    <sheet name="T" sheetId="4" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="Excel_BuiltIn_Print_Area_1_1">Transactions!$A$1:$Q$144</definedName>
@@ -3192,8 +3193,35 @@
 </comments>
 </file>
 
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author/>
+  </authors>
+  <commentList>
+    <comment ref="I3" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="8"/>
+            <rFont val="Times New Roman"/>
+            <family val="1"/>
+          </rPr>
+          <t xml:space="preserve">This is planned TP as to get the full move. TP however is taken in 2 stages most of the time as to secure profit at the end of the day. 1st TP is not at the figure given here and depends on  S/R lines as well as MA's etc or a fixed amount of pips for that trade. If the R:R to the planned full TP is less than 1, then addisional confirmation have to be supplied to verify the reason for the overrule otherwise the deal is ignored as not worth the risk
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K4" authorId="0">
+      <text/>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="600" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="623" uniqueCount="232">
   <si>
     <t>Oct2007 –July 2008</t>
   </si>
@@ -3297,9 +3325,6 @@
     <t>Page No</t>
   </si>
   <si>
-    <t>02/11/2007</t>
-  </si>
-  <si>
     <t>05/11/2007</t>
   </si>
   <si>
@@ -3835,42 +3860,6 @@
   </si>
   <si>
     <t>16314-1088</t>
-  </si>
-  <si>
-    <t>序号</t>
-    <phoneticPr fontId="28" type="noConversion"/>
-  </si>
-  <si>
-    <t>货币对</t>
-    <phoneticPr fontId="28" type="noConversion"/>
-  </si>
-  <si>
-    <t>日期</t>
-    <phoneticPr fontId="28" type="noConversion"/>
-  </si>
-  <si>
-    <t>时间</t>
-    <phoneticPr fontId="28" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>动作</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>Entry</t>
@@ -3889,29 +3878,61 @@
     <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
+    <t xml:space="preserve">               Feb 2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">               Feb 2015</t>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <t>b</t>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <t>10/02/2015</t>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <t>EURUSD</t>
+  </si>
+  <si>
+    <t>EURGPB</t>
+  </si>
+  <si>
+    <t>Pair</t>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <t>Date</t>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <t>Time</t>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <t>Action</t>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <t>GbpUsd</t>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <t>10/02/2015</t>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <t>b</t>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
     <t>06/02/2015</t>
     <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">               Feb 2015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">               Feb 2015</t>
+    <t>No</t>
     <phoneticPr fontId="28" type="noConversion"/>
-  </si>
-  <si>
-    <t>b</t>
-    <phoneticPr fontId="28" type="noConversion"/>
-  </si>
-  <si>
-    <t>10/02/2015</t>
-    <phoneticPr fontId="28" type="noConversion"/>
-  </si>
-  <si>
-    <t>EURUSD</t>
-  </si>
-  <si>
-    <t>EURGPB</t>
   </si>
 </sst>
 </file>
@@ -3927,7 +3948,7 @@
     <numFmt numFmtId="181" formatCode="yy/mm/dd"/>
     <numFmt numFmtId="182" formatCode="#.0"/>
   </numFmts>
-  <fonts count="30" x14ac:knownFonts="1">
+  <fonts count="31" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -4126,6 +4147,12 @@
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="8">
@@ -4427,7 +4454,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="154">
+  <cellXfs count="172">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -4469,9 +4496,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4551,7 +4575,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4719,11 +4742,43 @@
     <xf numFmtId="0" fontId="29" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="181" fontId="30" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="179" fontId="30" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="30" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="30" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="179" fontId="30" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="30" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="1" fontId="30" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="30" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="177" fontId="30" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="30" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
@@ -4826,6 +4881,62 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/activeX/activeX1.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{20DD1B9E-87C4-11D1-8BE3-0000F8754DA1}" ax:license="651A8940-87C5-11d1-8BE3-0000F8754DA1" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="_ExtentX" ax:value="1879"/>
+  <ax:ocxPr ax:name="_ExtentY" ax:value="450"/>
+  <ax:ocxPr ax:name="_Version" ax:value="393216"/>
+  <ax:ocxPr ax:name="Format" ax:value="662831105"/>
+  <ax:ocxPr ax:name="CurrentDate" ax:value="42045"/>
+</ax:ocx>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>600075</xdr:colOff>
+          <xdr:row>2</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>9525</xdr:colOff>
+          <xdr:row>3</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="4099" name="DTPicker21" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s4099"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5200,11 +5311,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:U161"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E9" sqref="E9"/>
+      <selection pane="bottomLeft" activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5247,11 +5359,11 @@
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C3" s="11"/>
-      <c r="H3" s="149" t="s">
+      <c r="H3" s="167" t="s">
         <v>0</v>
       </c>
-      <c r="I3" s="149"/>
-      <c r="J3" s="149"/>
+      <c r="I3" s="167"/>
+      <c r="J3" s="167"/>
       <c r="K3" s="1" t="s">
         <v>1</v>
       </c>
@@ -5263,10 +5375,10 @@
       </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="H4" s="150" t="s">
+      <c r="H4" s="168" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="150"/>
+      <c r="I4" s="168"/>
       <c r="J4" s="14">
         <f>J6+J21+J39+J59+J79+J95+J109+J119+J135+J146</f>
         <v>3305</v>
@@ -5294,9 +5406,9 @@
       <c r="D5" t="s">
         <v>6</v>
       </c>
-      <c r="H5" s="151"/>
-      <c r="I5" s="151"/>
-      <c r="J5" s="151"/>
+      <c r="H5" s="169"/>
+      <c r="I5" s="169"/>
+      <c r="J5" s="169"/>
       <c r="S5" s="3">
         <f t="shared" ref="S5:S30" si="0">T4*($T$1/100)</f>
         <v>29.400000000000002</v>
@@ -5326,11 +5438,11 @@
       </c>
       <c r="K6" s="18"/>
       <c r="L6" s="16"/>
-      <c r="M6" s="152" t="s">
+      <c r="M6" s="170" t="s">
         <v>8</v>
       </c>
-      <c r="N6" s="152"/>
-      <c r="O6" s="152"/>
+      <c r="N6" s="170"/>
+      <c r="O6" s="170"/>
       <c r="P6" s="22"/>
       <c r="S6" s="3">
         <f t="shared" si="0"/>
@@ -5346,50 +5458,50 @@
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A7" s="23"/>
-      <c r="B7" s="142" t="s">
+      <c r="B7" s="140" t="s">
+        <v>231</v>
+      </c>
+      <c r="C7" s="142" t="s">
+        <v>223</v>
+      </c>
+      <c r="D7" s="141" t="s">
+        <v>224</v>
+      </c>
+      <c r="E7" s="141" t="s">
+        <v>225</v>
+      </c>
+      <c r="F7" s="141" t="s">
+        <v>226</v>
+      </c>
+      <c r="G7" s="25" t="s">
+        <v>213</v>
+      </c>
+      <c r="H7" s="25" t="s">
         <v>214</v>
       </c>
-      <c r="C7" s="144" t="s">
+      <c r="I7" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="J7" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="K7" s="25" t="s">
         <v>215</v>
       </c>
-      <c r="D7" s="143" t="s">
+      <c r="L7" s="171" t="s">
         <v>216</v>
       </c>
-      <c r="E7" s="143" t="s">
-        <v>217</v>
-      </c>
-      <c r="F7" s="25" t="s">
-        <v>218</v>
-      </c>
-      <c r="G7" s="26" t="s">
-        <v>219</v>
-      </c>
-      <c r="H7" s="26" t="s">
-        <v>220</v>
-      </c>
-      <c r="I7" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="J7" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="K7" s="26" t="s">
-        <v>221</v>
-      </c>
-      <c r="L7" s="153" t="s">
-        <v>222</v>
-      </c>
-      <c r="M7" s="153"/>
-      <c r="N7" s="28" t="s">
+      <c r="M7" s="171"/>
+      <c r="N7" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="O7" s="26" t="s">
+      <c r="O7" s="25" t="s">
         <v>11</v>
       </c>
       <c r="P7" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="R7" s="29"/>
+      <c r="R7" s="28"/>
       <c r="S7" s="3">
         <f t="shared" si="0"/>
         <v>28.235759999999999</v>
@@ -5403,54 +5515,54 @@
       </c>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A8" s="146" t="s">
-        <v>225</v>
-      </c>
-      <c r="B8" s="30">
+      <c r="A8" s="163" t="s">
+        <v>218</v>
+      </c>
+      <c r="B8" s="29">
         <v>1</v>
       </c>
-      <c r="C8" s="31" t="s">
-        <v>228</v>
-      </c>
-      <c r="D8" s="32" t="s">
-        <v>223</v>
-      </c>
-      <c r="E8" s="33">
+      <c r="C8" s="30" t="s">
+        <v>221</v>
+      </c>
+      <c r="D8" s="31" t="s">
+        <v>230</v>
+      </c>
+      <c r="E8" s="32">
         <v>0.83333333333333337</v>
       </c>
-      <c r="F8" s="34" t="s">
+      <c r="F8" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="G8" s="35">
+      <c r="G8" s="34">
         <v>1.2538199999999999</v>
       </c>
-      <c r="H8" s="35">
+      <c r="H8" s="34">
         <v>1.2487999999999999</v>
       </c>
-      <c r="I8" s="35">
+      <c r="I8" s="34">
         <v>1.2675399999999999</v>
       </c>
       <c r="J8" s="10">
         <v>48</v>
       </c>
-      <c r="K8" s="34"/>
-      <c r="L8" s="36" t="s">
+      <c r="K8" s="33"/>
+      <c r="L8" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="M8" s="37">
+      <c r="M8" s="36">
         <f t="shared" ref="M8:M19" si="2">IF((I8-G8)/(H8-G8)&lt;0,(I8-G8)/(H8-G8)*-1,(I8-G8)/(H8-G8))</f>
         <v>2.7330677290836429</v>
       </c>
-      <c r="N8" s="38">
+      <c r="N8" s="37">
         <f t="shared" ref="N8:N19" si="3">IF((G8-H8)*10000&lt;1,(G8-H8)*-1*10000,(G8-H8)*10000)</f>
         <v>50.200000000000244</v>
       </c>
-      <c r="O8" s="39">
+      <c r="O8" s="38">
         <f t="shared" ref="O8:O19" si="4">N8*M8</f>
         <v>137.19999999999953</v>
       </c>
-      <c r="P8" s="40"/>
-      <c r="R8" s="41"/>
+      <c r="P8" s="39"/>
+      <c r="R8" s="40"/>
       <c r="S8" s="3">
         <f t="shared" si="0"/>
         <v>27.671044800000001</v>
@@ -5464,52 +5576,54 @@
       </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A9" s="146"/>
-      <c r="B9" s="30">
+      <c r="A9" s="163"/>
+      <c r="B9" s="29">
         <v>2</v>
       </c>
-      <c r="C9" s="31" t="s">
-        <v>229</v>
-      </c>
-      <c r="D9" s="32" t="s">
-        <v>227</v>
-      </c>
-      <c r="E9" s="33">
+      <c r="C9" s="30" t="s">
+        <v>222</v>
+      </c>
+      <c r="D9" s="31" t="s">
+        <v>220</v>
+      </c>
+      <c r="E9" s="32">
         <v>0.125</v>
       </c>
-      <c r="F9" s="34" t="s">
-        <v>226</v>
-      </c>
-      <c r="G9" s="35">
+      <c r="F9" s="33" t="s">
+        <v>219</v>
+      </c>
+      <c r="G9" s="34">
         <v>0.7429</v>
       </c>
-      <c r="H9" s="35">
+      <c r="H9" s="34">
         <v>0.74</v>
       </c>
-      <c r="I9" s="35">
+      <c r="I9" s="34">
         <v>0.74739999999999995</v>
       </c>
       <c r="J9" s="10">
         <v>42</v>
       </c>
-      <c r="K9" s="34"/>
-      <c r="L9" s="36" t="s">
+      <c r="K9" s="33" t="s">
+        <v>215</v>
+      </c>
+      <c r="L9" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="M9" s="37">
+      <c r="M9" s="36">
         <f t="shared" si="2"/>
         <v>1.5517241379310094</v>
       </c>
-      <c r="N9" s="38">
+      <c r="N9" s="37">
         <f t="shared" si="3"/>
         <v>29.000000000000135</v>
       </c>
-      <c r="O9" s="39">
+      <c r="O9" s="38">
         <f t="shared" si="4"/>
         <v>44.999999999999481</v>
       </c>
-      <c r="P9" s="40"/>
-      <c r="R9" s="41"/>
+      <c r="P9" s="39"/>
+      <c r="R9" s="40"/>
       <c r="S9" s="3">
         <f t="shared" si="0"/>
         <v>27.117623904000002</v>
@@ -5523,52 +5637,52 @@
       </c>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A10" s="146"/>
-      <c r="B10" s="30">
+      <c r="A10" s="163"/>
+      <c r="B10" s="29">
         <v>3</v>
       </c>
-      <c r="C10" s="31" t="s">
+      <c r="C10" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="32" t="s">
+      <c r="D10" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="E10" s="33">
+      <c r="E10" s="32">
         <v>0.5</v>
       </c>
-      <c r="F10" s="34" t="s">
+      <c r="F10" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="G10" s="35">
+      <c r="G10" s="34">
         <v>1.4126000000000001</v>
       </c>
-      <c r="H10" s="35">
+      <c r="H10" s="34">
         <v>1.4145000000000001</v>
       </c>
-      <c r="I10" s="35">
+      <c r="I10" s="34">
         <v>1.409</v>
       </c>
       <c r="J10" s="10">
         <v>36</v>
       </c>
-      <c r="K10" s="34"/>
-      <c r="L10" s="36" t="s">
+      <c r="K10" s="33"/>
+      <c r="L10" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="M10" s="37">
+      <c r="M10" s="36">
         <f t="shared" si="2"/>
         <v>1.8947368421052755</v>
       </c>
-      <c r="N10" s="38">
+      <c r="N10" s="37">
         <f t="shared" si="3"/>
         <v>19.000000000000128</v>
       </c>
-      <c r="O10" s="39">
+      <c r="O10" s="38">
         <f t="shared" si="4"/>
         <v>36.000000000000476</v>
       </c>
-      <c r="P10" s="40"/>
-      <c r="R10" s="41"/>
+      <c r="P10" s="39"/>
+      <c r="R10" s="40"/>
       <c r="S10" s="3">
         <f t="shared" si="0"/>
         <v>26.57527142592</v>
@@ -5582,52 +5696,52 @@
       </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A11" s="146"/>
-      <c r="B11" s="42">
+      <c r="A11" s="163"/>
+      <c r="B11" s="41">
         <v>4</v>
       </c>
-      <c r="C11" s="31" t="s">
+      <c r="C11" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="D11" s="32" t="s">
+      <c r="D11" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="E11" s="33">
+      <c r="E11" s="32">
         <v>0.33333333333333331</v>
       </c>
-      <c r="F11" s="34" t="s">
+      <c r="F11" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="G11" s="35">
+      <c r="G11" s="34">
         <v>2.0331000000000001</v>
       </c>
-      <c r="H11" s="35">
+      <c r="H11" s="34">
         <v>2.0367999999999999</v>
       </c>
-      <c r="I11" s="35">
+      <c r="I11" s="34">
         <v>2.028</v>
       </c>
       <c r="J11" s="10">
         <v>33.5</v>
       </c>
-      <c r="K11" s="34"/>
-      <c r="L11" s="36" t="s">
+      <c r="K11" s="33"/>
+      <c r="L11" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="M11" s="37">
+      <c r="M11" s="36">
         <f t="shared" si="2"/>
         <v>1.3783783783784758</v>
       </c>
-      <c r="N11" s="38">
+      <c r="N11" s="37">
         <f t="shared" si="3"/>
         <v>36.999999999998145</v>
       </c>
-      <c r="O11" s="39">
+      <c r="O11" s="38">
         <f t="shared" si="4"/>
         <v>51.000000000001044</v>
       </c>
-      <c r="P11" s="40"/>
-      <c r="R11" s="41"/>
+      <c r="P11" s="39"/>
+      <c r="R11" s="40"/>
       <c r="S11" s="3">
         <f t="shared" si="0"/>
         <v>26.043765997401604</v>
@@ -5641,54 +5755,54 @@
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A12" s="146"/>
-      <c r="B12" s="30">
+      <c r="A12" s="163"/>
+      <c r="B12" s="29">
         <v>5</v>
       </c>
-      <c r="C12" s="31" t="s">
+      <c r="C12" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="D12" s="43" t="s">
+      <c r="D12" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="E12" s="33">
+      <c r="E12" s="32">
         <v>0.33333333333333331</v>
       </c>
-      <c r="F12" s="34" t="s">
+      <c r="F12" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="G12" s="35">
+      <c r="G12" s="34">
         <v>1.4161999999999999</v>
       </c>
-      <c r="H12" s="35">
+      <c r="H12" s="34">
         <v>1.4125000000000001</v>
       </c>
-      <c r="I12" s="35">
+      <c r="I12" s="34">
         <v>1.4235</v>
       </c>
       <c r="J12" s="10">
         <v>51</v>
       </c>
-      <c r="K12" s="34"/>
-      <c r="L12" s="36" t="s">
+      <c r="K12" s="33"/>
+      <c r="L12" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="M12" s="37">
+      <c r="M12" s="36">
         <f t="shared" si="2"/>
         <v>1.9729729729730947</v>
       </c>
-      <c r="N12" s="38">
+      <c r="N12" s="37">
         <f t="shared" si="3"/>
         <v>36.999999999998145</v>
       </c>
-      <c r="O12" s="39">
+      <c r="O12" s="38">
         <f t="shared" si="4"/>
         <v>73.000000000000838</v>
       </c>
-      <c r="P12" s="40" t="s">
+      <c r="P12" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="R12" s="41"/>
+      <c r="R12" s="40"/>
       <c r="S12" s="3">
         <f t="shared" si="0"/>
         <v>25.522890677453571</v>
@@ -5702,52 +5816,52 @@
       </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A13" s="146"/>
-      <c r="B13" s="42">
+      <c r="A13" s="163"/>
+      <c r="B13" s="41">
         <v>6</v>
       </c>
-      <c r="C13" s="31" t="s">
+      <c r="C13" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="D13" s="32" t="s">
+      <c r="D13" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="E13" s="33">
+      <c r="E13" s="32">
         <v>0.33333333333333331</v>
       </c>
-      <c r="F13" s="34" t="s">
+      <c r="F13" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="G13" s="35">
+      <c r="G13" s="34">
         <v>2.0305</v>
       </c>
-      <c r="H13" s="35">
+      <c r="H13" s="34">
         <v>2.0337999999999998</v>
       </c>
-      <c r="I13" s="35">
+      <c r="I13" s="34">
         <v>2.0245000000000002</v>
       </c>
       <c r="J13" s="10">
         <v>27</v>
       </c>
-      <c r="K13" s="34"/>
-      <c r="L13" s="36" t="s">
+      <c r="K13" s="33"/>
+      <c r="L13" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="M13" s="37">
+      <c r="M13" s="36">
         <f t="shared" si="2"/>
         <v>1.8181818181818303</v>
       </c>
-      <c r="N13" s="38">
+      <c r="N13" s="37">
         <f t="shared" si="3"/>
         <v>32.999999999998586</v>
       </c>
-      <c r="O13" s="39">
+      <c r="O13" s="38">
         <f t="shared" si="4"/>
         <v>59.999999999997833</v>
       </c>
-      <c r="P13" s="40"/>
-      <c r="R13" s="41"/>
+      <c r="P13" s="39"/>
+      <c r="R13" s="40"/>
       <c r="S13" s="3">
         <f t="shared" si="0"/>
         <v>25.0124328639045</v>
@@ -5761,54 +5875,54 @@
       </c>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A14" s="146"/>
-      <c r="B14" s="30">
+      <c r="A14" s="163"/>
+      <c r="B14" s="29">
         <v>7</v>
       </c>
-      <c r="C14" s="31" t="s">
+      <c r="C14" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="D14" s="32" t="s">
+      <c r="D14" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="E14" s="33">
+      <c r="E14" s="32">
         <v>0.33333333333333331</v>
       </c>
-      <c r="F14" s="34" t="s">
+      <c r="F14" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="G14" s="35">
+      <c r="G14" s="34">
         <v>1.4184000000000001</v>
       </c>
-      <c r="H14" s="35">
+      <c r="H14" s="34">
         <v>1.4156</v>
       </c>
-      <c r="I14" s="44">
+      <c r="I14" s="43">
         <v>1.4274</v>
       </c>
-      <c r="J14" s="45">
+      <c r="J14" s="44">
         <v>0</v>
       </c>
-      <c r="K14" s="34" t="s">
+      <c r="K14" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="L14" s="36" t="s">
+      <c r="L14" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="M14" s="37">
+      <c r="M14" s="36">
         <f t="shared" si="2"/>
         <v>3.2142857142855217</v>
       </c>
-      <c r="N14" s="38">
+      <c r="N14" s="37">
         <f t="shared" si="3"/>
         <v>28.000000000001357</v>
       </c>
-      <c r="O14" s="39">
+      <c r="O14" s="38">
         <f t="shared" si="4"/>
         <v>89.999999999998963</v>
       </c>
-      <c r="P14" s="40"/>
-      <c r="R14" s="41"/>
+      <c r="P14" s="39"/>
+      <c r="R14" s="40"/>
       <c r="S14" s="3">
         <f t="shared" si="0"/>
         <v>24.512184206626412</v>
@@ -5822,52 +5936,52 @@
       </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A15" s="146"/>
-      <c r="B15" s="42">
+      <c r="A15" s="163"/>
+      <c r="B15" s="41">
         <v>8</v>
       </c>
-      <c r="C15" s="31" t="s">
+      <c r="C15" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="D15" s="32" t="s">
+      <c r="D15" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="E15" s="33">
+      <c r="E15" s="32">
         <v>0.33333333333333331</v>
       </c>
-      <c r="F15" s="34" t="s">
+      <c r="F15" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="G15" s="35">
+      <c r="G15" s="34">
         <v>2.0413000000000001</v>
       </c>
-      <c r="H15" s="35">
+      <c r="H15" s="34">
         <v>2.044</v>
       </c>
-      <c r="I15" s="35">
+      <c r="I15" s="34">
         <v>2.0354999999999999</v>
       </c>
       <c r="J15" s="10">
         <v>58</v>
       </c>
-      <c r="K15" s="34"/>
-      <c r="L15" s="36" t="s">
+      <c r="K15" s="33"/>
+      <c r="L15" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="M15" s="37">
+      <c r="M15" s="36">
         <f t="shared" si="2"/>
         <v>2.1481481481483002</v>
       </c>
-      <c r="N15" s="38">
+      <c r="N15" s="37">
         <f t="shared" si="3"/>
         <v>26.999999999999247</v>
       </c>
-      <c r="O15" s="39">
+      <c r="O15" s="38">
         <f t="shared" si="4"/>
         <v>58.000000000002487</v>
       </c>
-      <c r="P15" s="40"/>
-      <c r="R15" s="41"/>
+      <c r="P15" s="39"/>
+      <c r="R15" s="40"/>
       <c r="S15" s="3">
         <f t="shared" si="0"/>
         <v>24.021940522493882</v>
@@ -5881,52 +5995,52 @@
       </c>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A16" s="146"/>
-      <c r="B16" s="30">
+      <c r="A16" s="163"/>
+      <c r="B16" s="29">
         <v>9</v>
       </c>
-      <c r="C16" s="31" t="s">
+      <c r="C16" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="D16" s="43" t="s">
+      <c r="D16" s="42" t="s">
         <v>26</v>
       </c>
-      <c r="E16" s="33">
+      <c r="E16" s="32">
         <v>0.4375</v>
       </c>
-      <c r="F16" s="34" t="s">
+      <c r="F16" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="G16" s="35">
+      <c r="G16" s="34">
         <v>1.4245000000000001</v>
       </c>
-      <c r="H16" s="35">
+      <c r="H16" s="34">
         <v>1.4225000000000001</v>
       </c>
-      <c r="I16" s="35">
+      <c r="I16" s="34">
         <v>1.43</v>
       </c>
       <c r="J16" s="10">
         <v>32</v>
       </c>
-      <c r="K16" s="34"/>
-      <c r="L16" s="36" t="s">
+      <c r="K16" s="33"/>
+      <c r="L16" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="M16" s="37">
+      <c r="M16" s="36">
         <f t="shared" si="2"/>
         <v>2.7499999999999165</v>
       </c>
-      <c r="N16" s="38">
+      <c r="N16" s="37">
         <f t="shared" si="3"/>
         <v>20.000000000000018</v>
       </c>
-      <c r="O16" s="39">
+      <c r="O16" s="38">
         <f t="shared" si="4"/>
         <v>54.99999999999838</v>
       </c>
-      <c r="P16" s="40"/>
-      <c r="R16" s="41"/>
+      <c r="P16" s="39"/>
+      <c r="R16" s="40"/>
       <c r="S16" s="3">
         <f t="shared" si="0"/>
         <v>23.541501712044006</v>
@@ -5940,54 +6054,54 @@
       </c>
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A17" s="146"/>
-      <c r="B17" s="30">
+      <c r="A17" s="163"/>
+      <c r="B17" s="29">
         <v>10</v>
       </c>
-      <c r="C17" s="31" t="s">
+      <c r="C17" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="D17" s="32" t="s">
+      <c r="D17" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="E17" s="33">
+      <c r="E17" s="32">
         <v>0.33333333333333331</v>
       </c>
-      <c r="F17" s="34" t="s">
+      <c r="F17" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="G17" s="35">
+      <c r="G17" s="34">
         <v>1.425</v>
       </c>
-      <c r="H17" s="35">
+      <c r="H17" s="34">
         <v>1.4273</v>
       </c>
-      <c r="I17" s="35">
+      <c r="I17" s="34">
         <v>1.4205000000000001</v>
       </c>
       <c r="J17" s="10">
         <v>45</v>
       </c>
-      <c r="K17" s="34"/>
-      <c r="L17" s="36" t="s">
+      <c r="K17" s="33"/>
+      <c r="L17" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="M17" s="37">
+      <c r="M17" s="36">
         <f t="shared" si="2"/>
         <v>1.956521739130439</v>
       </c>
-      <c r="N17" s="38">
+      <c r="N17" s="37">
         <f t="shared" si="3"/>
         <v>22.999999999999687</v>
       </c>
-      <c r="O17" s="39">
+      <c r="O17" s="38">
         <f t="shared" si="4"/>
         <v>44.999999999999488</v>
       </c>
-      <c r="P17" s="40" t="s">
+      <c r="P17" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="R17" s="41"/>
+      <c r="R17" s="40"/>
       <c r="S17" s="3">
         <f t="shared" si="0"/>
         <v>23.070671677803126</v>
@@ -6001,52 +6115,52 @@
       </c>
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A18" s="146"/>
-      <c r="B18" s="30">
+      <c r="A18" s="163"/>
+      <c r="B18" s="29">
         <v>11</v>
       </c>
-      <c r="C18" s="31" t="s">
+      <c r="C18" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="32" t="s">
+      <c r="D18" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="E18" s="33">
+      <c r="E18" s="32">
         <v>0.5</v>
       </c>
-      <c r="F18" s="34" t="s">
+      <c r="F18" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="G18" s="35">
+      <c r="G18" s="34">
         <v>1.4415</v>
       </c>
-      <c r="H18" s="35">
+      <c r="H18" s="34">
         <v>1.4448000000000001</v>
       </c>
-      <c r="I18" s="35">
+      <c r="I18" s="34">
         <v>1.4355</v>
       </c>
       <c r="J18" s="10">
         <v>15</v>
       </c>
-      <c r="K18" s="34"/>
-      <c r="L18" s="36" t="s">
+      <c r="K18" s="33"/>
+      <c r="L18" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="M18" s="37">
+      <c r="M18" s="36">
         <f t="shared" si="2"/>
         <v>1.8181818181817753</v>
       </c>
-      <c r="N18" s="38">
+      <c r="N18" s="37">
         <f t="shared" si="3"/>
         <v>33.00000000000081</v>
       </c>
-      <c r="O18" s="39">
+      <c r="O18" s="38">
         <f t="shared" si="4"/>
         <v>60.000000000000057</v>
       </c>
-      <c r="P18" s="40"/>
-      <c r="R18" s="41"/>
+      <c r="P18" s="39"/>
+      <c r="R18" s="40"/>
       <c r="S18" s="3">
         <f t="shared" si="0"/>
         <v>22.609258244247062</v>
@@ -6060,54 +6174,54 @@
       </c>
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A19" s="146"/>
-      <c r="B19" s="46">
+      <c r="A19" s="163"/>
+      <c r="B19" s="45">
         <v>12</v>
       </c>
-      <c r="C19" s="47" t="s">
+      <c r="C19" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="D19" s="48" t="s">
+      <c r="D19" s="47" t="s">
         <v>30</v>
       </c>
-      <c r="E19" s="49">
+      <c r="E19" s="48">
         <v>0.33333333333333331</v>
       </c>
-      <c r="F19" s="50" t="s">
+      <c r="F19" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="G19" s="51">
+      <c r="G19" s="50">
         <v>1.4441999999999999</v>
       </c>
-      <c r="H19" s="51">
+      <c r="H19" s="50">
         <v>1.448</v>
       </c>
-      <c r="I19" s="51">
+      <c r="I19" s="50">
         <v>1.4370000000000001</v>
       </c>
-      <c r="J19" s="52">
+      <c r="J19" s="51">
         <v>-8</v>
       </c>
-      <c r="K19" s="50" t="s">
+      <c r="K19" s="49" t="s">
         <v>31</v>
       </c>
-      <c r="L19" s="53" t="s">
+      <c r="L19" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="M19" s="54">
+      <c r="M19" s="53">
         <f t="shared" si="2"/>
         <v>1.8947368421052171</v>
       </c>
-      <c r="N19" s="55">
+      <c r="N19" s="54">
         <f t="shared" si="3"/>
         <v>38.000000000000256</v>
       </c>
-      <c r="O19" s="56">
+      <c r="O19" s="55">
         <f t="shared" si="4"/>
         <v>71.999999999998735</v>
       </c>
-      <c r="P19" s="57"/>
-      <c r="R19" s="41"/>
+      <c r="P19" s="56"/>
+      <c r="R19" s="40"/>
       <c r="S19" s="3">
         <f t="shared" si="0"/>
         <v>22.157073079362121</v>
@@ -6121,22 +6235,22 @@
       </c>
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="B20" s="58"/>
-      <c r="D20" s="59"/>
-      <c r="E20" s="60"/>
-      <c r="K20" s="34"/>
-      <c r="L20" s="61"/>
+      <c r="B20" s="57"/>
+      <c r="D20" s="58"/>
+      <c r="E20" s="59"/>
+      <c r="K20" s="33"/>
+      <c r="L20" s="60"/>
       <c r="O20" s="15"/>
       <c r="P20" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="R20" s="41"/>
+      <c r="R20" s="40"/>
       <c r="S20" s="3">
-        <f t="shared" si="0"/>
+        <f>T19*($T$1/100)</f>
         <v>21.713931617774879</v>
       </c>
       <c r="T20" s="3">
-        <f t="shared" si="1"/>
+        <f>T19-S20</f>
         <v>1063.982649270969</v>
       </c>
       <c r="U20">
@@ -6151,10 +6265,10 @@
         <f>SUM(J22:J36)</f>
         <v>335</v>
       </c>
-      <c r="P21" s="62" t="s">
+      <c r="P21" s="61" t="s">
         <v>33</v>
       </c>
-      <c r="R21" s="41"/>
+      <c r="R21" s="40"/>
       <c r="S21" s="3">
         <f t="shared" si="0"/>
         <v>21.279652985419379</v>
@@ -6167,117 +6281,117 @@
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="146" t="s">
-        <v>224</v>
-      </c>
-      <c r="B22" s="16">
+    <row r="22" spans="1:21" s="155" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="163" t="s">
+        <v>217</v>
+      </c>
+      <c r="B22" s="143">
         <v>1</v>
       </c>
-      <c r="C22" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="D22" s="63" t="s">
-        <v>34</v>
-      </c>
-      <c r="E22" s="64">
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="F22" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="G22" s="19">
+      <c r="C22" s="144" t="s">
+        <v>227</v>
+      </c>
+      <c r="D22" s="145" t="s">
+        <v>228</v>
+      </c>
+      <c r="E22" s="146">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="F22" s="147" t="s">
+        <v>229</v>
+      </c>
+      <c r="G22" s="148">
         <v>1.4453</v>
       </c>
-      <c r="H22" s="19">
+      <c r="H22" s="148">
         <v>1.4416</v>
       </c>
-      <c r="I22" s="19">
+      <c r="I22" s="148">
         <v>1.4490000000000001</v>
       </c>
-      <c r="J22" s="65">
+      <c r="J22" s="149">
         <v>19</v>
       </c>
-      <c r="K22" s="66"/>
-      <c r="L22" s="67" t="s">
+      <c r="K22" s="147"/>
+      <c r="L22" s="150" t="s">
         <v>15</v>
       </c>
-      <c r="M22" s="68">
+      <c r="M22" s="151">
         <f t="shared" ref="M22:M36" si="5">IF((I22-G22)/(H22-G22)&lt;0,(I22-G22)/(H22-G22)*-1,(I22-G22)/(H22-G22))</f>
         <v>1</v>
       </c>
-      <c r="N22" s="69">
+      <c r="N22" s="152">
         <f t="shared" ref="N22:N32" si="6">IF((G22-H22)*10000&lt;1,(G22-H22)*-1*10000,(G22-H22)*10000)</f>
         <v>37.000000000000369</v>
       </c>
-      <c r="O22" s="70">
+      <c r="O22" s="153">
         <f t="shared" ref="O22:O36" si="7">N22*M22</f>
         <v>37.000000000000369</v>
       </c>
-      <c r="P22" s="71"/>
-      <c r="R22" s="41"/>
-      <c r="S22" s="3">
+      <c r="P22" s="154"/>
+      <c r="R22" s="156"/>
+      <c r="S22" s="157">
         <f t="shared" si="0"/>
         <v>20.854059925710992</v>
       </c>
-      <c r="T22" s="3">
+      <c r="T22" s="157">
         <f t="shared" si="1"/>
         <v>1021.8489363598385</v>
       </c>
-      <c r="U22">
+      <c r="U22" s="155">
         <v>19</v>
       </c>
     </row>
     <row r="23" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A23" s="146"/>
-      <c r="B23" s="72">
+      <c r="A23" s="163"/>
+      <c r="B23" s="70">
         <v>2</v>
       </c>
-      <c r="C23" s="30" t="s">
+      <c r="C23" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="D23" s="30" t="s">
-        <v>35</v>
-      </c>
-      <c r="E23" s="33">
+      <c r="D23" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="E23" s="32">
         <v>0.16666666666666666</v>
       </c>
-      <c r="F23" s="34" t="s">
+      <c r="F23" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="G23" s="35">
+      <c r="G23" s="34">
         <v>1.4494</v>
       </c>
-      <c r="H23" s="35">
+      <c r="H23" s="34">
         <v>1.4532</v>
       </c>
-      <c r="I23" s="35">
+      <c r="I23" s="34">
         <v>1.4460999999999999</v>
       </c>
       <c r="J23" s="10">
         <f>(34*0.5)+(24*0.5)</f>
         <v>29</v>
       </c>
-      <c r="K23" s="34"/>
-      <c r="L23" s="36" t="s">
+      <c r="K23" s="33"/>
+      <c r="L23" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="M23" s="37">
+      <c r="M23" s="36">
         <f t="shared" si="5"/>
         <v>0.8684210526315943</v>
       </c>
-      <c r="N23" s="38">
+      <c r="N23" s="37">
         <f t="shared" si="6"/>
         <v>38.000000000000256</v>
       </c>
-      <c r="O23" s="73">
+      <c r="O23" s="71">
         <f t="shared" si="7"/>
         <v>33.000000000000803</v>
       </c>
-      <c r="P23" s="40" t="s">
-        <v>36</v>
-      </c>
-      <c r="R23" s="41"/>
+      <c r="P23" s="39" t="s">
+        <v>35</v>
+      </c>
+      <c r="R23" s="40"/>
       <c r="S23" s="3">
         <f t="shared" si="0"/>
         <v>20.43697872719677</v>
@@ -6291,54 +6405,54 @@
       </c>
     </row>
     <row r="24" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A24" s="146"/>
-      <c r="B24" s="72">
+      <c r="A24" s="163"/>
+      <c r="B24" s="70">
         <v>3</v>
       </c>
-      <c r="C24" s="30" t="s">
+      <c r="C24" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="D24" s="74" t="s">
-        <v>37</v>
-      </c>
-      <c r="E24" s="33">
+      <c r="D24" s="72" t="s">
+        <v>36</v>
+      </c>
+      <c r="E24" s="32">
         <v>0.29166666666666669</v>
       </c>
-      <c r="F24" s="34" t="s">
+      <c r="F24" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="G24" s="35">
+      <c r="G24" s="34">
         <v>1.448</v>
       </c>
-      <c r="H24" s="35">
+      <c r="H24" s="34">
         <v>1.4455</v>
       </c>
-      <c r="I24" s="35">
+      <c r="I24" s="34">
         <v>1.4519</v>
       </c>
       <c r="J24" s="10">
         <v>28</v>
       </c>
-      <c r="K24" s="34"/>
-      <c r="L24" s="36" t="s">
+      <c r="K24" s="33"/>
+      <c r="L24" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="M24" s="37">
+      <c r="M24" s="36">
         <f t="shared" si="5"/>
         <v>1.5600000000000391</v>
       </c>
-      <c r="N24" s="38">
+      <c r="N24" s="37">
         <f t="shared" si="6"/>
         <v>24.999999999999467</v>
       </c>
-      <c r="O24" s="73">
+      <c r="O24" s="71">
         <f t="shared" si="7"/>
         <v>39.000000000000149</v>
       </c>
-      <c r="P24" s="40" t="s">
-        <v>38</v>
-      </c>
-      <c r="R24" s="41"/>
+      <c r="P24" s="39" t="s">
+        <v>37</v>
+      </c>
+      <c r="R24" s="40"/>
       <c r="S24" s="3">
         <f t="shared" si="0"/>
         <v>20.028239152652834</v>
@@ -6352,53 +6466,53 @@
       </c>
     </row>
     <row r="25" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A25" s="146"/>
-      <c r="B25" s="72">
+      <c r="A25" s="163"/>
+      <c r="B25" s="70">
         <v>4</v>
       </c>
-      <c r="C25" s="30" t="s">
+      <c r="C25" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="D25" s="30" t="s">
-        <v>39</v>
-      </c>
-      <c r="E25" s="33">
+      <c r="D25" s="29" t="s">
+        <v>38</v>
+      </c>
+      <c r="E25" s="32">
         <v>0.875</v>
       </c>
-      <c r="F25" s="34" t="s">
+      <c r="F25" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="G25" s="35">
+      <c r="G25" s="34">
         <v>1.4664999999999999</v>
       </c>
-      <c r="H25" s="35">
+      <c r="H25" s="34">
         <v>1.4686999999999999</v>
       </c>
-      <c r="I25" s="35">
+      <c r="I25" s="34">
         <v>1.4637</v>
       </c>
       <c r="J25" s="10">
         <f>28*0.5</f>
         <v>14</v>
       </c>
-      <c r="K25" s="34"/>
-      <c r="L25" s="36" t="s">
+      <c r="K25" s="33"/>
+      <c r="L25" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="M25" s="37">
+      <c r="M25" s="36">
         <f t="shared" si="5"/>
         <v>1.2727272727272452</v>
       </c>
-      <c r="N25" s="38">
+      <c r="N25" s="37">
         <f t="shared" si="6"/>
         <v>21.999999999999797</v>
       </c>
-      <c r="O25" s="73">
+      <c r="O25" s="71">
         <f t="shared" si="7"/>
         <v>27.999999999999137</v>
       </c>
-      <c r="P25" s="40"/>
-      <c r="R25" s="41"/>
+      <c r="P25" s="39"/>
+      <c r="R25" s="40"/>
       <c r="S25" s="3">
         <f t="shared" si="0"/>
         <v>19.627674369599777</v>
@@ -6412,54 +6526,54 @@
       </c>
     </row>
     <row r="26" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A26" s="146"/>
-      <c r="B26" s="72">
+      <c r="A26" s="163"/>
+      <c r="B26" s="70">
         <v>5</v>
       </c>
-      <c r="C26" s="30" t="s">
+      <c r="C26" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="D26" s="30" t="s">
-        <v>40</v>
-      </c>
-      <c r="E26" s="33">
+      <c r="D26" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="E26" s="32">
         <v>0.66666666666666663</v>
       </c>
-      <c r="F26" s="34" t="s">
+      <c r="F26" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="G26" s="35">
+      <c r="G26" s="34">
         <v>1.4674</v>
       </c>
-      <c r="H26" s="35">
+      <c r="H26" s="34">
         <v>1.4708000000000001</v>
       </c>
-      <c r="I26" s="35">
+      <c r="I26" s="34">
         <v>1.464</v>
       </c>
       <c r="J26" s="10">
         <v>34</v>
       </c>
-      <c r="K26" s="34"/>
-      <c r="L26" s="36" t="s">
+      <c r="K26" s="33"/>
+      <c r="L26" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="M26" s="37">
+      <c r="M26" s="36">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="N26" s="38">
+      <c r="N26" s="37">
         <f t="shared" si="6"/>
         <v>34.000000000000696</v>
       </c>
-      <c r="O26" s="73">
+      <c r="O26" s="71">
         <f t="shared" si="7"/>
         <v>34.000000000000696</v>
       </c>
-      <c r="P26" s="40" t="s">
-        <v>41</v>
-      </c>
-      <c r="R26" s="41"/>
+      <c r="P26" s="39" t="s">
+        <v>40</v>
+      </c>
+      <c r="R26" s="40"/>
       <c r="S26" s="3">
         <f t="shared" si="0"/>
         <v>19.235120882207781</v>
@@ -6473,55 +6587,55 @@
       </c>
     </row>
     <row r="27" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A27" s="146"/>
-      <c r="B27" s="72">
+      <c r="A27" s="163"/>
+      <c r="B27" s="70">
         <v>6</v>
       </c>
-      <c r="C27" s="30" t="s">
+      <c r="C27" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="D27" s="30" t="s">
-        <v>42</v>
-      </c>
-      <c r="E27" s="33">
+      <c r="D27" s="29" t="s">
+        <v>41</v>
+      </c>
+      <c r="E27" s="32">
         <v>0.58333333333333326</v>
       </c>
-      <c r="F27" s="34" t="s">
+      <c r="F27" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="G27" s="35">
+      <c r="G27" s="34">
         <v>1.4556</v>
       </c>
-      <c r="H27" s="35">
+      <c r="H27" s="34">
         <v>1.4589000000000001</v>
       </c>
-      <c r="I27" s="35">
+      <c r="I27" s="34">
         <v>1.4508000000000001</v>
       </c>
       <c r="J27" s="10">
         <f>0.5*24</f>
         <v>12</v>
       </c>
-      <c r="K27" s="34"/>
-      <c r="L27" s="36" t="s">
+      <c r="K27" s="33"/>
+      <c r="L27" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="M27" s="37">
+      <c r="M27" s="36">
         <f t="shared" si="5"/>
         <v>1.4545454545453933</v>
       </c>
-      <c r="N27" s="38">
+      <c r="N27" s="37">
         <f t="shared" si="6"/>
         <v>33.00000000000081</v>
       </c>
-      <c r="O27" s="73">
+      <c r="O27" s="71">
         <f t="shared" si="7"/>
         <v>47.999999999999154</v>
       </c>
-      <c r="P27" s="40" t="s">
-        <v>43</v>
-      </c>
-      <c r="R27" s="41"/>
+      <c r="P27" s="39" t="s">
+        <v>42</v>
+      </c>
+      <c r="R27" s="40"/>
       <c r="S27" s="3">
         <f t="shared" si="0"/>
         <v>18.850418464563628</v>
@@ -6535,55 +6649,55 @@
       </c>
     </row>
     <row r="28" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A28" s="146"/>
-      <c r="B28" s="72">
+      <c r="A28" s="163"/>
+      <c r="B28" s="70">
         <v>7</v>
       </c>
-      <c r="C28" s="30" t="s">
+      <c r="C28" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="D28" s="30" t="s">
-        <v>44</v>
-      </c>
-      <c r="E28" s="33">
+      <c r="D28" s="29" t="s">
+        <v>43</v>
+      </c>
+      <c r="E28" s="32">
         <v>0.16666666666666666</v>
       </c>
-      <c r="F28" s="34" t="s">
+      <c r="F28" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="G28" s="35">
+      <c r="G28" s="34">
         <v>1.4565999999999999</v>
       </c>
-      <c r="H28" s="35">
+      <c r="H28" s="34">
         <v>1.4518</v>
       </c>
-      <c r="I28" s="35">
+      <c r="I28" s="34">
         <v>1.4608000000000001</v>
       </c>
       <c r="J28" s="10">
         <f>(0.5*24)+(0.5*54)</f>
         <v>39</v>
       </c>
-      <c r="K28" s="34"/>
-      <c r="L28" s="36" t="s">
+      <c r="K28" s="33"/>
+      <c r="L28" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="M28" s="37">
+      <c r="M28" s="36">
         <f t="shared" si="5"/>
         <v>0.87500000000005784</v>
       </c>
-      <c r="N28" s="38">
+      <c r="N28" s="37">
         <f t="shared" si="6"/>
         <v>47.999999999999154</v>
       </c>
-      <c r="O28" s="73">
+      <c r="O28" s="71">
         <f t="shared" si="7"/>
         <v>42.000000000002039</v>
       </c>
-      <c r="P28" s="40" t="s">
-        <v>45</v>
-      </c>
-      <c r="R28" s="41"/>
+      <c r="P28" s="39" t="s">
+        <v>44</v>
+      </c>
+      <c r="R28" s="40"/>
       <c r="S28" s="3">
         <f t="shared" si="0"/>
         <v>18.473410095272353</v>
@@ -6597,56 +6711,56 @@
       </c>
     </row>
     <row r="29" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A29" s="146"/>
-      <c r="B29" s="72">
+      <c r="A29" s="163"/>
+      <c r="B29" s="70">
         <v>8</v>
       </c>
-      <c r="C29" s="30" t="s">
+      <c r="C29" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="D29" s="30" t="s">
-        <v>44</v>
-      </c>
-      <c r="E29" s="33">
+      <c r="D29" s="29" t="s">
+        <v>43</v>
+      </c>
+      <c r="E29" s="32">
         <v>0.375</v>
       </c>
-      <c r="F29" s="34" t="s">
+      <c r="F29" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="G29" s="35">
+      <c r="G29" s="34">
         <v>1.4595</v>
       </c>
-      <c r="H29" s="35">
+      <c r="H29" s="34">
         <v>1.4623999999999999</v>
       </c>
-      <c r="I29" s="35">
+      <c r="I29" s="34">
         <v>1.4534</v>
       </c>
-      <c r="J29" s="75">
+      <c r="J29" s="73">
         <v>-3</v>
       </c>
-      <c r="K29" s="34" t="s">
+      <c r="K29" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="L29" s="36" t="s">
+      <c r="L29" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="M29" s="37">
+      <c r="M29" s="36">
         <f t="shared" si="5"/>
         <v>2.1034482758621378</v>
       </c>
-      <c r="N29" s="38">
+      <c r="N29" s="37">
         <f t="shared" si="6"/>
         <v>28.999999999999027</v>
       </c>
-      <c r="O29" s="73">
+      <c r="O29" s="71">
         <f t="shared" si="7"/>
         <v>60.99999999999995</v>
       </c>
-      <c r="P29" s="40" t="s">
-        <v>46</v>
-      </c>
-      <c r="R29" s="41"/>
+      <c r="P29" s="39" t="s">
+        <v>45</v>
+      </c>
+      <c r="R29" s="40"/>
       <c r="S29" s="3">
         <f t="shared" si="0"/>
         <v>18.103941893366908</v>
@@ -6660,53 +6774,53 @@
       </c>
     </row>
     <row r="30" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A30" s="146"/>
-      <c r="B30" s="76">
+      <c r="A30" s="163"/>
+      <c r="B30" s="74">
         <v>9</v>
       </c>
-      <c r="C30" s="30" t="s">
+      <c r="C30" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="D30" s="30" t="s">
-        <v>47</v>
-      </c>
-      <c r="E30" s="33">
+      <c r="D30" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="E30" s="32">
         <v>0.5</v>
       </c>
-      <c r="F30" s="34" t="s">
+      <c r="F30" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="G30" s="35">
+      <c r="G30" s="34">
         <v>2.0718999999999999</v>
       </c>
-      <c r="H30" s="35">
+      <c r="H30" s="34">
         <v>2.0773000000000001</v>
       </c>
-      <c r="I30" s="35">
+      <c r="I30" s="34">
         <v>2.06</v>
       </c>
       <c r="J30" s="10">
         <f>(0.5*60)+(0.5*29)</f>
         <v>44.5</v>
       </c>
-      <c r="K30" s="34"/>
-      <c r="L30" s="36" t="s">
+      <c r="K30" s="33"/>
+      <c r="L30" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="M30" s="37">
+      <c r="M30" s="36">
         <f t="shared" si="5"/>
         <v>2.203703703703547</v>
       </c>
-      <c r="N30" s="38">
+      <c r="N30" s="37">
         <f t="shared" si="6"/>
         <v>54.000000000002935</v>
       </c>
-      <c r="O30" s="73">
+      <c r="O30" s="71">
         <f t="shared" si="7"/>
         <v>118.999999999998</v>
       </c>
-      <c r="P30" s="40"/>
-      <c r="R30" s="41"/>
+      <c r="P30" s="39"/>
+      <c r="R30" s="40"/>
       <c r="S30" s="3">
         <f t="shared" si="0"/>
         <v>17.741863055499568</v>
@@ -6720,331 +6834,331 @@
       </c>
     </row>
     <row r="31" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A31" s="146"/>
-      <c r="B31" s="72">
+      <c r="A31" s="163"/>
+      <c r="B31" s="70">
         <v>10</v>
       </c>
-      <c r="C31" s="30" t="s">
+      <c r="C31" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="D31" s="30" t="s">
+      <c r="D31" s="29" t="s">
+        <v>47</v>
+      </c>
+      <c r="E31" s="32">
+        <v>0.5</v>
+      </c>
+      <c r="F31" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="G31" s="34">
+        <v>1.4593</v>
+      </c>
+      <c r="H31" s="34">
+        <v>1.4628000000000001</v>
+      </c>
+      <c r="I31" s="34">
+        <v>1.4557</v>
+      </c>
+      <c r="J31" s="73">
+        <v>-35</v>
+      </c>
+      <c r="K31" s="75" t="s">
         <v>48</v>
       </c>
-      <c r="E31" s="33">
-        <v>0.5</v>
-      </c>
-      <c r="F31" s="34" t="s">
-        <v>14</v>
-      </c>
-      <c r="G31" s="35">
-        <v>1.4593</v>
-      </c>
-      <c r="H31" s="35">
-        <v>1.4628000000000001</v>
-      </c>
-      <c r="I31" s="35">
-        <v>1.4557</v>
-      </c>
-      <c r="J31" s="75">
-        <v>-35</v>
-      </c>
-      <c r="K31" s="77" t="s">
-        <v>49</v>
-      </c>
-      <c r="L31" s="36" t="s">
+      <c r="L31" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="M31" s="37">
+      <c r="M31" s="36">
         <f t="shared" si="5"/>
         <v>1.0285714285714249</v>
       </c>
-      <c r="N31" s="38">
+      <c r="N31" s="37">
         <f t="shared" si="6"/>
         <v>35.000000000000583</v>
       </c>
-      <c r="O31" s="73">
+      <c r="O31" s="71">
         <f t="shared" si="7"/>
         <v>36.000000000000469</v>
       </c>
-      <c r="P31" s="40"/>
-      <c r="R31" s="41"/>
+      <c r="P31" s="39"/>
+      <c r="R31" s="40"/>
     </row>
     <row r="32" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A32" s="146"/>
-      <c r="B32" s="72">
+      <c r="A32" s="163"/>
+      <c r="B32" s="70">
         <v>11</v>
       </c>
-      <c r="C32" s="30" t="s">
+      <c r="C32" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="D32" s="30" t="s">
-        <v>50</v>
-      </c>
-      <c r="E32" s="33">
+      <c r="D32" s="29" t="s">
+        <v>49</v>
+      </c>
+      <c r="E32" s="32">
         <v>0.33333333333333331</v>
       </c>
-      <c r="F32" s="34" t="s">
+      <c r="F32" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="G32" s="35">
+      <c r="G32" s="34">
         <v>1.4665999999999999</v>
       </c>
-      <c r="H32" s="35">
+      <c r="H32" s="34">
         <v>1.4694</v>
       </c>
-      <c r="I32" s="35">
+      <c r="I32" s="34">
         <v>1.4604999999999999</v>
       </c>
       <c r="J32" s="10">
         <f>(0.5*40)+(0.5*16)</f>
         <v>28</v>
       </c>
-      <c r="K32" s="34"/>
-      <c r="L32" s="36" t="s">
+      <c r="K32" s="33"/>
+      <c r="L32" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="M32" s="37">
+      <c r="M32" s="36">
         <f t="shared" si="5"/>
         <v>2.1785714285713209</v>
       </c>
-      <c r="N32" s="38">
+      <c r="N32" s="37">
         <f t="shared" si="6"/>
         <v>28.000000000001357</v>
       </c>
-      <c r="O32" s="73">
+      <c r="O32" s="71">
         <f t="shared" si="7"/>
         <v>60.999999999999943</v>
       </c>
-      <c r="P32" s="40"/>
-      <c r="R32" s="41"/>
+      <c r="P32" s="39"/>
+      <c r="R32" s="40"/>
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A33" s="146"/>
-      <c r="B33" s="78">
+      <c r="A33" s="163"/>
+      <c r="B33" s="76">
         <v>12</v>
       </c>
-      <c r="C33" s="30" t="s">
+      <c r="C33" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="D33" s="29" t="s">
         <v>51</v>
       </c>
-      <c r="D33" s="30" t="s">
-        <v>52</v>
-      </c>
-      <c r="E33" s="33">
+      <c r="E33" s="32">
         <v>0.83333333333333326</v>
       </c>
-      <c r="F33" s="34" t="s">
+      <c r="F33" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="G33" s="79">
+      <c r="G33" s="77">
         <v>109.9</v>
       </c>
-      <c r="H33" s="79">
+      <c r="H33" s="77">
         <v>110.23</v>
       </c>
-      <c r="I33" s="79">
+      <c r="I33" s="77">
         <v>109.1</v>
       </c>
       <c r="J33" s="10">
         <v>20</v>
       </c>
-      <c r="K33" s="34"/>
-      <c r="L33" s="36" t="s">
+      <c r="K33" s="33"/>
+      <c r="L33" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="M33" s="37">
+      <c r="M33" s="36">
         <f t="shared" si="5"/>
         <v>2.4242424242424714</v>
       </c>
-      <c r="N33" s="38">
+      <c r="N33" s="37">
         <v>33</v>
       </c>
-      <c r="O33" s="73">
+      <c r="O33" s="71">
         <f t="shared" si="7"/>
         <v>80.000000000001549</v>
       </c>
-      <c r="P33" s="40" t="s">
+      <c r="P33" s="39" t="s">
+        <v>52</v>
+      </c>
+      <c r="R33" s="40"/>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A34" s="163"/>
+      <c r="B34" s="70">
+        <v>13</v>
+      </c>
+      <c r="C34" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="D34" s="29" t="s">
         <v>53</v>
       </c>
-      <c r="R33" s="41"/>
-    </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A34" s="146"/>
-      <c r="B34" s="72">
-        <v>13</v>
-      </c>
-      <c r="C34" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="D34" s="30" t="s">
-        <v>54</v>
-      </c>
-      <c r="E34" s="33">
+      <c r="E34" s="32">
         <v>0.83333333333333337</v>
       </c>
-      <c r="F34" s="34" t="s">
+      <c r="F34" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="G34" s="35">
+      <c r="G34" s="34">
         <v>1.4855</v>
       </c>
-      <c r="H34" s="35">
+      <c r="H34" s="34">
         <v>1.4821</v>
       </c>
-      <c r="I34" s="35">
+      <c r="I34" s="34">
         <v>1.492</v>
       </c>
       <c r="J34" s="10">
         <f>23*0.5</f>
         <v>11.5</v>
       </c>
-      <c r="K34" s="34"/>
-      <c r="L34" s="36" t="s">
+      <c r="K34" s="33"/>
+      <c r="L34" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="M34" s="37">
+      <c r="M34" s="36">
         <f t="shared" si="5"/>
         <v>1.9117647058822991</v>
       </c>
-      <c r="N34" s="38">
+      <c r="N34" s="37">
         <f>IF((G34-H34)*10000&lt;1,(G34-H34)*-1*10000,(G34-H34)*10000)</f>
         <v>34.000000000000696</v>
       </c>
-      <c r="O34" s="80">
+      <c r="O34" s="78">
         <f t="shared" si="7"/>
         <v>64.999999999999503</v>
       </c>
-      <c r="P34" s="40" t="s">
+      <c r="P34" s="39" t="s">
+        <v>54</v>
+      </c>
+      <c r="R34" s="40"/>
+    </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A35" s="163"/>
+      <c r="B35" s="74">
+        <v>14</v>
+      </c>
+      <c r="C35" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="D35" s="29" t="s">
         <v>55</v>
       </c>
-      <c r="R34" s="41"/>
-    </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A35" s="146"/>
-      <c r="B35" s="76">
-        <v>14</v>
-      </c>
-      <c r="C35" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="D35" s="30" t="s">
-        <v>56</v>
-      </c>
-      <c r="E35" s="33">
+      <c r="E35" s="32">
         <v>0.83333333333333337</v>
       </c>
-      <c r="F35" s="34" t="s">
+      <c r="F35" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="G35" s="35">
+      <c r="G35" s="34">
         <v>2.0722999999999998</v>
       </c>
-      <c r="H35" s="35">
+      <c r="H35" s="34">
         <v>2.0684999999999998</v>
       </c>
-      <c r="I35" s="35">
+      <c r="I35" s="34">
         <v>2.0849000000000002</v>
       </c>
       <c r="J35" s="10">
         <f>((50-23)+(60-23))/2</f>
         <v>32</v>
       </c>
-      <c r="K35" s="34"/>
-      <c r="L35" s="36" t="s">
+      <c r="K35" s="33"/>
+      <c r="L35" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="M35" s="37">
+      <c r="M35" s="36">
         <f t="shared" si="5"/>
         <v>3.3157894736842906</v>
       </c>
-      <c r="N35" s="38">
+      <c r="N35" s="37">
         <f>IF((G35-H35)*10000&lt;1,(G35-H35)*-1*10000,(G35-H35)*10000)</f>
         <v>38.000000000000256</v>
       </c>
-      <c r="O35" s="80">
+      <c r="O35" s="78">
         <f t="shared" si="7"/>
         <v>126.00000000000389</v>
       </c>
-      <c r="P35" s="40" t="s">
+      <c r="P35" s="39" t="s">
+        <v>56</v>
+      </c>
+      <c r="R35" s="40"/>
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A36" s="163"/>
+      <c r="B36" s="70">
+        <v>15</v>
+      </c>
+      <c r="C36" s="79" t="s">
+        <v>13</v>
+      </c>
+      <c r="D36" s="79" t="s">
         <v>57</v>
       </c>
-      <c r="R35" s="41"/>
-    </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A36" s="146"/>
-      <c r="B36" s="72">
-        <v>15</v>
-      </c>
-      <c r="C36" s="81" t="s">
-        <v>13</v>
-      </c>
-      <c r="D36" s="81" t="s">
-        <v>58</v>
-      </c>
-      <c r="E36" s="33">
+      <c r="E36" s="32">
         <v>0.33333333333333331</v>
       </c>
-      <c r="F36" s="34" t="s">
+      <c r="F36" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="G36" s="35">
+      <c r="G36" s="34">
         <v>1.4802</v>
       </c>
-      <c r="H36" s="35">
+      <c r="H36" s="34">
         <v>1.4844999999999999</v>
       </c>
-      <c r="I36" s="35">
+      <c r="I36" s="34">
         <v>1.474</v>
       </c>
       <c r="J36" s="10">
         <v>62</v>
       </c>
-      <c r="K36" s="34"/>
-      <c r="L36" s="36" t="s">
+      <c r="K36" s="33"/>
+      <c r="L36" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="M36" s="37">
+      <c r="M36" s="36">
         <f t="shared" si="5"/>
         <v>1.4418604651162852</v>
       </c>
-      <c r="N36" s="38">
+      <c r="N36" s="37">
         <f>IF((G36-H36)*10000&lt;1,(G36-H36)*-1*10000,(G36-H36)*10000)</f>
         <v>42.999999999999702</v>
       </c>
-      <c r="O36" s="80">
+      <c r="O36" s="78">
         <f t="shared" si="7"/>
         <v>61.999999999999829</v>
       </c>
-      <c r="P36" s="40" t="s">
-        <v>59</v>
-      </c>
-      <c r="R36" s="41"/>
+      <c r="P36" s="39" t="s">
+        <v>58</v>
+      </c>
+      <c r="R36" s="40"/>
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A37" s="146"/>
-      <c r="B37" s="82"/>
-      <c r="C37" s="46"/>
-      <c r="D37" s="46"/>
-      <c r="E37" s="46"/>
-      <c r="F37" s="50"/>
-      <c r="G37" s="51"/>
-      <c r="H37" s="51"/>
-      <c r="I37" s="51"/>
-      <c r="J37" s="83"/>
-      <c r="K37" s="50"/>
-      <c r="L37" s="53"/>
-      <c r="M37" s="54"/>
-      <c r="N37" s="55"/>
-      <c r="O37" s="84"/>
-      <c r="P37" s="57"/>
-      <c r="R37" s="41"/>
+      <c r="A37" s="163"/>
+      <c r="B37" s="80"/>
+      <c r="C37" s="45"/>
+      <c r="D37" s="45"/>
+      <c r="E37" s="45"/>
+      <c r="F37" s="49"/>
+      <c r="G37" s="50"/>
+      <c r="H37" s="50"/>
+      <c r="I37" s="50"/>
+      <c r="J37" s="81"/>
+      <c r="K37" s="49"/>
+      <c r="L37" s="52"/>
+      <c r="M37" s="53"/>
+      <c r="N37" s="54"/>
+      <c r="O37" s="82"/>
+      <c r="P37" s="56"/>
+      <c r="R37" s="40"/>
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="L38" s="61"/>
+      <c r="L38" s="60"/>
       <c r="O38" s="15"/>
       <c r="P38" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="R38" s="41"/>
+      <c r="R38" s="40"/>
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.2">
       <c r="I39" s="20" t="s">
@@ -7054,726 +7168,726 @@
         <f>SUM(J40:J54)</f>
         <v>319.5</v>
       </c>
-      <c r="P39" s="62" t="s">
+      <c r="P39" s="61" t="s">
         <v>33</v>
       </c>
-      <c r="R39" s="41"/>
+      <c r="R39" s="40"/>
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A40" s="146" t="s">
-        <v>224</v>
-      </c>
-      <c r="B40" s="85">
+      <c r="A40" s="163" t="s">
+        <v>217</v>
+      </c>
+      <c r="B40" s="83">
         <v>1</v>
       </c>
-      <c r="C40" s="86" t="s">
-        <v>51</v>
-      </c>
-      <c r="D40" s="86" t="s">
-        <v>60</v>
-      </c>
-      <c r="E40" s="64">
+      <c r="C40" s="84" t="s">
+        <v>50</v>
+      </c>
+      <c r="D40" s="84" t="s">
+        <v>59</v>
+      </c>
+      <c r="E40" s="62">
         <v>0.16666666666666666</v>
       </c>
       <c r="F40" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="G40" s="87">
+      <c r="G40" s="85">
         <v>110.06</v>
       </c>
-      <c r="H40" s="87">
+      <c r="H40" s="85">
         <v>109.62</v>
       </c>
-      <c r="I40" s="87">
+      <c r="I40" s="85">
         <v>111.09</v>
       </c>
-      <c r="J40" s="65">
+      <c r="J40" s="63">
         <v>31.5</v>
       </c>
       <c r="K40" s="18"/>
-      <c r="L40" s="67" t="s">
+      <c r="L40" s="65" t="s">
         <v>15</v>
       </c>
-      <c r="M40" s="68">
+      <c r="M40" s="66">
         <f t="shared" ref="M40:M52" si="8">IF((I40-G40)/(H40-G40)&lt;0,(I40-G40)/(H40-G40)*-1,(I40-G40)/(H40-G40))</f>
         <v>2.3409090909091055</v>
       </c>
-      <c r="N40" s="69">
+      <c r="N40" s="67">
         <v>44</v>
       </c>
-      <c r="O40" s="88">
+      <c r="O40" s="86">
         <f t="shared" ref="O40:O49" si="9">N40*M40</f>
         <v>103.00000000000064</v>
       </c>
-      <c r="P40" s="71" t="s">
+      <c r="P40" s="69" t="s">
+        <v>60</v>
+      </c>
+      <c r="R40" s="40"/>
+    </row>
+    <row r="41" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A41" s="163"/>
+      <c r="B41" s="76">
+        <v>2</v>
+      </c>
+      <c r="C41" s="79" t="s">
+        <v>50</v>
+      </c>
+      <c r="D41" s="79" t="s">
         <v>61</v>
       </c>
-      <c r="R40" s="41"/>
-    </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A41" s="146"/>
-      <c r="B41" s="78">
-        <v>2</v>
-      </c>
-      <c r="C41" s="81" t="s">
-        <v>51</v>
-      </c>
-      <c r="D41" s="81" t="s">
-        <v>62</v>
-      </c>
-      <c r="E41" s="33">
+      <c r="E41" s="32">
         <v>0.66666666666666663</v>
       </c>
-      <c r="F41" s="34" t="s">
+      <c r="F41" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="G41" s="79">
+      <c r="G41" s="77">
         <v>111.14</v>
       </c>
-      <c r="H41" s="79">
+      <c r="H41" s="77">
         <v>110.75</v>
       </c>
-      <c r="I41" s="79">
+      <c r="I41" s="77">
         <v>111.6</v>
       </c>
-      <c r="J41" s="45">
+      <c r="J41" s="44">
         <v>0</v>
       </c>
-      <c r="K41" s="34" t="s">
+      <c r="K41" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="L41" s="36" t="s">
+      <c r="L41" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="M41" s="37">
+      <c r="M41" s="36">
         <f t="shared" si="8"/>
         <v>1.1794871794871618</v>
       </c>
-      <c r="N41" s="38">
+      <c r="N41" s="37">
         <v>39</v>
       </c>
-      <c r="O41" s="80">
+      <c r="O41" s="78">
         <f t="shared" si="9"/>
         <v>45.999999999999311</v>
       </c>
-      <c r="P41" s="40" t="s">
-        <v>63</v>
-      </c>
-      <c r="R41" s="41"/>
+      <c r="P41" s="39" t="s">
+        <v>62</v>
+      </c>
+      <c r="R41" s="40"/>
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A42" s="146"/>
-      <c r="B42" s="72">
+      <c r="A42" s="163"/>
+      <c r="B42" s="70">
         <v>3</v>
       </c>
-      <c r="C42" s="30" t="s">
+      <c r="C42" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="D42" s="74" t="s">
-        <v>62</v>
-      </c>
-      <c r="E42" s="33">
+      <c r="D42" s="72" t="s">
+        <v>61</v>
+      </c>
+      <c r="E42" s="32">
         <v>0.66666666666666663</v>
       </c>
-      <c r="F42" s="34" t="s">
+      <c r="F42" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="G42" s="35">
+      <c r="G42" s="34">
         <v>1.4636</v>
       </c>
-      <c r="H42" s="35">
+      <c r="H42" s="34">
         <v>1.4605999999999999</v>
       </c>
-      <c r="I42" s="35">
+      <c r="I42" s="34">
         <v>1.4665999999999999</v>
       </c>
       <c r="J42" s="10">
         <v>20</v>
       </c>
-      <c r="K42" s="34"/>
-      <c r="L42" s="36" t="s">
+      <c r="K42" s="33"/>
+      <c r="L42" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="M42" s="37">
+      <c r="M42" s="36">
         <f t="shared" si="8"/>
         <v>0.99999999999992595</v>
       </c>
-      <c r="N42" s="38">
+      <c r="N42" s="37">
         <f t="shared" ref="N42:N49" si="10">IF((G42-H42)*10000&lt;1,(G42-H42)*-1*10000,(G42-H42)*10000)</f>
         <v>30.000000000001137</v>
       </c>
-      <c r="O42" s="73">
+      <c r="O42" s="71">
         <f t="shared" si="9"/>
         <v>29.999999999998916</v>
       </c>
-      <c r="P42" s="40" t="s">
+      <c r="P42" s="39" t="s">
+        <v>63</v>
+      </c>
+      <c r="R42" s="40"/>
+    </row>
+    <row r="43" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A43" s="163"/>
+      <c r="B43" s="70">
+        <v>4</v>
+      </c>
+      <c r="C43" s="79" t="s">
+        <v>13</v>
+      </c>
+      <c r="D43" s="79" t="s">
         <v>64</v>
       </c>
-      <c r="R42" s="41"/>
-    </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A43" s="146"/>
-      <c r="B43" s="72">
-        <v>4</v>
-      </c>
-      <c r="C43" s="81" t="s">
-        <v>13</v>
-      </c>
-      <c r="D43" s="81" t="s">
-        <v>65</v>
-      </c>
-      <c r="E43" s="33">
+      <c r="E43" s="32">
         <v>0.29166666666666669</v>
       </c>
-      <c r="F43" s="34" t="s">
+      <c r="F43" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="G43" s="35">
+      <c r="G43" s="34">
         <v>1.4605999999999999</v>
       </c>
-      <c r="H43" s="35">
+      <c r="H43" s="34">
         <v>1.4643999999999999</v>
       </c>
-      <c r="I43" s="35">
+      <c r="I43" s="34">
         <v>1.454</v>
       </c>
-      <c r="J43" s="75">
+      <c r="J43" s="73">
         <v>-38</v>
       </c>
-      <c r="K43" s="77" t="s">
-        <v>49</v>
-      </c>
-      <c r="L43" s="36" t="s">
+      <c r="K43" s="75" t="s">
+        <v>48</v>
+      </c>
+      <c r="L43" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="M43" s="37">
+      <c r="M43" s="36">
         <f t="shared" si="8"/>
         <v>1.7368421052631302</v>
       </c>
-      <c r="N43" s="38">
+      <c r="N43" s="37">
         <f t="shared" si="10"/>
         <v>38.000000000000256</v>
       </c>
-      <c r="O43" s="73">
+      <c r="O43" s="71">
         <f t="shared" si="9"/>
         <v>65.999999999999389</v>
       </c>
-      <c r="P43" s="40" t="s">
+      <c r="P43" s="39" t="s">
+        <v>65</v>
+      </c>
+      <c r="R43" s="40"/>
+    </row>
+    <row r="44" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A44" s="163"/>
+      <c r="B44" s="70">
+        <v>5</v>
+      </c>
+      <c r="C44" s="79" t="s">
+        <v>13</v>
+      </c>
+      <c r="D44" s="79" t="s">
         <v>66</v>
       </c>
-      <c r="R43" s="41"/>
-    </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A44" s="146"/>
-      <c r="B44" s="72">
-        <v>5</v>
-      </c>
-      <c r="C44" s="81" t="s">
-        <v>13</v>
-      </c>
-      <c r="D44" s="81" t="s">
-        <v>67</v>
-      </c>
-      <c r="E44" s="33">
+      <c r="E44" s="32">
         <v>0.45833333333333331</v>
       </c>
-      <c r="F44" s="34" t="s">
+      <c r="F44" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="G44" s="35">
+      <c r="G44" s="34">
         <v>1.466</v>
       </c>
-      <c r="H44" s="35">
+      <c r="H44" s="34">
         <v>1.4626999999999999</v>
       </c>
-      <c r="I44" s="89">
+      <c r="I44" s="87">
         <v>1.4742</v>
       </c>
-      <c r="J44" s="90">
+      <c r="J44" s="88">
         <f>(0.5*37)+(0.5*65)</f>
         <v>51</v>
       </c>
-      <c r="K44" s="34"/>
-      <c r="L44" s="36" t="s">
+      <c r="K44" s="33"/>
+      <c r="L44" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="M44" s="37">
+      <c r="M44" s="36">
         <f t="shared" si="8"/>
         <v>2.4848484848484196</v>
       </c>
-      <c r="N44" s="38">
+      <c r="N44" s="37">
         <f t="shared" si="10"/>
         <v>33.00000000000081</v>
       </c>
-      <c r="O44" s="73">
+      <c r="O44" s="71">
         <f t="shared" si="9"/>
         <v>81.999999999999858</v>
       </c>
-      <c r="P44" s="40" t="s">
+      <c r="P44" s="39" t="s">
+        <v>67</v>
+      </c>
+      <c r="R44" s="40"/>
+    </row>
+    <row r="45" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A45" s="163"/>
+      <c r="B45" s="70">
+        <v>6</v>
+      </c>
+      <c r="C45" s="79" t="s">
+        <v>13</v>
+      </c>
+      <c r="D45" s="79" t="s">
         <v>68</v>
       </c>
-      <c r="R44" s="41"/>
-    </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A45" s="146"/>
-      <c r="B45" s="72">
-        <v>6</v>
-      </c>
-      <c r="C45" s="81" t="s">
-        <v>13</v>
-      </c>
-      <c r="D45" s="81" t="s">
-        <v>69</v>
-      </c>
-      <c r="E45" s="33">
+      <c r="E45" s="32">
         <v>0.33333333333333331</v>
       </c>
-      <c r="F45" s="34" t="s">
+      <c r="F45" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="G45" s="35">
+      <c r="G45" s="34">
         <v>1.4689000000000001</v>
       </c>
-      <c r="H45" s="35">
+      <c r="H45" s="34">
         <v>1.4648000000000001</v>
       </c>
-      <c r="I45" s="89">
+      <c r="I45" s="87">
         <v>1.4729000000000001</v>
       </c>
-      <c r="J45" s="90">
+      <c r="J45" s="88">
         <v>13.5</v>
       </c>
-      <c r="K45" s="91"/>
-      <c r="L45" s="36" t="s">
+      <c r="K45" s="89"/>
+      <c r="L45" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="M45" s="37">
+      <c r="M45" s="36">
         <f t="shared" si="8"/>
         <v>0.97560975609756362</v>
       </c>
-      <c r="N45" s="38">
+      <c r="N45" s="37">
         <f t="shared" si="10"/>
         <v>40.999999999999929</v>
       </c>
-      <c r="O45" s="73">
+      <c r="O45" s="71">
         <f t="shared" si="9"/>
         <v>40.000000000000036</v>
       </c>
-      <c r="P45" s="40" t="s">
+      <c r="P45" s="39" t="s">
+        <v>69</v>
+      </c>
+      <c r="R45" s="40"/>
+    </row>
+    <row r="46" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A46" s="163"/>
+      <c r="B46" s="70">
+        <v>7</v>
+      </c>
+      <c r="C46" s="79" t="s">
+        <v>13</v>
+      </c>
+      <c r="D46" s="79" t="s">
         <v>70</v>
       </c>
-      <c r="R45" s="41"/>
-    </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A46" s="146"/>
-      <c r="B46" s="72">
-        <v>7</v>
-      </c>
-      <c r="C46" s="81" t="s">
-        <v>13</v>
-      </c>
-      <c r="D46" s="81" t="s">
-        <v>71</v>
-      </c>
-      <c r="E46" s="33">
+      <c r="E46" s="32">
         <v>0.5</v>
       </c>
-      <c r="F46" s="34" t="s">
+      <c r="F46" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="G46" s="35">
+      <c r="G46" s="34">
         <v>1.4685999999999999</v>
       </c>
-      <c r="H46" s="35">
+      <c r="H46" s="34">
         <v>1.4711000000000001</v>
       </c>
-      <c r="I46" s="89">
+      <c r="I46" s="87">
         <v>1.4578</v>
       </c>
-      <c r="J46" s="90">
+      <c r="J46" s="88">
         <v>48</v>
       </c>
-      <c r="K46" s="92"/>
-      <c r="L46" s="36" t="s">
+      <c r="K46" s="90"/>
+      <c r="L46" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="M46" s="93">
+      <c r="M46" s="91">
         <f t="shared" si="8"/>
         <v>4.319999999999677</v>
       </c>
-      <c r="N46" s="38">
+      <c r="N46" s="37">
         <f t="shared" si="10"/>
         <v>25.000000000001688</v>
       </c>
-      <c r="O46" s="73">
+      <c r="O46" s="71">
         <f t="shared" si="9"/>
         <v>107.99999999999922</v>
       </c>
-      <c r="P46" s="40" t="s">
+      <c r="P46" s="39" t="s">
+        <v>71</v>
+      </c>
+      <c r="R46" s="40"/>
+    </row>
+    <row r="47" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A47" s="163"/>
+      <c r="B47" s="92">
+        <v>8</v>
+      </c>
+      <c r="C47" s="79" t="s">
+        <v>13</v>
+      </c>
+      <c r="D47" s="79" t="s">
         <v>72</v>
       </c>
-      <c r="R46" s="41"/>
-    </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A47" s="146"/>
-      <c r="B47" s="94">
-        <v>8</v>
-      </c>
-      <c r="C47" s="81" t="s">
-        <v>13</v>
-      </c>
-      <c r="D47" s="81" t="s">
-        <v>73</v>
-      </c>
-      <c r="E47" s="33">
+      <c r="E47" s="32">
         <v>0.375</v>
       </c>
-      <c r="F47" s="34" t="s">
+      <c r="F47" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="G47" s="35">
+      <c r="G47" s="34">
         <v>1.4625000000000001</v>
       </c>
-      <c r="H47" s="35">
+      <c r="H47" s="34">
         <v>1.4659</v>
       </c>
-      <c r="I47" s="89">
+      <c r="I47" s="87">
         <v>1.4578</v>
       </c>
-      <c r="J47" s="90">
+      <c r="J47" s="88">
         <f>(0.5*65)+(130*0.5)</f>
         <v>97.5</v>
       </c>
-      <c r="K47" s="92"/>
-      <c r="L47" s="36" t="s">
+      <c r="K47" s="90"/>
+      <c r="L47" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="M47" s="93">
+      <c r="M47" s="91">
         <f t="shared" si="8"/>
         <v>1.3823529411765763</v>
       </c>
-      <c r="N47" s="38">
+      <c r="N47" s="37">
         <f t="shared" si="10"/>
         <v>33.999999999998479</v>
       </c>
-      <c r="O47" s="73">
+      <c r="O47" s="71">
         <f t="shared" si="9"/>
         <v>47.000000000001492</v>
       </c>
-      <c r="P47" s="40" t="s">
+      <c r="P47" s="39" t="s">
+        <v>73</v>
+      </c>
+      <c r="R47" s="40"/>
+    </row>
+    <row r="48" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A48" s="163"/>
+      <c r="B48" s="92">
+        <v>9</v>
+      </c>
+      <c r="C48" s="79" t="s">
+        <v>13</v>
+      </c>
+      <c r="D48" s="29" t="s">
         <v>74</v>
       </c>
-      <c r="R47" s="41"/>
-    </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A48" s="146"/>
-      <c r="B48" s="94">
-        <v>9</v>
-      </c>
-      <c r="C48" s="81" t="s">
-        <v>13</v>
-      </c>
-      <c r="D48" s="30" t="s">
-        <v>75</v>
-      </c>
-      <c r="E48" s="33">
+      <c r="E48" s="32">
         <v>0.41666666666666702</v>
       </c>
-      <c r="F48" s="34" t="s">
+      <c r="F48" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="G48" s="35">
+      <c r="G48" s="34">
         <v>1.4414</v>
       </c>
-      <c r="H48" s="35">
+      <c r="H48" s="34">
         <v>1.4439</v>
       </c>
-      <c r="I48" s="89">
+      <c r="I48" s="87">
         <v>1.4379999999999999</v>
       </c>
-      <c r="J48" s="90">
+      <c r="J48" s="88">
         <v>48</v>
       </c>
-      <c r="K48" s="92"/>
-      <c r="L48" s="95" t="s">
+      <c r="K48" s="90"/>
+      <c r="L48" s="93" t="s">
         <v>15</v>
       </c>
-      <c r="M48" s="93">
+      <c r="M48" s="91">
         <f t="shared" si="8"/>
         <v>1.3600000000000569</v>
       </c>
-      <c r="N48" s="38">
+      <c r="N48" s="37">
         <f t="shared" si="10"/>
         <v>24.999999999999467</v>
       </c>
-      <c r="O48" s="73">
+      <c r="O48" s="71">
         <f t="shared" si="9"/>
         <v>34.000000000000696</v>
       </c>
-      <c r="P48" s="40" t="s">
+      <c r="P48" s="39" t="s">
+        <v>75</v>
+      </c>
+      <c r="R48" s="40"/>
+    </row>
+    <row r="49" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A49" s="163"/>
+      <c r="B49" s="74">
+        <v>10</v>
+      </c>
+      <c r="C49" s="79" t="s">
+        <v>17</v>
+      </c>
+      <c r="D49" s="79" t="s">
         <v>76</v>
       </c>
-      <c r="R48" s="41"/>
-    </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A49" s="146"/>
-      <c r="B49" s="76">
-        <v>10</v>
-      </c>
-      <c r="C49" s="81" t="s">
-        <v>17</v>
-      </c>
-      <c r="D49" s="81" t="s">
-        <v>77</v>
-      </c>
-      <c r="E49" s="33">
+      <c r="E49" s="32">
         <v>0.29166666666666669</v>
       </c>
-      <c r="F49" s="34" t="s">
+      <c r="F49" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="G49" s="35">
+      <c r="G49" s="34">
         <v>2.0188999999999999</v>
       </c>
-      <c r="H49" s="35">
+      <c r="H49" s="34">
         <v>2.0228999999999999</v>
       </c>
-      <c r="I49" s="89">
+      <c r="I49" s="87">
         <v>2.0146999999999999</v>
       </c>
-      <c r="J49" s="90">
+      <c r="J49" s="88">
         <v>40</v>
       </c>
-      <c r="K49" s="92"/>
-      <c r="L49" s="95" t="s">
+      <c r="K49" s="90"/>
+      <c r="L49" s="93" t="s">
         <v>15</v>
       </c>
-      <c r="M49" s="93">
+      <c r="M49" s="91">
         <f t="shared" si="8"/>
         <v>1.0499999999999945</v>
       </c>
-      <c r="N49" s="38">
+      <c r="N49" s="37">
         <f t="shared" si="10"/>
         <v>40.000000000000036</v>
       </c>
-      <c r="O49" s="73">
+      <c r="O49" s="71">
         <f t="shared" si="9"/>
         <v>41.999999999999815</v>
       </c>
-      <c r="P49" s="40" t="s">
+      <c r="P49" s="39" t="s">
+        <v>77</v>
+      </c>
+      <c r="R49" s="40"/>
+    </row>
+    <row r="50" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A50" s="163"/>
+      <c r="B50" s="76">
+        <v>11</v>
+      </c>
+      <c r="C50" s="79" t="s">
+        <v>50</v>
+      </c>
+      <c r="D50" s="79" t="s">
         <v>78</v>
       </c>
-      <c r="R49" s="41"/>
-    </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A50" s="146"/>
-      <c r="B50" s="78">
-        <v>11</v>
-      </c>
-      <c r="C50" s="81" t="s">
-        <v>51</v>
-      </c>
-      <c r="D50" s="81" t="s">
-        <v>79</v>
-      </c>
-      <c r="E50" s="33">
+      <c r="E50" s="32">
         <v>0.83333333333333337</v>
       </c>
-      <c r="F50" s="34" t="s">
+      <c r="F50" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="G50" s="79">
+      <c r="G50" s="77">
         <v>113.32</v>
       </c>
-      <c r="H50" s="79">
+      <c r="H50" s="77">
         <v>113.03</v>
       </c>
-      <c r="I50" s="96">
+      <c r="I50" s="94">
         <v>113.52</v>
       </c>
-      <c r="J50" s="75">
+      <c r="J50" s="73">
         <v>-29</v>
       </c>
-      <c r="K50" s="97" t="s">
-        <v>49</v>
-      </c>
-      <c r="L50" s="95" t="s">
+      <c r="K50" s="95" t="s">
+        <v>48</v>
+      </c>
+      <c r="L50" s="93" t="s">
         <v>15</v>
       </c>
-      <c r="M50" s="93">
+      <c r="M50" s="91">
         <f t="shared" si="8"/>
         <v>0.68965517241382179</v>
       </c>
-      <c r="N50" s="38">
+      <c r="N50" s="37">
         <v>29</v>
       </c>
-      <c r="O50" s="73">
+      <c r="O50" s="71">
         <v>20</v>
       </c>
-      <c r="P50" s="40" t="s">
+      <c r="P50" s="39" t="s">
+        <v>79</v>
+      </c>
+      <c r="R50" s="40"/>
+    </row>
+    <row r="51" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A51" s="163"/>
+      <c r="B51" s="74">
+        <v>12</v>
+      </c>
+      <c r="C51" s="79" t="s">
+        <v>17</v>
+      </c>
+      <c r="D51" s="79" t="s">
         <v>80</v>
       </c>
-      <c r="R50" s="41"/>
-    </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A51" s="146"/>
-      <c r="B51" s="76">
-        <v>12</v>
-      </c>
-      <c r="C51" s="81" t="s">
-        <v>17</v>
-      </c>
-      <c r="D51" s="81" t="s">
-        <v>81</v>
-      </c>
-      <c r="E51" s="33">
+      <c r="E51" s="32">
         <v>0.83333333333333337</v>
       </c>
-      <c r="F51" s="34" t="s">
+      <c r="F51" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="G51" s="35">
+      <c r="G51" s="34">
         <v>1.9856</v>
       </c>
-      <c r="H51" s="35">
+      <c r="H51" s="34">
         <v>1.9896</v>
       </c>
-      <c r="I51" s="35">
+      <c r="I51" s="34">
         <v>1.9816</v>
       </c>
       <c r="J51" s="10">
         <v>25.5</v>
       </c>
-      <c r="K51" s="34"/>
-      <c r="L51" s="36" t="s">
+      <c r="K51" s="33"/>
+      <c r="L51" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="M51" s="37">
+      <c r="M51" s="36">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="N51" s="38">
+      <c r="N51" s="37">
         <f>IF((G51-H51)*10000&lt;1,(G51-H51)*-1*10000,(G51-H51)*10000)</f>
         <v>40.000000000000036</v>
       </c>
-      <c r="O51" s="73">
+      <c r="O51" s="71">
         <f>N51*M51</f>
         <v>40.000000000000036</v>
       </c>
-      <c r="P51" s="40" t="s">
+      <c r="P51" s="39" t="s">
+        <v>81</v>
+      </c>
+      <c r="R51" s="40"/>
+    </row>
+    <row r="52" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A52" s="163"/>
+      <c r="B52" s="74">
+        <v>13</v>
+      </c>
+      <c r="C52" s="79" t="s">
+        <v>17</v>
+      </c>
+      <c r="D52" s="79" t="s">
         <v>82</v>
       </c>
-      <c r="R51" s="41"/>
-    </row>
-    <row r="52" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A52" s="146"/>
-      <c r="B52" s="76">
-        <v>13</v>
-      </c>
-      <c r="C52" s="81" t="s">
-        <v>17</v>
-      </c>
-      <c r="D52" s="81" t="s">
-        <v>83</v>
-      </c>
-      <c r="E52" s="33">
+      <c r="E52" s="32">
         <v>0.375</v>
       </c>
-      <c r="F52" s="34" t="s">
+      <c r="F52" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="G52" s="35">
+      <c r="G52" s="34">
         <v>1.9851000000000001</v>
       </c>
-      <c r="H52" s="35">
+      <c r="H52" s="34">
         <v>1.9884999999999999</v>
       </c>
-      <c r="I52" s="35">
+      <c r="I52" s="34">
         <v>1.9817</v>
       </c>
       <c r="J52" s="10">
         <v>11.5</v>
       </c>
-      <c r="K52" s="34"/>
-      <c r="L52" s="36" t="s">
+      <c r="K52" s="33"/>
+      <c r="L52" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="M52" s="37">
+      <c r="M52" s="36">
         <f t="shared" si="8"/>
         <v>1.0000000000000653</v>
       </c>
-      <c r="N52" s="38">
+      <c r="N52" s="37">
         <f>IF((G52-H52)*10000&lt;1,(G52-H52)*-1*10000,(G52-H52)*10000)</f>
         <v>33.999999999998479</v>
       </c>
-      <c r="O52" s="80">
+      <c r="O52" s="78">
         <f>N52*M52</f>
         <v>34.000000000000696</v>
       </c>
-      <c r="P52" s="40" t="s">
-        <v>84</v>
-      </c>
-      <c r="R52" s="41"/>
+      <c r="P52" s="39" t="s">
+        <v>83</v>
+      </c>
+      <c r="R52" s="40"/>
     </row>
     <row r="53" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A53" s="146"/>
-      <c r="B53" s="94"/>
-      <c r="C53" s="81"/>
-      <c r="D53" s="30"/>
-      <c r="E53" s="33"/>
-      <c r="F53" s="34"/>
-      <c r="G53" s="35"/>
-      <c r="H53" s="35"/>
-      <c r="I53" s="35"/>
+      <c r="A53" s="163"/>
+      <c r="B53" s="92"/>
+      <c r="C53" s="79"/>
+      <c r="D53" s="29"/>
+      <c r="E53" s="32"/>
+      <c r="F53" s="33"/>
+      <c r="G53" s="34"/>
+      <c r="H53" s="34"/>
+      <c r="I53" s="34"/>
       <c r="J53" s="10"/>
-      <c r="K53" s="34"/>
-      <c r="L53" s="36"/>
-      <c r="M53" s="37"/>
-      <c r="N53" s="38"/>
-      <c r="O53" s="80"/>
-      <c r="P53" s="40"/>
-      <c r="R53" s="41"/>
+      <c r="K53" s="33"/>
+      <c r="L53" s="35"/>
+      <c r="M53" s="36"/>
+      <c r="N53" s="37"/>
+      <c r="O53" s="78"/>
+      <c r="P53" s="39"/>
+      <c r="R53" s="40"/>
     </row>
     <row r="54" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A54" s="146"/>
-      <c r="B54" s="72"/>
-      <c r="C54" s="81"/>
-      <c r="D54" s="81"/>
-      <c r="E54" s="33"/>
-      <c r="F54" s="34"/>
-      <c r="G54" s="35"/>
-      <c r="H54" s="35"/>
-      <c r="I54" s="35"/>
+      <c r="A54" s="163"/>
+      <c r="B54" s="70"/>
+      <c r="C54" s="79"/>
+      <c r="D54" s="79"/>
+      <c r="E54" s="32"/>
+      <c r="F54" s="33"/>
+      <c r="G54" s="34"/>
+      <c r="H54" s="34"/>
+      <c r="I54" s="34"/>
       <c r="J54" s="10"/>
-      <c r="K54" s="34"/>
-      <c r="L54" s="36"/>
-      <c r="M54" s="37"/>
-      <c r="N54" s="38"/>
-      <c r="O54" s="80"/>
-      <c r="P54" s="40"/>
-      <c r="R54" s="41"/>
+      <c r="K54" s="33"/>
+      <c r="L54" s="35"/>
+      <c r="M54" s="36"/>
+      <c r="N54" s="37"/>
+      <c r="O54" s="78"/>
+      <c r="P54" s="39"/>
+      <c r="R54" s="40"/>
     </row>
     <row r="55" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A55" s="146"/>
-      <c r="B55" s="82"/>
-      <c r="C55" s="46"/>
-      <c r="D55" s="46"/>
-      <c r="E55" s="46"/>
-      <c r="F55" s="50"/>
-      <c r="G55" s="51"/>
-      <c r="H55" s="51"/>
-      <c r="I55" s="51"/>
-      <c r="J55" s="83"/>
-      <c r="K55" s="50"/>
-      <c r="L55" s="53"/>
-      <c r="M55" s="54"/>
-      <c r="N55" s="55"/>
-      <c r="O55" s="84"/>
-      <c r="P55" s="57"/>
-      <c r="R55" s="41"/>
+      <c r="A55" s="163"/>
+      <c r="B55" s="80"/>
+      <c r="C55" s="45"/>
+      <c r="D55" s="45"/>
+      <c r="E55" s="45"/>
+      <c r="F55" s="49"/>
+      <c r="G55" s="50"/>
+      <c r="H55" s="50"/>
+      <c r="I55" s="50"/>
+      <c r="J55" s="81"/>
+      <c r="K55" s="49"/>
+      <c r="L55" s="52"/>
+      <c r="M55" s="53"/>
+      <c r="N55" s="54"/>
+      <c r="O55" s="82"/>
+      <c r="P55" s="56"/>
+      <c r="R55" s="40"/>
     </row>
     <row r="58" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="L58" s="61"/>
+      <c r="L58" s="60"/>
       <c r="O58" s="15"/>
       <c r="P58" s="22"/>
     </row>
@@ -7785,24 +7899,24 @@
         <f>SUM(J60:J75)</f>
         <v>347.5</v>
       </c>
-      <c r="P59" s="62" t="s">
+      <c r="P59" s="61" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="60" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A60" s="146" t="s">
-        <v>224</v>
+      <c r="A60" s="163" t="s">
+        <v>217</v>
       </c>
       <c r="B60" s="17">
         <v>1</v>
       </c>
-      <c r="C60" s="86" t="s">
+      <c r="C60" s="84" t="s">
         <v>13</v>
       </c>
-      <c r="D60" s="86" t="s">
-        <v>85</v>
-      </c>
-      <c r="E60" s="64">
+      <c r="D60" s="84" t="s">
+        <v>84</v>
+      </c>
+      <c r="E60" s="62">
         <v>0.33333333333333331</v>
       </c>
       <c r="F60" s="18" t="s">
@@ -7814,708 +7928,708 @@
       <c r="H60" s="19">
         <v>1.47</v>
       </c>
-      <c r="I60" s="98">
+      <c r="I60" s="96">
         <v>1.4744999999999999</v>
       </c>
-      <c r="J60" s="99">
+      <c r="J60" s="97">
         <v>-25</v>
       </c>
-      <c r="K60" s="100" t="s">
-        <v>49</v>
-      </c>
-      <c r="L60" s="67" t="s">
+      <c r="K60" s="98" t="s">
+        <v>48</v>
+      </c>
+      <c r="L60" s="65" t="s">
         <v>15</v>
       </c>
-      <c r="M60" s="68">
+      <c r="M60" s="66">
         <f>IF((I60-G60)/(H60-G60)&lt;0,(I60-G60)/(H60-G60)*-1,(I60-G60)/(H60-G60))</f>
         <v>0.80000000000001781</v>
       </c>
-      <c r="N60" s="69">
+      <c r="N60" s="67">
         <f>IF((G60-H60)*10000&lt;1,(G60-H60)*-1*10000,(G60-H60)*10000)</f>
         <v>24.999999999999467</v>
       </c>
-      <c r="O60" s="88">
+      <c r="O60" s="86">
         <f>N60*M60</f>
         <v>20.000000000000018</v>
       </c>
-      <c r="P60" s="71" t="s">
+      <c r="P60" s="69" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="61" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A61" s="163"/>
+      <c r="B61" s="74">
+        <v>2</v>
+      </c>
+      <c r="C61" s="79" t="s">
+        <v>17</v>
+      </c>
+      <c r="D61" s="79" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="61" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A61" s="146"/>
-      <c r="B61" s="76">
-        <v>2</v>
-      </c>
-      <c r="C61" s="81" t="s">
-        <v>17</v>
-      </c>
-      <c r="D61" s="81" t="s">
-        <v>87</v>
-      </c>
-      <c r="E61" s="33">
+      <c r="E61" s="32">
         <v>0.33333333333333331</v>
       </c>
-      <c r="F61" s="34" t="s">
+      <c r="F61" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="G61" s="35">
+      <c r="G61" s="34">
         <v>1.9708000000000001</v>
       </c>
-      <c r="H61" s="35">
+      <c r="H61" s="34">
         <v>1.9742000000000002</v>
       </c>
-      <c r="I61" s="44">
+      <c r="I61" s="43">
         <v>1.9650000000000001</v>
       </c>
       <c r="J61" s="10">
         <v>26</v>
       </c>
-      <c r="K61" s="35"/>
-      <c r="L61" s="36" t="s">
+      <c r="K61" s="34"/>
+      <c r="L61" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="M61" s="37">
+      <c r="M61" s="36">
         <f>IF((I61-G61)/(H61-G61)&lt;0,(I61-G61)/(H61-G61)*-1,(I61-G61)/(H61-G61))</f>
         <v>1.7058823529411495</v>
       </c>
-      <c r="N61" s="38">
+      <c r="N61" s="37">
         <f>IF((G61-H61)*10000&lt;1,(G61-H61)*-1*10000,(G61-H61)*10000)</f>
         <v>34.000000000000696</v>
       </c>
-      <c r="O61" s="73">
+      <c r="O61" s="71">
         <f>N61*M61</f>
         <v>58.00000000000027</v>
       </c>
-      <c r="P61" s="40" t="s">
+      <c r="P61" s="39" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="62" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A62" s="163"/>
+      <c r="B62" s="99">
+        <v>3</v>
+      </c>
+      <c r="C62" s="29" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="62" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A62" s="146"/>
-      <c r="B62" s="101">
-        <v>3</v>
-      </c>
-      <c r="C62" s="30" t="s">
-        <v>89</v>
-      </c>
-      <c r="D62" s="74" t="s">
-        <v>87</v>
-      </c>
-      <c r="E62" s="33">
+      <c r="D62" s="72" t="s">
+        <v>86</v>
+      </c>
+      <c r="E62" s="32">
         <v>0.5</v>
       </c>
-      <c r="F62" s="34" t="s">
+      <c r="F62" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="G62" s="35">
+      <c r="G62" s="34">
         <v>1.0026999999999999</v>
       </c>
-      <c r="H62" s="35">
+      <c r="H62" s="34">
         <v>1.0064</v>
       </c>
-      <c r="I62" s="44">
+      <c r="I62" s="43">
         <v>0.998</v>
       </c>
       <c r="J62" s="10">
         <f>(17+27)/2</f>
         <v>22</v>
       </c>
-      <c r="K62" s="35"/>
-      <c r="L62" s="36" t="s">
+      <c r="K62" s="34"/>
+      <c r="L62" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="M62" s="37">
+      <c r="M62" s="36">
         <f>O62/N62</f>
         <v>1.2702702702702702</v>
       </c>
-      <c r="N62" s="38">
+      <c r="N62" s="37">
         <v>37</v>
       </c>
-      <c r="O62" s="73">
+      <c r="O62" s="71">
         <v>47</v>
       </c>
-      <c r="P62" s="40" t="s">
+      <c r="P62" s="39" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="63" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A63" s="163"/>
+      <c r="B63" s="70">
+        <v>4</v>
+      </c>
+      <c r="C63" s="79" t="s">
+        <v>13</v>
+      </c>
+      <c r="D63" s="79" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="63" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A63" s="146"/>
-      <c r="B63" s="72">
-        <v>4</v>
-      </c>
-      <c r="C63" s="81" t="s">
-        <v>13</v>
-      </c>
-      <c r="D63" s="81" t="s">
-        <v>91</v>
-      </c>
-      <c r="E63" s="33">
+      <c r="E63" s="32">
         <v>0.66666666666666663</v>
       </c>
-      <c r="F63" s="34" t="s">
+      <c r="F63" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="G63" s="35">
+      <c r="G63" s="34">
         <v>1.4683000000000002</v>
       </c>
-      <c r="H63" s="35">
+      <c r="H63" s="34">
         <v>1.4718</v>
       </c>
-      <c r="I63" s="44">
+      <c r="I63" s="43">
         <v>1.4648000000000001</v>
       </c>
       <c r="J63" s="10">
         <f>((83-48)+(83-64))/2</f>
         <v>27</v>
       </c>
-      <c r="K63" s="35"/>
-      <c r="L63" s="36" t="s">
+      <c r="K63" s="34"/>
+      <c r="L63" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="M63" s="37">
+      <c r="M63" s="36">
         <f>IF((I63-G63)/(H63-G63)&lt;0,(I63-G63)/(H63-G63)*-1,(I63-G63)/(H63-G63))</f>
         <v>1.0000000000000635</v>
       </c>
-      <c r="N63" s="38">
+      <c r="N63" s="37">
         <f>IF((G63-H63)*10000&lt;1,(G63-H63)*-1*10000,(G63-H63)*10000)</f>
         <v>34.999999999998366</v>
       </c>
-      <c r="O63" s="73">
+      <c r="O63" s="71">
         <f>N63*M63</f>
         <v>35.00000000000059</v>
       </c>
-      <c r="P63" s="40" t="s">
+      <c r="P63" s="39" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="64" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A64" s="163"/>
+      <c r="B64" s="70">
+        <v>5</v>
+      </c>
+      <c r="C64" s="79" t="s">
+        <v>13</v>
+      </c>
+      <c r="D64" s="79" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="64" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A64" s="146"/>
-      <c r="B64" s="72">
-        <v>5</v>
-      </c>
-      <c r="C64" s="81" t="s">
-        <v>13</v>
-      </c>
-      <c r="D64" s="81" t="s">
-        <v>93</v>
-      </c>
-      <c r="E64" s="33">
+      <c r="E64" s="32">
         <v>0.33333333333333331</v>
       </c>
-      <c r="F64" s="34" t="s">
+      <c r="F64" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="G64" s="35">
+      <c r="G64" s="34">
         <v>1.4792000000000001</v>
       </c>
-      <c r="H64" s="35">
+      <c r="H64" s="34">
         <v>1.4817</v>
       </c>
-      <c r="I64" s="44">
+      <c r="I64" s="43">
         <v>1.4763999999999999</v>
       </c>
       <c r="J64" s="10">
         <f>((92-67)+(0))/2</f>
         <v>12.5</v>
       </c>
-      <c r="K64" s="35"/>
-      <c r="L64" s="36" t="s">
+      <c r="K64" s="34"/>
+      <c r="L64" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="M64" s="37">
+      <c r="M64" s="36">
         <f>IF((I64-G64)/(H64-G64)&lt;0,(I64-G64)/(H64-G64)*-1,(I64-G64)/(H64-G64))</f>
         <v>1.1200000000000783</v>
       </c>
-      <c r="N64" s="38">
+      <c r="N64" s="37">
         <f>IF((G64-H64)*10000&lt;1,(G64-H64)*-1*10000,(G64-H64)*10000)</f>
         <v>24.999999999999467</v>
       </c>
-      <c r="O64" s="73">
+      <c r="O64" s="71">
         <f>N64*M64</f>
         <v>28.000000000001361</v>
       </c>
-      <c r="P64" s="40" t="s">
+      <c r="P64" s="39" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="65" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A65" s="163"/>
+      <c r="B65" s="76">
+        <v>6</v>
+      </c>
+      <c r="C65" s="79" t="s">
+        <v>50</v>
+      </c>
+      <c r="D65" s="79" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="65" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A65" s="146"/>
-      <c r="B65" s="78">
-        <v>6</v>
-      </c>
-      <c r="C65" s="81" t="s">
-        <v>51</v>
-      </c>
-      <c r="D65" s="81" t="s">
-        <v>95</v>
-      </c>
-      <c r="E65" s="33">
+      <c r="E65" s="32">
         <v>0.33333333333333331</v>
       </c>
-      <c r="F65" s="34" t="s">
+      <c r="F65" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="G65" s="79">
+      <c r="G65" s="77">
         <v>108.4</v>
       </c>
-      <c r="H65" s="79">
+      <c r="H65" s="77">
         <v>108.65</v>
       </c>
-      <c r="I65" s="102">
+      <c r="I65" s="100">
         <v>108.05</v>
       </c>
       <c r="J65" s="10">
         <f>((40)+(50))/2</f>
         <v>45</v>
       </c>
-      <c r="K65" s="35"/>
-      <c r="L65" s="36" t="s">
+      <c r="K65" s="34"/>
+      <c r="L65" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="M65" s="37">
+      <c r="M65" s="36">
         <f>IF((I65-G65)/(H65-G65)&lt;0,(I65-G65)/(H65-G65)*-1,(I65-G65)/(H65-G65))</f>
         <v>1.4000000000000341</v>
       </c>
-      <c r="N65" s="38">
+      <c r="N65" s="37">
         <v>25</v>
       </c>
-      <c r="O65" s="73">
+      <c r="O65" s="71">
         <f>N65*M65</f>
         <v>35.000000000000853</v>
       </c>
-      <c r="P65" s="40" t="s">
-        <v>96</v>
+      <c r="P65" s="39" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="66" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A66" s="146"/>
-      <c r="B66" s="76">
+      <c r="A66" s="163"/>
+      <c r="B66" s="74">
         <v>7</v>
       </c>
-      <c r="C66" s="81" t="s">
+      <c r="C66" s="79" t="s">
         <v>17</v>
       </c>
-      <c r="D66" s="81" t="s">
-        <v>95</v>
-      </c>
-      <c r="E66" s="33">
+      <c r="D66" s="79" t="s">
+        <v>94</v>
+      </c>
+      <c r="E66" s="32">
         <v>0.75</v>
       </c>
-      <c r="F66" s="34" t="s">
+      <c r="F66" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="G66" s="35">
+      <c r="G66" s="34">
         <v>1.96</v>
       </c>
-      <c r="H66" s="35">
+      <c r="H66" s="34">
         <v>1.9625000000000001</v>
       </c>
-      <c r="I66" s="44">
+      <c r="I66" s="43">
         <v>1.95</v>
       </c>
       <c r="J66" s="10">
         <v>21</v>
       </c>
-      <c r="K66" s="35"/>
-      <c r="L66" s="36" t="s">
+      <c r="K66" s="34"/>
+      <c r="L66" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="M66" s="37">
+      <c r="M66" s="36">
         <f>IF((I66-G66)/(H66-G66)&lt;0,(I66-G66)/(H66-G66)*-1,(I66-G66)/(H66-G66))</f>
         <v>3.9999999999997335</v>
       </c>
-      <c r="N66" s="38">
+      <c r="N66" s="37">
         <f>IF((G66-H66)*10000&lt;1,(G66-H66)*-1*10000,(G66-H66)*10000)</f>
         <v>25.000000000001688</v>
       </c>
-      <c r="O66" s="73">
+      <c r="O66" s="71">
         <f>N66*M66</f>
         <v>100.00000000000009</v>
       </c>
-      <c r="P66" s="40" t="s">
+      <c r="P66" s="39" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="67" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A67" s="163"/>
+      <c r="B67" s="76">
+        <v>8</v>
+      </c>
+      <c r="C67" s="79" t="s">
+        <v>50</v>
+      </c>
+      <c r="D67" s="79" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A67" s="146"/>
-      <c r="B67" s="78">
-        <v>8</v>
-      </c>
-      <c r="C67" s="81" t="s">
-        <v>51</v>
-      </c>
-      <c r="D67" s="81" t="s">
-        <v>98</v>
-      </c>
-      <c r="E67" s="33">
+      <c r="E67" s="32">
         <v>0.66666666666666663</v>
       </c>
-      <c r="F67" s="34" t="s">
+      <c r="F67" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="G67" s="79">
+      <c r="G67" s="77">
         <v>106.52</v>
       </c>
-      <c r="H67" s="79">
+      <c r="H67" s="77">
         <v>106.05</v>
       </c>
-      <c r="I67" s="102">
+      <c r="I67" s="100">
         <v>107.42</v>
       </c>
       <c r="J67" s="10">
         <f>((50)+(88))/2</f>
         <v>69</v>
       </c>
-      <c r="K67" s="35"/>
-      <c r="L67" s="36" t="s">
+      <c r="K67" s="34"/>
+      <c r="L67" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="M67" s="37">
+      <c r="M67" s="36">
         <f>IF((I67-G67)/(H67-G67)&lt;0,(I67-G67)/(H67-G67)*-1,(I67-G67)/(H67-G67))</f>
         <v>1.9148936170212933</v>
       </c>
-      <c r="N67" s="38">
+      <c r="N67" s="37">
         <v>47</v>
       </c>
-      <c r="O67" s="73">
+      <c r="O67" s="71">
         <f>N67*M67</f>
         <v>90.000000000000782</v>
       </c>
-      <c r="P67" s="40" t="s">
+      <c r="P67" s="39" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="68" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A68" s="163"/>
+      <c r="B68" s="76">
+        <v>9</v>
+      </c>
+      <c r="C68" s="79" t="s">
+        <v>50</v>
+      </c>
+      <c r="D68" s="79" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A68" s="146"/>
-      <c r="B68" s="78">
-        <v>9</v>
-      </c>
-      <c r="C68" s="81" t="s">
-        <v>51</v>
-      </c>
-      <c r="D68" s="81" t="s">
-        <v>100</v>
-      </c>
-      <c r="E68" s="33">
+      <c r="E68" s="32">
         <v>0.33333333333333331</v>
       </c>
-      <c r="F68" s="34" t="s">
+      <c r="F68" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="G68" s="79">
+      <c r="G68" s="77">
         <v>106.39</v>
       </c>
-      <c r="H68" s="79">
+      <c r="H68" s="77">
         <v>106.81</v>
       </c>
-      <c r="I68" s="102">
+      <c r="I68" s="100">
         <v>105.61</v>
       </c>
       <c r="J68" s="10">
         <f>((30)+(139))/2</f>
         <v>84.5</v>
       </c>
-      <c r="K68" s="35"/>
-      <c r="L68" s="95" t="s">
+      <c r="K68" s="34"/>
+      <c r="L68" s="93" t="s">
         <v>15</v>
       </c>
-      <c r="M68" s="93">
+      <c r="M68" s="91">
         <f>O68/N68</f>
         <v>1.8571428571428572</v>
       </c>
-      <c r="N68" s="38">
+      <c r="N68" s="37">
         <v>42</v>
       </c>
-      <c r="O68" s="73">
+      <c r="O68" s="71">
         <v>78</v>
       </c>
-      <c r="P68" s="40" t="s">
+      <c r="P68" s="39" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="69" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A69" s="163"/>
+      <c r="B69" s="70">
+        <v>10</v>
+      </c>
+      <c r="C69" s="79" t="s">
+        <v>13</v>
+      </c>
+      <c r="D69" s="79" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="69" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A69" s="146"/>
-      <c r="B69" s="72">
-        <v>10</v>
-      </c>
-      <c r="C69" s="81" t="s">
-        <v>13</v>
-      </c>
-      <c r="D69" s="81" t="s">
-        <v>102</v>
-      </c>
-      <c r="E69" s="33">
+      <c r="E69" s="32">
         <v>0.33333333333333331</v>
       </c>
-      <c r="F69" s="34" t="s">
+      <c r="F69" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="G69" s="35">
+      <c r="G69" s="34">
         <v>1.4759</v>
       </c>
-      <c r="H69" s="35">
+      <c r="H69" s="34">
         <v>1.4782</v>
       </c>
-      <c r="I69" s="44">
+      <c r="I69" s="43">
         <v>1.4722</v>
       </c>
       <c r="J69" s="10">
         <v>35</v>
       </c>
-      <c r="K69" s="79"/>
-      <c r="L69" s="95" t="s">
+      <c r="K69" s="77"/>
+      <c r="L69" s="93" t="s">
         <v>15</v>
       </c>
-      <c r="M69" s="37">
+      <c r="M69" s="36">
         <f>IF((I69-G69)/(H69-G69)&lt;0,(I69-G69)/(H69-G69)*-1,(I69-G69)/(H69-G69))</f>
         <v>1.6086956521739508</v>
       </c>
-      <c r="N69" s="38">
+      <c r="N69" s="37">
         <f>IF((G69-H69)*10000&lt;1,(G69-H69)*-1*10000,(G69-H69)*10000)</f>
         <v>22.999999999999687</v>
       </c>
-      <c r="O69" s="73">
+      <c r="O69" s="71">
         <f>N69*M69</f>
         <v>37.000000000000369</v>
       </c>
-      <c r="P69" s="40" t="s">
+      <c r="P69" s="39" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="70" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A70" s="163"/>
+      <c r="B70" s="74">
+        <v>11</v>
+      </c>
+      <c r="C70" s="57" t="s">
+        <v>17</v>
+      </c>
+      <c r="D70" s="79" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="70" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A70" s="146"/>
-      <c r="B70" s="76">
-        <v>11</v>
-      </c>
-      <c r="C70" s="58" t="s">
-        <v>17</v>
-      </c>
-      <c r="D70" s="81" t="s">
-        <v>104</v>
-      </c>
-      <c r="E70" s="33">
+      <c r="E70" s="32">
         <v>0.16666666666666666</v>
       </c>
-      <c r="F70" s="34" t="s">
+      <c r="F70" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="G70" s="35">
+      <c r="G70" s="34">
         <v>1.9767999999999999</v>
       </c>
-      <c r="H70" s="35">
+      <c r="H70" s="34">
         <v>1.9818</v>
       </c>
-      <c r="I70" s="44">
+      <c r="I70" s="43">
         <v>1.9706999999999999</v>
       </c>
       <c r="J70" s="10">
         <v>19.5</v>
       </c>
-      <c r="K70" s="35"/>
-      <c r="L70" s="95" t="s">
+      <c r="K70" s="34"/>
+      <c r="L70" s="93" t="s">
         <v>15</v>
       </c>
-      <c r="M70" s="93">
+      <c r="M70" s="91">
         <f>IF((I70-G70)/(H70-G70)&lt;0,(I70-G70)/(H70-G70)*-1,(I70-G70)/(H70-G70))</f>
         <v>1.2199999999999707</v>
       </c>
-      <c r="N70" s="38">
+      <c r="N70" s="37">
         <f>IF((G70-H70)*10000&lt;1,(G70-H70)*-1*10000,(G70-H70)*10000)</f>
         <v>50.000000000001151</v>
       </c>
-      <c r="O70" s="73">
+      <c r="O70" s="71">
         <f>N70*M70</f>
         <v>60.999999999999936</v>
       </c>
-      <c r="P70" s="40" t="s">
-        <v>105</v>
+      <c r="P70" s="39" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="71" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A71" s="146"/>
-      <c r="B71" s="72">
+      <c r="A71" s="163"/>
+      <c r="B71" s="70">
         <v>12</v>
       </c>
-      <c r="C71" s="58" t="s">
+      <c r="C71" s="57" t="s">
         <v>13</v>
       </c>
-      <c r="D71" s="81" t="s">
-        <v>104</v>
-      </c>
-      <c r="E71" s="33">
+      <c r="D71" s="79" t="s">
+        <v>103</v>
+      </c>
+      <c r="E71" s="32">
         <v>0.5</v>
       </c>
-      <c r="F71" s="34" t="s">
+      <c r="F71" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="G71" s="35">
+      <c r="G71" s="34">
         <v>1.4717</v>
       </c>
-      <c r="H71" s="35">
+      <c r="H71" s="34">
         <v>1.4670000000000001</v>
       </c>
-      <c r="I71" s="44">
+      <c r="I71" s="43">
         <v>1.4764999999999999</v>
       </c>
       <c r="J71" s="10">
         <v>35</v>
       </c>
-      <c r="K71" s="35"/>
-      <c r="L71" s="36" t="s">
+      <c r="K71" s="34"/>
+      <c r="L71" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="M71" s="37">
+      <c r="M71" s="36">
         <f>IF((I71-G71)/(H71-G71)&lt;0,(I71-G71)/(H71-G71)*-1,(I71-G71)/(H71-G71))</f>
         <v>1.0212765957446788</v>
       </c>
-      <c r="N71" s="38">
+      <c r="N71" s="37">
         <f>IF((G71-H71)*10000&lt;1,(G71-H71)*-1*10000,(G71-H71)*10000)</f>
         <v>46.999999999999261</v>
       </c>
-      <c r="O71" s="73">
+      <c r="O71" s="71">
         <f>N71*M71</f>
         <v>47.999999999999147</v>
       </c>
-      <c r="P71" s="40" t="s">
+      <c r="P71" s="39" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="72" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A72" s="163"/>
+      <c r="B72" s="74">
+        <v>13</v>
+      </c>
+      <c r="C72" s="57" t="s">
+        <v>17</v>
+      </c>
+      <c r="D72" s="79" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="72" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A72" s="146"/>
-      <c r="B72" s="76">
-        <v>13</v>
-      </c>
-      <c r="C72" s="58" t="s">
-        <v>17</v>
-      </c>
-      <c r="D72" s="81" t="s">
-        <v>107</v>
-      </c>
-      <c r="E72" s="33">
+      <c r="E72" s="32">
         <v>0.5</v>
       </c>
-      <c r="F72" s="34" t="s">
+      <c r="F72" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="G72" s="35">
+      <c r="G72" s="34">
         <v>1.9874000000000001</v>
       </c>
-      <c r="H72" s="35">
+      <c r="H72" s="34">
         <v>1.9832000000000001</v>
       </c>
-      <c r="I72" s="44">
+      <c r="I72" s="43">
         <v>1.9994000000000001</v>
       </c>
       <c r="J72" s="10">
         <v>15</v>
       </c>
-      <c r="K72" s="34"/>
-      <c r="L72" s="36" t="s">
+      <c r="K72" s="33"/>
+      <c r="L72" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="M72" s="37">
+      <c r="M72" s="36">
         <f>IF((I72-G72)/(H72-G72)&lt;0,(I72-G72)/(H72-G72)*-1,(I72-G72)/(H72-G72))</f>
         <v>2.8571428571428723</v>
       </c>
-      <c r="N72" s="38">
+      <c r="N72" s="37">
         <f>IF((G72-H72)*10000&lt;1,(G72-H72)*-1*10000,(G72-H72)*10000)</f>
         <v>41.999999999999815</v>
       </c>
-      <c r="O72" s="73">
+      <c r="O72" s="71">
         <f>N72*M72</f>
         <v>120.00000000000011</v>
       </c>
-      <c r="P72" s="40" t="s">
+      <c r="P72" s="39" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="73" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A73" s="163"/>
+      <c r="B73" s="70">
+        <v>14</v>
+      </c>
+      <c r="C73" s="79" t="s">
+        <v>13</v>
+      </c>
+      <c r="D73" s="29" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="73" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A73" s="146"/>
-      <c r="B73" s="72">
-        <v>14</v>
-      </c>
-      <c r="C73" s="81" t="s">
-        <v>13</v>
-      </c>
-      <c r="D73" s="30" t="s">
-        <v>109</v>
-      </c>
-      <c r="E73" s="33">
+      <c r="E73" s="32">
         <v>0.5</v>
       </c>
-      <c r="F73" s="34" t="s">
+      <c r="F73" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="G73" s="35">
+      <c r="G73" s="34">
         <v>1.4809000000000001</v>
       </c>
-      <c r="H73" s="35">
+      <c r="H73" s="34">
         <v>1.4770000000000001</v>
       </c>
-      <c r="I73" s="44">
+      <c r="I73" s="43">
         <v>1.4872000000000001</v>
       </c>
-      <c r="J73" s="75">
+      <c r="J73" s="73">
         <v>-39</v>
       </c>
-      <c r="K73" s="77" t="s">
-        <v>49</v>
-      </c>
-      <c r="L73" s="36" t="s">
+      <c r="K73" s="75" t="s">
+        <v>48</v>
+      </c>
+      <c r="L73" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="M73" s="37">
+      <c r="M73" s="36">
         <f>IF((I73-G73)/(H73-G73)&lt;0,(I73-G73)/(H73-G73)*-1,(I73-G73)/(H73-G73))</f>
         <v>1.6153846153846023</v>
       </c>
-      <c r="N73" s="38">
+      <c r="N73" s="37">
         <f>IF((G73-H73)*10000&lt;1,(G73-H73)*-1*10000,(G73-H73)*10000)</f>
         <v>39.000000000000142</v>
       </c>
-      <c r="O73" s="73">
+      <c r="O73" s="71">
         <f>N73*M73</f>
         <v>62.999999999999723</v>
       </c>
-      <c r="P73" s="40" t="s">
-        <v>110</v>
+      <c r="P73" s="39" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="74" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A74" s="146"/>
-      <c r="B74" s="72"/>
-      <c r="C74" s="81"/>
-      <c r="D74" s="81"/>
-      <c r="E74" s="33"/>
-      <c r="F74" s="34"/>
-      <c r="G74" s="35"/>
-      <c r="H74" s="35"/>
-      <c r="I74" s="44"/>
+      <c r="A74" s="163"/>
+      <c r="B74" s="70"/>
+      <c r="C74" s="79"/>
+      <c r="D74" s="79"/>
+      <c r="E74" s="32"/>
+      <c r="F74" s="33"/>
+      <c r="G74" s="34"/>
+      <c r="H74" s="34"/>
+      <c r="I74" s="43"/>
       <c r="J74" s="10"/>
-      <c r="K74" s="34"/>
-      <c r="L74" s="36"/>
-      <c r="M74" s="37"/>
-      <c r="N74" s="38"/>
-      <c r="O74" s="80"/>
-      <c r="P74" s="40"/>
+      <c r="K74" s="33"/>
+      <c r="L74" s="35"/>
+      <c r="M74" s="36"/>
+      <c r="N74" s="37"/>
+      <c r="O74" s="78"/>
+      <c r="P74" s="39"/>
     </row>
     <row r="75" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A75" s="146"/>
-      <c r="B75" s="82"/>
-      <c r="C75" s="46"/>
-      <c r="D75" s="46"/>
-      <c r="E75" s="46"/>
-      <c r="F75" s="50"/>
-      <c r="G75" s="51"/>
-      <c r="H75" s="51"/>
-      <c r="I75" s="103"/>
-      <c r="J75" s="83"/>
-      <c r="K75" s="50"/>
-      <c r="L75" s="53"/>
-      <c r="M75" s="54"/>
-      <c r="N75" s="55"/>
-      <c r="O75" s="84"/>
-      <c r="P75" s="57"/>
+      <c r="A75" s="163"/>
+      <c r="B75" s="80"/>
+      <c r="C75" s="45"/>
+      <c r="D75" s="45"/>
+      <c r="E75" s="45"/>
+      <c r="F75" s="49"/>
+      <c r="G75" s="50"/>
+      <c r="H75" s="50"/>
+      <c r="I75" s="101"/>
+      <c r="J75" s="81"/>
+      <c r="K75" s="49"/>
+      <c r="L75" s="52"/>
+      <c r="M75" s="53"/>
+      <c r="N75" s="54"/>
+      <c r="O75" s="82"/>
+      <c r="P75" s="56"/>
     </row>
     <row r="79" spans="1:16" x14ac:dyDescent="0.2">
       <c r="I79" s="20" t="s">
@@ -8530,19 +8644,19 @@
       </c>
     </row>
     <row r="80" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="146" t="s">
-        <v>225</v>
-      </c>
-      <c r="B80" s="104">
+      <c r="A80" s="163" t="s">
+        <v>218</v>
+      </c>
+      <c r="B80" s="102">
         <v>1</v>
       </c>
-      <c r="C80" s="86" t="s">
+      <c r="C80" s="84" t="s">
         <v>17</v>
       </c>
-      <c r="D80" s="86" t="s">
-        <v>111</v>
-      </c>
-      <c r="E80" s="64">
+      <c r="D80" s="84" t="s">
+        <v>110</v>
+      </c>
+      <c r="E80" s="62">
         <v>0.83333333333333337</v>
       </c>
       <c r="F80" s="18" t="s">
@@ -8554,546 +8668,546 @@
       <c r="H80" s="19">
         <v>1.9771000000000001</v>
       </c>
-      <c r="I80" s="98">
+      <c r="I80" s="96">
         <v>1.9702999999999999</v>
       </c>
-      <c r="J80" s="105">
+      <c r="J80" s="103">
         <f>((25)+(34))/2</f>
         <v>29.5</v>
       </c>
-      <c r="K80" s="100"/>
-      <c r="L80" s="67" t="s">
+      <c r="K80" s="98"/>
+      <c r="L80" s="65" t="s">
         <v>15</v>
       </c>
-      <c r="M80" s="68">
+      <c r="M80" s="66">
         <f t="shared" ref="M80:M90" si="11">IF((I80-G80)/(H80-G80)&lt;0,(I80-G80)/(H80-G80)*-1,(I80-G80)/(H80-G80))</f>
         <v>1</v>
       </c>
-      <c r="N80" s="69">
+      <c r="N80" s="67">
         <f t="shared" ref="N80:N90" si="12">IF((G80-H80)*10000&lt;1,(G80-H80)*-1*10000,(G80-H80)*10000)</f>
         <v>34.000000000000696</v>
       </c>
-      <c r="O80" s="88">
+      <c r="O80" s="86">
         <f t="shared" ref="O80:O90" si="13">N80*M80</f>
         <v>34.000000000000696</v>
       </c>
-      <c r="P80" s="106" t="s">
+      <c r="P80" s="104" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="81" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A81" s="163"/>
+      <c r="B81" s="92">
+        <v>2</v>
+      </c>
+      <c r="C81" s="57" t="s">
+        <v>13</v>
+      </c>
+      <c r="D81" s="57" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="81" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A81" s="146"/>
-      <c r="B81" s="94">
-        <v>2</v>
-      </c>
-      <c r="C81" s="58" t="s">
-        <v>13</v>
-      </c>
-      <c r="D81" s="58" t="s">
-        <v>113</v>
-      </c>
-      <c r="E81" s="33">
+      <c r="E81" s="32">
         <v>0.33333333333333331</v>
       </c>
-      <c r="F81" s="34" t="s">
+      <c r="F81" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="G81" s="35">
+      <c r="G81" s="34">
         <v>1.4813000000000001</v>
       </c>
-      <c r="H81" s="35">
+      <c r="H81" s="34">
         <v>1.4849000000000001</v>
       </c>
-      <c r="I81" s="44">
+      <c r="I81" s="43">
         <v>1.4726999999999999</v>
       </c>
-      <c r="J81" s="90">
+      <c r="J81" s="88">
         <v>98.5</v>
       </c>
-      <c r="K81" s="35"/>
-      <c r="L81" s="36" t="s">
+      <c r="K81" s="34"/>
+      <c r="L81" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="M81" s="37">
+      <c r="M81" s="36">
         <f t="shared" si="11"/>
         <v>2.3888888888889026</v>
       </c>
-      <c r="N81" s="38">
+      <c r="N81" s="37">
         <f t="shared" si="12"/>
         <v>36.000000000000476</v>
       </c>
-      <c r="O81" s="80">
+      <c r="O81" s="78">
         <f t="shared" si="13"/>
         <v>86.000000000001634</v>
       </c>
-      <c r="P81" s="106" t="s">
+      <c r="P81" s="104" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="82" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A82" s="163"/>
+      <c r="B82" s="74">
+        <v>3</v>
+      </c>
+      <c r="C82" s="57" t="s">
+        <v>17</v>
+      </c>
+      <c r="D82" s="72" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="82" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A82" s="146"/>
-      <c r="B82" s="76">
-        <v>3</v>
-      </c>
-      <c r="C82" s="58" t="s">
-        <v>17</v>
-      </c>
-      <c r="D82" s="74" t="s">
-        <v>115</v>
-      </c>
-      <c r="E82" s="33">
+      <c r="E82" s="32">
         <v>0.33333333333333331</v>
       </c>
-      <c r="F82" s="34" t="s">
+      <c r="F82" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="G82" s="35">
+      <c r="G82" s="34">
         <v>1.9649000000000001</v>
       </c>
-      <c r="H82" s="35">
+      <c r="H82" s="34">
         <v>1.9612000000000001</v>
       </c>
-      <c r="I82" s="44">
+      <c r="I82" s="43">
         <v>1.9689000000000001</v>
       </c>
-      <c r="J82" s="90">
+      <c r="J82" s="88">
         <v>32</v>
       </c>
-      <c r="K82" s="35"/>
-      <c r="L82" s="36" t="s">
+      <c r="K82" s="34"/>
+      <c r="L82" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="M82" s="37">
+      <c r="M82" s="36">
         <f t="shared" si="11"/>
         <v>1.0810810810810714</v>
       </c>
-      <c r="N82" s="38">
+      <c r="N82" s="37">
         <f t="shared" si="12"/>
         <v>37.000000000000369</v>
       </c>
-      <c r="O82" s="80">
+      <c r="O82" s="78">
         <f t="shared" si="13"/>
         <v>40.000000000000043</v>
       </c>
-      <c r="P82" s="106" t="s">
-        <v>116</v>
+      <c r="P82" s="104" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="83" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A83" s="146"/>
-      <c r="B83" s="76">
+      <c r="A83" s="163"/>
+      <c r="B83" s="74">
         <v>4</v>
       </c>
-      <c r="C83" s="81" t="s">
+      <c r="C83" s="79" t="s">
         <v>17</v>
       </c>
-      <c r="D83" s="81" t="s">
-        <v>115</v>
-      </c>
-      <c r="E83" s="33">
+      <c r="D83" s="79" t="s">
+        <v>114</v>
+      </c>
+      <c r="E83" s="32">
         <v>0.66666666666666663</v>
       </c>
-      <c r="F83" s="34" t="s">
+      <c r="F83" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="G83" s="35">
+      <c r="G83" s="34">
         <v>1.9704000000000002</v>
       </c>
-      <c r="H83" s="35">
+      <c r="H83" s="34">
         <v>1.9669000000000001</v>
       </c>
-      <c r="I83" s="44">
+      <c r="I83" s="43">
         <v>1.9738</v>
       </c>
-      <c r="J83" s="90">
+      <c r="J83" s="88">
         <v>10</v>
       </c>
-      <c r="K83" s="35"/>
-      <c r="L83" s="36" t="s">
+      <c r="K83" s="34"/>
+      <c r="L83" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="M83" s="37">
+      <c r="M83" s="36">
         <f t="shared" si="11"/>
         <v>0.97142857142851158</v>
       </c>
-      <c r="N83" s="38">
+      <c r="N83" s="37">
         <f t="shared" si="12"/>
         <v>35.000000000000583</v>
       </c>
-      <c r="O83" s="80">
+      <c r="O83" s="78">
         <f t="shared" si="13"/>
         <v>33.999999999998472</v>
       </c>
-      <c r="P83" s="106" t="s">
+      <c r="P83" s="104" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="84" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A84" s="163"/>
+      <c r="B84" s="74">
+        <v>5</v>
+      </c>
+      <c r="C84" s="79" t="s">
+        <v>17</v>
+      </c>
+      <c r="D84" s="79" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="84" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A84" s="146"/>
-      <c r="B84" s="76">
-        <v>5</v>
-      </c>
-      <c r="C84" s="81" t="s">
-        <v>17</v>
-      </c>
-      <c r="D84" s="81" t="s">
-        <v>118</v>
-      </c>
-      <c r="E84" s="33">
+      <c r="E84" s="32">
         <v>0.33333333333333331</v>
       </c>
-      <c r="F84" s="34" t="s">
+      <c r="F84" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="G84" s="35">
+      <c r="G84" s="34">
         <v>1.9580000000000002</v>
       </c>
-      <c r="H84" s="35">
+      <c r="H84" s="34">
         <v>1.9626000000000001</v>
       </c>
-      <c r="I84" s="44">
+      <c r="I84" s="43">
         <v>1.9528000000000001</v>
       </c>
-      <c r="J84" s="90">
+      <c r="J84" s="88">
         <f>((30)+(52))/2</f>
         <v>41</v>
       </c>
-      <c r="K84" s="35"/>
-      <c r="L84" s="36" t="s">
+      <c r="K84" s="34"/>
+      <c r="L84" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="M84" s="37">
+      <c r="M84" s="36">
         <f t="shared" si="11"/>
         <v>1.1304347826087313</v>
       </c>
-      <c r="N84" s="38">
+      <c r="N84" s="37">
         <f t="shared" si="12"/>
         <v>45.999999999999375</v>
       </c>
-      <c r="O84" s="80">
+      <c r="O84" s="78">
         <f t="shared" si="13"/>
         <v>52.000000000000931</v>
       </c>
-      <c r="P84" s="106" t="s">
+      <c r="P84" s="104" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="85" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A85" s="163"/>
+      <c r="B85" s="74">
+        <v>6</v>
+      </c>
+      <c r="C85" s="79" t="s">
+        <v>17</v>
+      </c>
+      <c r="D85" s="79" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="85" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A85" s="146"/>
-      <c r="B85" s="76">
-        <v>6</v>
-      </c>
-      <c r="C85" s="81" t="s">
-        <v>17</v>
-      </c>
-      <c r="D85" s="81" t="s">
-        <v>120</v>
-      </c>
-      <c r="E85" s="33">
+      <c r="E85" s="32">
         <v>0.52083333333333326</v>
       </c>
-      <c r="F85" s="34" t="s">
+      <c r="F85" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="G85" s="35">
+      <c r="G85" s="34">
         <v>1.9433</v>
       </c>
-      <c r="H85" s="35">
+      <c r="H85" s="34">
         <v>1.9470000000000001</v>
       </c>
-      <c r="I85" s="44">
+      <c r="I85" s="43">
         <v>1.9340000000000002</v>
       </c>
-      <c r="J85" s="90">
+      <c r="J85" s="88">
         <v>16.5</v>
       </c>
-      <c r="K85" s="35"/>
-      <c r="L85" s="36" t="s">
+      <c r="K85" s="34"/>
+      <c r="L85" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="M85" s="37">
+      <c r="M85" s="36">
         <f t="shared" si="11"/>
         <v>2.5135135135134519</v>
       </c>
-      <c r="N85" s="38">
+      <c r="N85" s="37">
         <f t="shared" si="12"/>
         <v>37.000000000000369</v>
       </c>
-      <c r="O85" s="80">
+      <c r="O85" s="78">
         <f t="shared" si="13"/>
         <v>92.99999999999865</v>
       </c>
-      <c r="P85" s="106" t="s">
+      <c r="P85" s="104" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="86" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A86" s="163"/>
+      <c r="B86" s="92">
+        <v>7</v>
+      </c>
+      <c r="C86" s="79" t="s">
+        <v>13</v>
+      </c>
+      <c r="D86" s="79" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="86" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A86" s="146"/>
-      <c r="B86" s="94">
-        <v>7</v>
-      </c>
-      <c r="C86" s="81" t="s">
-        <v>13</v>
-      </c>
-      <c r="D86" s="81" t="s">
-        <v>122</v>
-      </c>
-      <c r="E86" s="33">
+      <c r="E86" s="32">
         <v>0.83333333333333326</v>
       </c>
-      <c r="F86" s="34" t="s">
+      <c r="F86" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="G86" s="35">
+      <c r="G86" s="34">
         <v>1.4717</v>
       </c>
-      <c r="H86" s="35">
+      <c r="H86" s="34">
         <v>1.468</v>
       </c>
-      <c r="I86" s="44">
+      <c r="I86" s="43">
         <v>1.4790000000000001</v>
       </c>
-      <c r="J86" s="90">
+      <c r="J86" s="88">
         <f>((30)+(73))/2</f>
         <v>51.5</v>
       </c>
-      <c r="K86" s="35"/>
-      <c r="L86" s="36" t="s">
+      <c r="K86" s="34"/>
+      <c r="L86" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="M86" s="37">
+      <c r="M86" s="36">
         <f t="shared" si="11"/>
         <v>1.9729729729729761</v>
       </c>
-      <c r="N86" s="38">
+      <c r="N86" s="37">
         <f t="shared" si="12"/>
         <v>37.000000000000369</v>
       </c>
-      <c r="O86" s="80">
+      <c r="O86" s="78">
         <f t="shared" si="13"/>
         <v>73.000000000000853</v>
       </c>
-      <c r="P86" s="106" t="s">
+      <c r="P86" s="104" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="87" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A87" s="163"/>
+      <c r="B87" s="74">
+        <v>8</v>
+      </c>
+      <c r="C87" s="79" t="s">
+        <v>17</v>
+      </c>
+      <c r="D87" s="79" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="87" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A87" s="146"/>
-      <c r="B87" s="76">
-        <v>8</v>
-      </c>
-      <c r="C87" s="81" t="s">
-        <v>17</v>
-      </c>
-      <c r="D87" s="81" t="s">
-        <v>124</v>
-      </c>
-      <c r="E87" s="33">
+      <c r="E87" s="32">
         <v>0.83333333333333337</v>
       </c>
-      <c r="F87" s="34" t="s">
+      <c r="F87" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="G87" s="35">
+      <c r="G87" s="34">
         <v>1.9661</v>
       </c>
-      <c r="H87" s="35">
+      <c r="H87" s="34">
         <v>1.9625000000000001</v>
       </c>
-      <c r="I87" s="44">
+      <c r="I87" s="43">
         <v>1.9815</v>
       </c>
-      <c r="J87" s="45">
+      <c r="J87" s="44">
         <v>0</v>
       </c>
       <c r="K87" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="L87" s="36" t="s">
+      <c r="L87" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="M87" s="37">
+      <c r="M87" s="36">
         <f t="shared" si="11"/>
         <v>4.2777777777780077</v>
       </c>
-      <c r="N87" s="38">
+      <c r="N87" s="37">
         <f t="shared" si="12"/>
         <v>35.999999999998252</v>
       </c>
-      <c r="O87" s="80">
+      <c r="O87" s="78">
         <f t="shared" si="13"/>
         <v>154.0000000000008</v>
       </c>
-      <c r="P87" s="106" t="s">
+      <c r="P87" s="104" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="88" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A88" s="163"/>
+      <c r="B88" s="74">
+        <v>9</v>
+      </c>
+      <c r="C88" s="79" t="s">
+        <v>17</v>
+      </c>
+      <c r="D88" s="79" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="88" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A88" s="146"/>
-      <c r="B88" s="76">
-        <v>9</v>
-      </c>
-      <c r="C88" s="81" t="s">
-        <v>17</v>
-      </c>
-      <c r="D88" s="81" t="s">
-        <v>126</v>
-      </c>
-      <c r="E88" s="33">
+      <c r="E88" s="32">
         <v>0.54166666666666663</v>
       </c>
-      <c r="F88" s="34" t="s">
+      <c r="F88" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="G88" s="35">
+      <c r="G88" s="34">
         <v>1.9704999999999999</v>
       </c>
-      <c r="H88" s="35">
+      <c r="H88" s="34">
         <v>1.968</v>
       </c>
-      <c r="I88" s="44">
+      <c r="I88" s="43">
         <v>1.9815</v>
       </c>
-      <c r="J88" s="90">
+      <c r="J88" s="88">
         <f>((20)+(93))/2</f>
         <v>56.5</v>
       </c>
-      <c r="K88" s="35"/>
-      <c r="L88" s="95" t="s">
+      <c r="K88" s="34"/>
+      <c r="L88" s="93" t="s">
         <v>15</v>
       </c>
-      <c r="M88" s="37">
+      <c r="M88" s="36">
         <f t="shared" si="11"/>
         <v>4.4000000000001425</v>
       </c>
-      <c r="N88" s="38">
+      <c r="N88" s="37">
         <f t="shared" si="12"/>
         <v>24.999999999999467</v>
       </c>
-      <c r="O88" s="80">
+      <c r="O88" s="78">
         <f t="shared" si="13"/>
         <v>110.00000000000122</v>
       </c>
-      <c r="P88" s="106" t="s">
+      <c r="P88" s="104" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="89" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A89" s="163"/>
+      <c r="B89" s="74">
+        <v>10</v>
+      </c>
+      <c r="C89" s="79" t="s">
+        <v>17</v>
+      </c>
+      <c r="D89" s="79" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="89" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A89" s="146"/>
-      <c r="B89" s="76">
-        <v>10</v>
-      </c>
-      <c r="C89" s="81" t="s">
-        <v>17</v>
-      </c>
-      <c r="D89" s="81" t="s">
-        <v>128</v>
-      </c>
-      <c r="E89" s="33">
+      <c r="E89" s="32">
         <v>0.5</v>
       </c>
-      <c r="F89" s="34" t="s">
+      <c r="F89" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="G89" s="35">
+      <c r="G89" s="34">
         <v>1.9860000000000002</v>
       </c>
-      <c r="H89" s="35">
+      <c r="H89" s="34">
         <v>1.9908000000000001</v>
       </c>
-      <c r="I89" s="44">
+      <c r="I89" s="43">
         <v>1.9816</v>
       </c>
-      <c r="J89" s="90">
+      <c r="J89" s="88">
         <v>24.5</v>
       </c>
-      <c r="K89" s="79"/>
-      <c r="L89" s="95" t="s">
+      <c r="K89" s="77"/>
+      <c r="L89" s="93" t="s">
         <v>15</v>
       </c>
-      <c r="M89" s="37">
+      <c r="M89" s="36">
         <f t="shared" si="11"/>
         <v>0.91666666666672059</v>
       </c>
-      <c r="N89" s="38">
+      <c r="N89" s="37">
         <f t="shared" si="12"/>
         <v>47.999999999999154</v>
       </c>
-      <c r="O89" s="80">
+      <c r="O89" s="78">
         <f t="shared" si="13"/>
         <v>44.000000000001812</v>
       </c>
-      <c r="P89" s="106" t="s">
+      <c r="P89" s="104" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="90" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A90" s="163"/>
+      <c r="B90" s="92">
+        <v>11</v>
+      </c>
+      <c r="C90" s="57" t="s">
+        <v>13</v>
+      </c>
+      <c r="D90" s="79" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="90" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A90" s="146"/>
-      <c r="B90" s="94">
-        <v>11</v>
-      </c>
-      <c r="C90" s="58" t="s">
-        <v>13</v>
-      </c>
-      <c r="D90" s="81" t="s">
-        <v>130</v>
-      </c>
-      <c r="E90" s="33">
+      <c r="E90" s="32">
         <v>0.66666666666666663</v>
       </c>
-      <c r="F90" s="34" t="s">
+      <c r="F90" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="G90" s="35">
+      <c r="G90" s="34">
         <v>1.514</v>
       </c>
-      <c r="H90" s="35">
+      <c r="H90" s="34">
         <v>1.51</v>
       </c>
-      <c r="I90" s="44">
+      <c r="I90" s="43">
         <v>1.52</v>
       </c>
-      <c r="J90" s="90">
+      <c r="J90" s="88">
         <f>((25)+(44))/2</f>
         <v>34.5</v>
       </c>
-      <c r="K90" s="35"/>
-      <c r="L90" s="95" t="s">
+      <c r="K90" s="34"/>
+      <c r="L90" s="93" t="s">
         <v>15</v>
       </c>
-      <c r="M90" s="37">
+      <c r="M90" s="36">
         <f t="shared" si="11"/>
         <v>1.5</v>
       </c>
-      <c r="N90" s="38">
+      <c r="N90" s="37">
         <f t="shared" si="12"/>
         <v>40.000000000000036</v>
       </c>
-      <c r="O90" s="80">
+      <c r="O90" s="78">
         <f t="shared" si="13"/>
         <v>60.000000000000057</v>
       </c>
-      <c r="P90" s="106" t="s">
-        <v>131</v>
+      <c r="P90" s="104" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="91" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A91" s="146"/>
-      <c r="B91" s="82"/>
-      <c r="C91" s="46"/>
-      <c r="D91" s="46"/>
-      <c r="E91" s="46"/>
-      <c r="F91" s="50"/>
-      <c r="G91" s="51"/>
-      <c r="H91" s="51"/>
-      <c r="I91" s="103"/>
-      <c r="J91" s="83"/>
-      <c r="K91" s="50"/>
-      <c r="L91" s="53"/>
-      <c r="M91" s="54"/>
-      <c r="N91" s="55"/>
-      <c r="O91" s="84"/>
-      <c r="P91" s="107"/>
+      <c r="A91" s="163"/>
+      <c r="B91" s="80"/>
+      <c r="C91" s="45"/>
+      <c r="D91" s="45"/>
+      <c r="E91" s="45"/>
+      <c r="F91" s="49"/>
+      <c r="G91" s="50"/>
+      <c r="H91" s="50"/>
+      <c r="I91" s="101"/>
+      <c r="J91" s="81"/>
+      <c r="K91" s="49"/>
+      <c r="L91" s="52"/>
+      <c r="M91" s="53"/>
+      <c r="N91" s="54"/>
+      <c r="O91" s="82"/>
+      <c r="P91" s="105"/>
     </row>
     <row r="95" spans="1:16" x14ac:dyDescent="0.2">
       <c r="I95" s="20" t="s">
@@ -9103,27 +9217,27 @@
         <f>SUM(J96:J105)</f>
         <v>331.5</v>
       </c>
-      <c r="P95" s="108" t="s">
+      <c r="P95" s="106" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="96" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A96" s="147" t="s">
-        <v>224</v>
-      </c>
-      <c r="B96" s="109">
+      <c r="A96" s="165" t="s">
+        <v>217</v>
+      </c>
+      <c r="B96" s="107">
         <v>1</v>
       </c>
-      <c r="C96" s="86" t="s">
+      <c r="C96" s="84" t="s">
         <v>13</v>
       </c>
-      <c r="D96" s="86" t="s">
-        <v>132</v>
-      </c>
-      <c r="E96" s="64">
+      <c r="D96" s="84" t="s">
+        <v>131</v>
+      </c>
+      <c r="E96" s="62">
         <v>0.5</v>
       </c>
-      <c r="F96" s="66" t="s">
+      <c r="F96" s="64" t="s">
         <v>20</v>
       </c>
       <c r="G96" s="19">
@@ -9132,444 +9246,444 @@
       <c r="H96" s="19">
         <v>1.5181</v>
       </c>
-      <c r="I96" s="98">
+      <c r="I96" s="96">
         <v>1.5261</v>
       </c>
-      <c r="J96" s="105">
+      <c r="J96" s="103">
         <v>12.5</v>
       </c>
-      <c r="K96" s="100"/>
-      <c r="L96" s="67" t="s">
+      <c r="K96" s="98"/>
+      <c r="L96" s="65" t="s">
         <v>15</v>
       </c>
-      <c r="M96" s="68">
+      <c r="M96" s="66">
         <f t="shared" ref="M96:M104" si="14">IF((I96-G96)/(H96-G96)&lt;0,(I96-G96)/(H96-G96)*-1,(I96-G96)/(H96-G96))</f>
         <v>1</v>
       </c>
-      <c r="N96" s="69">
+      <c r="N96" s="67">
         <f t="shared" ref="N96:N104" si="15">IF((G96-H96)*10000&lt;1,(G96-H96)*-1*10000,(G96-H96)*10000)</f>
         <v>40.000000000000036</v>
       </c>
-      <c r="O96" s="88">
+      <c r="O96" s="86">
         <f t="shared" ref="O96:O104" si="16">N96*M96</f>
         <v>40.000000000000036</v>
       </c>
-      <c r="P96" s="110" t="s">
+      <c r="P96" s="108" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="97" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A97" s="165"/>
+      <c r="B97" s="57">
+        <v>2</v>
+      </c>
+      <c r="C97" s="57" t="s">
+        <v>13</v>
+      </c>
+      <c r="D97" s="57" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="97" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A97" s="147"/>
-      <c r="B97" s="58">
-        <v>2</v>
-      </c>
-      <c r="C97" s="58" t="s">
-        <v>13</v>
-      </c>
-      <c r="D97" s="58" t="s">
-        <v>134</v>
-      </c>
-      <c r="E97" s="33">
+      <c r="E97" s="32">
         <v>0.5</v>
       </c>
-      <c r="F97" s="34" t="s">
+      <c r="F97" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="G97" s="35">
+      <c r="G97" s="34">
         <v>1.5185999999999999</v>
       </c>
-      <c r="H97" s="35">
+      <c r="H97" s="34">
         <v>1.5209999999999999</v>
       </c>
-      <c r="I97" s="44">
+      <c r="I97" s="43">
         <v>1.5150000000000001</v>
       </c>
-      <c r="J97" s="75">
+      <c r="J97" s="73">
         <v>-24</v>
       </c>
-      <c r="K97" s="111" t="s">
-        <v>49</v>
-      </c>
-      <c r="L97" s="36" t="s">
+      <c r="K97" s="109" t="s">
+        <v>48</v>
+      </c>
+      <c r="L97" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="M97" s="37">
+      <c r="M97" s="36">
         <f t="shared" si="14"/>
         <v>1.4999999999999538</v>
       </c>
-      <c r="N97" s="38">
+      <c r="N97" s="37">
         <f t="shared" si="15"/>
         <v>23.999999999999577</v>
       </c>
-      <c r="O97" s="80">
+      <c r="O97" s="78">
         <f t="shared" si="16"/>
         <v>35.999999999998259</v>
       </c>
-      <c r="P97" s="106" t="s">
-        <v>135</v>
+      <c r="P97" s="104" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="98" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A98" s="147"/>
-      <c r="B98" s="58">
+      <c r="A98" s="165"/>
+      <c r="B98" s="57">
         <v>3</v>
       </c>
-      <c r="C98" s="58" t="s">
+      <c r="C98" s="57" t="s">
         <v>13</v>
       </c>
-      <c r="D98" s="74" t="s">
-        <v>134</v>
-      </c>
-      <c r="E98" s="33">
+      <c r="D98" s="72" t="s">
+        <v>133</v>
+      </c>
+      <c r="E98" s="32">
         <v>0.66666666666666663</v>
       </c>
-      <c r="F98" s="34" t="s">
+      <c r="F98" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="G98" s="35">
+      <c r="G98" s="34">
         <v>1.5207000000000002</v>
       </c>
-      <c r="H98" s="35">
+      <c r="H98" s="34">
         <v>1.5169999999999999</v>
       </c>
-      <c r="I98" s="44">
+      <c r="I98" s="43">
         <v>1.53</v>
       </c>
-      <c r="J98" s="90">
+      <c r="J98" s="88">
         <f>((25)+(63))/2</f>
         <v>44</v>
       </c>
-      <c r="K98" s="35"/>
-      <c r="L98" s="36" t="s">
+      <c r="K98" s="34"/>
+      <c r="L98" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="M98" s="37">
+      <c r="M98" s="36">
         <f t="shared" si="14"/>
         <v>2.5135135135133009</v>
       </c>
-      <c r="N98" s="38">
+      <c r="N98" s="37">
         <f t="shared" si="15"/>
         <v>37.000000000002586</v>
       </c>
-      <c r="O98" s="80">
+      <c r="O98" s="78">
         <f t="shared" si="16"/>
         <v>92.999999999998636</v>
       </c>
-      <c r="P98" s="106" t="s">
+      <c r="P98" s="104" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="99" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A99" s="165"/>
+      <c r="B99" s="57">
+        <v>4</v>
+      </c>
+      <c r="C99" s="79" t="s">
+        <v>13</v>
+      </c>
+      <c r="D99" s="79" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="99" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A99" s="147"/>
-      <c r="B99" s="58">
-        <v>4</v>
-      </c>
-      <c r="C99" s="81" t="s">
-        <v>13</v>
-      </c>
-      <c r="D99" s="81" t="s">
-        <v>136</v>
-      </c>
-      <c r="E99" s="33">
+      <c r="E99" s="32">
         <v>0.41666666666666663</v>
       </c>
-      <c r="F99" s="34" t="s">
+      <c r="F99" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="G99" s="89">
+      <c r="G99" s="87">
         <v>1.5399</v>
       </c>
-      <c r="H99" s="89">
+      <c r="H99" s="87">
         <v>1.5366</v>
       </c>
-      <c r="I99" s="112">
+      <c r="I99" s="110">
         <v>1.5455000000000001</v>
       </c>
-      <c r="J99" s="90">
+      <c r="J99" s="88">
         <v>56</v>
       </c>
-      <c r="K99" s="89"/>
-      <c r="L99" s="36" t="s">
+      <c r="K99" s="87"/>
+      <c r="L99" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="M99" s="37">
+      <c r="M99" s="36">
         <f t="shared" si="14"/>
         <v>1.6969696969696704</v>
       </c>
-      <c r="N99" s="38">
+      <c r="N99" s="37">
         <f t="shared" si="15"/>
         <v>33.00000000000081</v>
       </c>
-      <c r="O99" s="80">
+      <c r="O99" s="78">
         <f t="shared" si="16"/>
         <v>56.000000000000497</v>
       </c>
-      <c r="P99" s="106" t="s">
+      <c r="P99" s="104" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="100" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A100" s="165"/>
+      <c r="B100" s="57">
+        <v>5</v>
+      </c>
+      <c r="C100" s="79" t="s">
+        <v>13</v>
+      </c>
+      <c r="D100" s="79" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="100" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A100" s="147"/>
-      <c r="B100" s="58">
-        <v>5</v>
-      </c>
-      <c r="C100" s="81" t="s">
-        <v>13</v>
-      </c>
-      <c r="D100" s="81" t="s">
-        <v>138</v>
-      </c>
-      <c r="E100" s="33">
+      <c r="E100" s="32">
         <v>0.33333333333333331</v>
       </c>
-      <c r="F100" s="34" t="s">
+      <c r="F100" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="G100" s="89">
+      <c r="G100" s="87">
         <v>1.5773999999999999</v>
       </c>
-      <c r="H100" s="89">
+      <c r="H100" s="87">
         <v>1.5733999999999999</v>
       </c>
-      <c r="I100" s="112">
+      <c r="I100" s="110">
         <v>1.5851999999999999</v>
       </c>
-      <c r="J100" s="90">
+      <c r="J100" s="88">
         <v>28.5</v>
       </c>
-      <c r="K100" s="89"/>
-      <c r="L100" s="36" t="s">
+      <c r="K100" s="87"/>
+      <c r="L100" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="M100" s="37">
+      <c r="M100" s="36">
         <f t="shared" si="14"/>
         <v>1.9500000000000055</v>
       </c>
-      <c r="N100" s="38">
+      <c r="N100" s="37">
         <f t="shared" si="15"/>
         <v>40.000000000000036</v>
       </c>
-      <c r="O100" s="80">
+      <c r="O100" s="78">
         <f t="shared" si="16"/>
         <v>78.000000000000284</v>
       </c>
-      <c r="P100" s="106" t="s">
+      <c r="P100" s="104" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="101" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A101" s="165"/>
+      <c r="B101" s="57">
+        <v>6</v>
+      </c>
+      <c r="C101" s="79" t="s">
+        <v>13</v>
+      </c>
+      <c r="D101" s="79" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="101" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A101" s="147"/>
-      <c r="B101" s="58">
-        <v>6</v>
-      </c>
-      <c r="C101" s="81" t="s">
-        <v>13</v>
-      </c>
-      <c r="D101" s="81" t="s">
-        <v>140</v>
-      </c>
-      <c r="E101" s="33">
+      <c r="E101" s="32">
         <v>0.66666666666666663</v>
       </c>
-      <c r="F101" s="34" t="s">
+      <c r="F101" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="G101" s="89">
+      <c r="G101" s="87">
         <v>1.5701000000000001</v>
       </c>
-      <c r="H101" s="89">
+      <c r="H101" s="87">
         <v>1.5737999999999999</v>
       </c>
-      <c r="I101" s="112">
+      <c r="I101" s="110">
         <v>1.5623</v>
       </c>
-      <c r="J101" s="90">
+      <c r="J101" s="88">
         <v>38</v>
       </c>
-      <c r="K101" s="89"/>
-      <c r="L101" s="36" t="s">
+      <c r="K101" s="87"/>
+      <c r="L101" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="M101" s="37">
+      <c r="M101" s="36">
         <f t="shared" si="14"/>
         <v>2.1081081081082216</v>
       </c>
-      <c r="N101" s="38">
+      <c r="N101" s="37">
         <f t="shared" si="15"/>
         <v>36.999999999998145</v>
       </c>
-      <c r="O101" s="80">
+      <c r="O101" s="78">
         <f t="shared" si="16"/>
         <v>78.000000000000284</v>
       </c>
-      <c r="P101" s="106" t="s">
-        <v>141</v>
+      <c r="P101" s="104" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="102" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A102" s="147"/>
-      <c r="B102" s="58">
+      <c r="A102" s="165"/>
+      <c r="B102" s="57">
         <v>7</v>
       </c>
-      <c r="C102" s="81" t="s">
+      <c r="C102" s="79" t="s">
         <v>13</v>
       </c>
-      <c r="D102" s="81" t="s">
-        <v>140</v>
-      </c>
-      <c r="E102" s="33">
+      <c r="D102" s="79" t="s">
+        <v>139</v>
+      </c>
+      <c r="E102" s="32">
         <v>0.70833333333333326</v>
       </c>
-      <c r="F102" s="34" t="s">
+      <c r="F102" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="G102" s="89">
+      <c r="G102" s="87">
         <v>1.5619000000000001</v>
       </c>
-      <c r="H102" s="89">
+      <c r="H102" s="87">
         <v>1.5640000000000001</v>
       </c>
-      <c r="I102" s="112">
+      <c r="I102" s="110">
         <v>1.5569999999999999</v>
       </c>
-      <c r="J102" s="90">
+      <c r="J102" s="88">
         <v>18.5</v>
       </c>
-      <c r="K102" s="89"/>
-      <c r="L102" s="36" t="s">
+      <c r="K102" s="87"/>
+      <c r="L102" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="M102" s="37">
+      <c r="M102" s="36">
         <f t="shared" si="14"/>
         <v>2.3333333333334036</v>
       </c>
-      <c r="N102" s="38">
+      <c r="N102" s="37">
         <f t="shared" si="15"/>
         <v>20.999999999999908</v>
       </c>
-      <c r="O102" s="80">
+      <c r="O102" s="78">
         <f t="shared" si="16"/>
         <v>49.000000000001258</v>
       </c>
-      <c r="P102" s="106" t="s">
+      <c r="P102" s="104" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="103" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A103" s="165"/>
+      <c r="B103" s="57">
+        <v>8</v>
+      </c>
+      <c r="C103" s="79" t="s">
+        <v>17</v>
+      </c>
+      <c r="D103" s="79" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="103" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A103" s="147"/>
-      <c r="B103" s="58">
-        <v>8</v>
-      </c>
-      <c r="C103" s="81" t="s">
-        <v>17</v>
-      </c>
-      <c r="D103" s="81" t="s">
-        <v>143</v>
-      </c>
-      <c r="E103" s="33">
+      <c r="E103" s="32">
         <v>0.66666666666666663</v>
       </c>
-      <c r="F103" s="34" t="s">
+      <c r="F103" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="G103" s="89">
+      <c r="G103" s="87">
         <v>1.9832000000000001</v>
       </c>
-      <c r="H103" s="89">
+      <c r="H103" s="87">
         <v>1.9795</v>
       </c>
-      <c r="I103" s="112">
+      <c r="I103" s="110">
         <v>1.9904999999999999</v>
       </c>
-      <c r="J103" s="90">
+      <c r="J103" s="88">
         <v>33</v>
       </c>
-      <c r="K103" s="89"/>
-      <c r="L103" s="36" t="s">
+      <c r="K103" s="87"/>
+      <c r="L103" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="M103" s="37">
+      <c r="M103" s="36">
         <f t="shared" si="14"/>
         <v>1.9729729729729162</v>
       </c>
-      <c r="N103" s="38">
+      <c r="N103" s="37">
         <f t="shared" si="15"/>
         <v>37.000000000000369</v>
       </c>
-      <c r="O103" s="80">
+      <c r="O103" s="78">
         <f t="shared" si="16"/>
         <v>72.999999999998622</v>
       </c>
-      <c r="P103" s="106" t="s">
+      <c r="P103" s="104" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="104" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A104" s="165"/>
+      <c r="B104" s="57">
+        <v>9</v>
+      </c>
+      <c r="C104" s="79" t="s">
+        <v>13</v>
+      </c>
+      <c r="D104" s="79" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="104" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A104" s="147"/>
-      <c r="B104" s="58">
-        <v>9</v>
-      </c>
-      <c r="C104" s="81" t="s">
-        <v>13</v>
-      </c>
-      <c r="D104" s="81" t="s">
-        <v>145</v>
-      </c>
-      <c r="E104" s="33">
+      <c r="E104" s="32">
         <v>0.66666666666666663</v>
       </c>
-      <c r="F104" s="34" t="s">
+      <c r="F104" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="G104" s="89">
+      <c r="G104" s="87">
         <v>1.5815000000000001</v>
       </c>
-      <c r="H104" s="89">
+      <c r="H104" s="87">
         <v>1.5848</v>
       </c>
-      <c r="I104" s="112">
+      <c r="I104" s="110">
         <v>1.5569999999999999</v>
       </c>
-      <c r="J104" s="90">
+      <c r="J104" s="88">
         <v>125</v>
       </c>
-      <c r="K104" s="89"/>
-      <c r="L104" s="95" t="s">
+      <c r="K104" s="87"/>
+      <c r="L104" s="93" t="s">
         <v>15</v>
       </c>
-      <c r="M104" s="37">
+      <c r="M104" s="36">
         <f t="shared" si="14"/>
         <v>7.4242424242427996</v>
       </c>
-      <c r="N104" s="38">
+      <c r="N104" s="37">
         <f t="shared" si="15"/>
         <v>32.999999999998586</v>
       </c>
-      <c r="O104" s="80">
+      <c r="O104" s="78">
         <f t="shared" si="16"/>
         <v>245.00000000000188</v>
       </c>
-      <c r="P104" s="106" t="s">
-        <v>146</v>
+      <c r="P104" s="104" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="105" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A105" s="147"/>
-      <c r="B105" s="113"/>
-      <c r="C105" s="114"/>
-      <c r="D105" s="114"/>
-      <c r="E105" s="49"/>
-      <c r="F105" s="50"/>
-      <c r="G105" s="115"/>
-      <c r="H105" s="115"/>
-      <c r="I105" s="116"/>
-      <c r="J105" s="117"/>
-      <c r="K105" s="118"/>
-      <c r="L105" s="119"/>
-      <c r="M105" s="54"/>
-      <c r="N105" s="55"/>
-      <c r="O105" s="120"/>
-      <c r="P105" s="121"/>
+      <c r="A105" s="165"/>
+      <c r="B105" s="111"/>
+      <c r="C105" s="112"/>
+      <c r="D105" s="112"/>
+      <c r="E105" s="48"/>
+      <c r="F105" s="49"/>
+      <c r="G105" s="113"/>
+      <c r="H105" s="113"/>
+      <c r="I105" s="114"/>
+      <c r="J105" s="115"/>
+      <c r="K105" s="116"/>
+      <c r="L105" s="117"/>
+      <c r="M105" s="53"/>
+      <c r="N105" s="54"/>
+      <c r="O105" s="118"/>
+      <c r="P105" s="119"/>
     </row>
     <row r="109" spans="1:16" x14ac:dyDescent="0.2">
       <c r="I109" s="20" t="s">
@@ -9579,27 +9693,27 @@
         <f>SUM(J110:J116)</f>
         <v>456</v>
       </c>
-      <c r="P109" s="108" t="s">
+      <c r="P109" s="106" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="110" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A110" s="148" t="s">
-        <v>224</v>
-      </c>
-      <c r="B110" s="122">
+      <c r="A110" s="166" t="s">
+        <v>217</v>
+      </c>
+      <c r="B110" s="120">
         <v>1</v>
       </c>
-      <c r="C110" s="86" t="s">
+      <c r="C110" s="84" t="s">
         <v>13</v>
       </c>
-      <c r="D110" s="86" t="s">
-        <v>147</v>
-      </c>
-      <c r="E110" s="64">
+      <c r="D110" s="84" t="s">
+        <v>146</v>
+      </c>
+      <c r="E110" s="62">
         <v>0.66666666666666663</v>
       </c>
-      <c r="F110" s="66" t="s">
+      <c r="F110" s="64" t="s">
         <v>20</v>
       </c>
       <c r="G110" s="19">
@@ -9608,245 +9722,245 @@
       <c r="H110" s="19">
         <v>1.5676999999999999</v>
       </c>
-      <c r="I110" s="98">
+      <c r="I110" s="96">
         <v>1.5768</v>
       </c>
-      <c r="J110" s="105">
+      <c r="J110" s="103">
         <v>58</v>
       </c>
-      <c r="K110" s="100"/>
-      <c r="L110" s="67" t="s">
+      <c r="K110" s="98"/>
+      <c r="L110" s="65" t="s">
         <v>15</v>
       </c>
-      <c r="M110" s="68">
+      <c r="M110" s="66">
         <f>IF((I110-G110)/(H110-G110)&lt;0,(I110-G110)/(H110-G110)*-1,(I110-G110)/(H110-G110))</f>
         <v>1.7575757575755373</v>
       </c>
-      <c r="N110" s="123">
+      <c r="N110" s="121">
         <f>IF((G110-H110)*10000&lt;1,(G110-H110)*-1*10000,(G110-H110)*10000)</f>
         <v>33.000000000003027</v>
       </c>
-      <c r="O110" s="124">
+      <c r="O110" s="122">
         <f>N110*M110</f>
         <v>57.999999999998053</v>
       </c>
-      <c r="P110" s="110" t="s">
+      <c r="P110" s="108" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="111" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A111" s="166"/>
+      <c r="B111" s="92">
+        <v>2</v>
+      </c>
+      <c r="C111" s="57" t="s">
+        <v>17</v>
+      </c>
+      <c r="D111" s="57" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="111" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A111" s="148"/>
-      <c r="B111" s="94">
-        <v>2</v>
-      </c>
-      <c r="C111" s="58" t="s">
-        <v>17</v>
-      </c>
-      <c r="D111" s="58" t="s">
-        <v>149</v>
-      </c>
-      <c r="E111" s="33">
+      <c r="E111" s="32">
         <v>0.33333333333333331</v>
       </c>
-      <c r="F111" s="34" t="s">
+      <c r="F111" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="G111" s="35">
+      <c r="G111" s="34">
         <v>1.9855</v>
       </c>
-      <c r="H111" s="35">
+      <c r="H111" s="34">
         <v>1.9897</v>
       </c>
-      <c r="I111" s="44">
+      <c r="I111" s="43">
         <v>1.9752000000000001</v>
       </c>
-      <c r="J111" s="90">
+      <c r="J111" s="88">
         <v>103</v>
       </c>
-      <c r="K111" s="111"/>
-      <c r="L111" s="36" t="s">
+      <c r="K111" s="109"/>
+      <c r="L111" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="M111" s="37">
+      <c r="M111" s="36">
         <f>IF((I111-G111)/(H111-G111)&lt;0,(I111-G111)/(H111-G111)*-1,(I111-G111)/(H111-G111))</f>
         <v>2.4523809523809574</v>
       </c>
-      <c r="N111" s="125">
+      <c r="N111" s="123">
         <f>IF((G111-H111)*10000&lt;1,(G111-H111)*-1*10000,(G111-H111)*10000)</f>
         <v>41.999999999999815</v>
       </c>
-      <c r="O111" s="126">
+      <c r="O111" s="124">
         <f>N111*M111</f>
         <v>102.99999999999976</v>
       </c>
-      <c r="P111" s="106" t="s">
+      <c r="P111" s="104" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="112" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A112" s="166"/>
+      <c r="B112" s="92">
+        <v>3</v>
+      </c>
+      <c r="C112" s="57" t="s">
+        <v>13</v>
+      </c>
+      <c r="D112" s="72" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="112" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A112" s="148"/>
-      <c r="B112" s="94">
-        <v>3</v>
-      </c>
-      <c r="C112" s="58" t="s">
-        <v>13</v>
-      </c>
-      <c r="D112" s="74" t="s">
-        <v>151</v>
-      </c>
-      <c r="E112" s="33">
+      <c r="E112" s="32">
         <v>0.33333333333333331</v>
       </c>
-      <c r="F112" s="34" t="s">
+      <c r="F112" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="G112" s="35">
+      <c r="G112" s="34">
         <v>1.5728</v>
       </c>
-      <c r="H112" s="35">
+      <c r="H112" s="34">
         <v>1.5693999999999999</v>
       </c>
-      <c r="I112" s="44">
+      <c r="I112" s="43">
         <v>1.5790999999999999</v>
       </c>
-      <c r="J112" s="90">
+      <c r="J112" s="88">
         <v>112</v>
       </c>
-      <c r="K112" s="35"/>
-      <c r="L112" s="36" t="s">
+      <c r="K112" s="34"/>
+      <c r="L112" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="M112" s="37">
+      <c r="M112" s="36">
         <f>IF((I112-G112)/(H112-G112)&lt;0,(I112-G112)/(H112-G112)*-1,(I112-G112)/(H112-G112))</f>
         <v>1.8529411764705421</v>
       </c>
-      <c r="N112" s="125">
+      <c r="N112" s="123">
         <f>IF((G112-H112)*10000&lt;1,(G112-H112)*-1*10000,(G112-H112)*10000)</f>
         <v>34.000000000000696</v>
       </c>
-      <c r="O112" s="126">
+      <c r="O112" s="124">
         <f>N112*M112</f>
         <v>62.999999999999723</v>
       </c>
-      <c r="P112" s="106" t="s">
+      <c r="P112" s="104" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="113" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A113" s="166"/>
+      <c r="B113" s="92">
+        <v>4</v>
+      </c>
+      <c r="C113" s="79" t="s">
+        <v>13</v>
+      </c>
+      <c r="D113" s="79" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="113" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A113" s="148"/>
-      <c r="B113" s="94">
-        <v>4</v>
-      </c>
-      <c r="C113" s="81" t="s">
-        <v>13</v>
-      </c>
-      <c r="D113" s="81" t="s">
-        <v>153</v>
-      </c>
-      <c r="E113" s="33">
+      <c r="E113" s="32">
         <v>0.83333333333333326</v>
       </c>
-      <c r="F113" s="34" t="s">
+      <c r="F113" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="G113" s="89">
+      <c r="G113" s="87">
         <v>1.5882000000000001</v>
       </c>
-      <c r="H113" s="89">
+      <c r="H113" s="87">
         <v>1.5927</v>
       </c>
-      <c r="I113" s="112">
+      <c r="I113" s="110">
         <v>1.5821000000000001</v>
       </c>
-      <c r="J113" s="90">
+      <c r="J113" s="88">
         <v>183</v>
       </c>
-      <c r="K113" s="89"/>
-      <c r="L113" s="36" t="s">
+      <c r="K113" s="87"/>
+      <c r="L113" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="M113" s="37">
+      <c r="M113" s="36">
         <f>IF((I113-G113)/(H113-G113)&lt;0,(I113-G113)/(H113-G113)*-1,(I113-G113)/(H113-G113))</f>
         <v>1.3555555555555698</v>
       </c>
-      <c r="N113" s="125">
+      <c r="N113" s="123">
         <f>IF((G113-H113)*10000&lt;1,(G113-H113)*-1*10000,(G113-H113)*10000)</f>
         <v>44.999999999999488</v>
       </c>
-      <c r="O113" s="126">
+      <c r="O113" s="124">
         <f>N113*M113</f>
         <v>60.99999999999995</v>
       </c>
-      <c r="P113" s="106" t="s">
+      <c r="P113" s="104" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="114" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A114" s="166"/>
+      <c r="B114" s="92">
+        <v>5</v>
+      </c>
+      <c r="C114" s="79" t="s">
+        <v>13</v>
+      </c>
+      <c r="D114" s="79" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="114" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A114" s="148"/>
-      <c r="B114" s="94">
-        <v>5</v>
-      </c>
-      <c r="C114" s="81" t="s">
-        <v>13</v>
-      </c>
-      <c r="D114" s="81" t="s">
+      <c r="E114" s="32">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="F114" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="G114" s="87">
+        <v>1.5649000000000002</v>
+      </c>
+      <c r="H114" s="87">
+        <v>1.5684</v>
+      </c>
+      <c r="I114" s="110">
+        <v>1.5545</v>
+      </c>
+      <c r="J114" s="125" t="s">
         <v>155</v>
       </c>
-      <c r="E114" s="33">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="F114" s="34" t="s">
-        <v>14</v>
-      </c>
-      <c r="G114" s="89">
-        <v>1.5649000000000002</v>
-      </c>
-      <c r="H114" s="89">
-        <v>1.5684</v>
-      </c>
-      <c r="I114" s="112">
-        <v>1.5545</v>
-      </c>
-      <c r="J114" s="127" t="s">
-        <v>156</v>
-      </c>
-      <c r="K114" s="89"/>
-      <c r="L114" s="36" t="s">
+      <c r="K114" s="87"/>
+      <c r="L114" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="M114" s="37">
+      <c r="M114" s="36">
         <f>IF((I114-G114)/(H114-G114)&lt;0,(I114-G114)/(H114-G114)*-1,(I114-G114)/(H114-G114))</f>
         <v>2.9714285714287634</v>
       </c>
-      <c r="N114" s="125">
+      <c r="N114" s="123">
         <f>IF((G114-H114)*10000&lt;1,(G114-H114)*-1*10000,(G114-H114)*10000)</f>
         <v>34.999999999998366</v>
       </c>
-      <c r="O114" s="126">
+      <c r="O114" s="124">
         <f>N114*M114</f>
         <v>104.00000000000186</v>
       </c>
-      <c r="P114" s="106" t="s">
-        <v>157</v>
+      <c r="P114" s="104" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="115" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A115" s="148"/>
-      <c r="B115" s="128"/>
-      <c r="C115" s="114"/>
-      <c r="D115" s="114"/>
-      <c r="E115" s="49"/>
-      <c r="F115" s="50"/>
-      <c r="G115" s="115"/>
-      <c r="H115" s="115"/>
-      <c r="I115" s="116"/>
-      <c r="J115" s="117"/>
-      <c r="K115" s="115"/>
-      <c r="L115" s="53"/>
-      <c r="M115" s="54"/>
-      <c r="N115" s="129"/>
-      <c r="O115" s="130"/>
-      <c r="P115" s="121"/>
+      <c r="A115" s="166"/>
+      <c r="B115" s="126"/>
+      <c r="C115" s="112"/>
+      <c r="D115" s="112"/>
+      <c r="E115" s="48"/>
+      <c r="F115" s="49"/>
+      <c r="G115" s="113"/>
+      <c r="H115" s="113"/>
+      <c r="I115" s="114"/>
+      <c r="J115" s="115"/>
+      <c r="K115" s="113"/>
+      <c r="L115" s="52"/>
+      <c r="M115" s="53"/>
+      <c r="N115" s="127"/>
+      <c r="O115" s="128"/>
+      <c r="P115" s="119"/>
     </row>
     <row r="116" spans="1:18" x14ac:dyDescent="0.2">
       <c r="F116"/>
@@ -9868,24 +9982,24 @@
         <f>SUM(J120:J131)</f>
         <v>238</v>
       </c>
-      <c r="P119" s="108" t="s">
+      <c r="P119" s="106" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="120" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A120" s="146" t="s">
-        <v>225</v>
-      </c>
-      <c r="B120" s="122">
+      <c r="A120" s="163" t="s">
+        <v>218</v>
+      </c>
+      <c r="B120" s="120">
         <v>1</v>
       </c>
-      <c r="C120" s="86" t="s">
+      <c r="C120" s="84" t="s">
         <v>17</v>
       </c>
-      <c r="D120" s="86" t="s">
-        <v>158</v>
-      </c>
-      <c r="E120" s="64">
+      <c r="D120" s="84" t="s">
+        <v>157</v>
+      </c>
+      <c r="E120" s="62">
         <v>0.33333333333333331</v>
       </c>
       <c r="F120" s="18" t="s">
@@ -9897,545 +10011,545 @@
       <c r="H120" s="19">
         <v>1.9805000000000001</v>
       </c>
-      <c r="I120" s="98">
+      <c r="I120" s="96">
         <v>1.9664000000000001</v>
       </c>
-      <c r="J120" s="131">
+      <c r="J120" s="129">
         <v>0</v>
       </c>
-      <c r="K120" s="132" t="s">
+      <c r="K120" s="130" t="s">
         <v>31</v>
       </c>
-      <c r="L120" s="67" t="s">
+      <c r="L120" s="65" t="s">
         <v>15</v>
       </c>
-      <c r="M120" s="68">
+      <c r="M120" s="66">
         <f t="shared" ref="M120:M130" si="17">IF((I120-G120)/(H120-G120)&lt;0,(I120-G120)/(H120-G120)*-1,(I120-G120)/(H120-G120))</f>
         <v>2.710526315789449</v>
       </c>
-      <c r="N120" s="123">
+      <c r="N120" s="121">
         <f t="shared" ref="N120:N130" si="18">IF((G120-H120)*10000&lt;1,(G120-H120)*-1*10000,(G120-H120)*10000)</f>
         <v>38.000000000000256</v>
       </c>
-      <c r="O120" s="133">
+      <c r="O120" s="131">
         <f t="shared" ref="O120:O130" si="19">N120*M120</f>
         <v>102.99999999999976</v>
       </c>
-      <c r="P120" s="134" t="s">
+      <c r="P120" s="132" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="121" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A121" s="163"/>
+      <c r="B121" s="92">
+        <v>2</v>
+      </c>
+      <c r="C121" s="57" t="s">
+        <v>17</v>
+      </c>
+      <c r="D121" s="57" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="121" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A121" s="146"/>
-      <c r="B121" s="94">
-        <v>2</v>
-      </c>
-      <c r="C121" s="58" t="s">
-        <v>17</v>
-      </c>
-      <c r="D121" s="58" t="s">
-        <v>160</v>
-      </c>
-      <c r="E121" s="33">
+      <c r="E121" s="32">
         <v>0.5</v>
       </c>
-      <c r="F121" s="34" t="s">
+      <c r="F121" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="G121" s="35">
+      <c r="G121" s="34">
         <v>1.9708000000000001</v>
       </c>
-      <c r="H121" s="35">
+      <c r="H121" s="34">
         <v>1.9758</v>
       </c>
-      <c r="I121" s="44">
+      <c r="I121" s="43">
         <v>1.9630000000000001</v>
       </c>
-      <c r="J121" s="90">
+      <c r="J121" s="88">
         <v>44</v>
       </c>
-      <c r="K121" s="111"/>
-      <c r="L121" s="36" t="s">
+      <c r="K121" s="109"/>
+      <c r="L121" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="M121" s="135">
+      <c r="M121" s="133">
         <f t="shared" si="17"/>
         <v>1.5600000000000391</v>
       </c>
-      <c r="N121" s="125">
+      <c r="N121" s="123">
         <f t="shared" si="18"/>
         <v>49.999999999998934</v>
       </c>
-      <c r="O121" s="136">
+      <c r="O121" s="134">
         <f t="shared" si="19"/>
         <v>78.000000000000298</v>
       </c>
-      <c r="P121" s="137" t="s">
+      <c r="P121" s="135" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="122" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A122" s="163"/>
+      <c r="B122" s="92">
+        <v>3</v>
+      </c>
+      <c r="C122" s="57" t="s">
+        <v>17</v>
+      </c>
+      <c r="D122" s="72" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="122" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A122" s="146"/>
-      <c r="B122" s="94">
-        <v>3</v>
-      </c>
-      <c r="C122" s="58" t="s">
-        <v>17</v>
-      </c>
-      <c r="D122" s="74" t="s">
-        <v>162</v>
-      </c>
-      <c r="E122" s="33">
+      <c r="E122" s="32">
         <v>0.33333333333333331</v>
       </c>
-      <c r="F122" s="34" t="s">
+      <c r="F122" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="G122" s="35">
+      <c r="G122" s="34">
         <v>1.9733000000000001</v>
       </c>
-      <c r="H122" s="35">
+      <c r="H122" s="34">
         <v>1.9763000000000002</v>
       </c>
-      <c r="I122" s="44">
+      <c r="I122" s="43">
         <v>1.9674</v>
       </c>
-      <c r="J122" s="138">
+      <c r="J122" s="136">
         <v>44.5</v>
       </c>
-      <c r="K122" s="35"/>
-      <c r="L122" s="36" t="s">
+      <c r="K122" s="34"/>
+      <c r="L122" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="M122" s="135">
+      <c r="M122" s="133">
         <f t="shared" si="17"/>
         <v>1.9666666666665975</v>
       </c>
-      <c r="N122" s="125">
+      <c r="N122" s="123">
         <f t="shared" si="18"/>
         <v>30.000000000001137</v>
       </c>
-      <c r="O122" s="136">
+      <c r="O122" s="134">
         <f t="shared" si="19"/>
         <v>59.000000000000163</v>
       </c>
-      <c r="P122" s="137" t="s">
-        <v>163</v>
+      <c r="P122" s="135" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="123" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A123" s="146"/>
-      <c r="B123" s="94">
+      <c r="A123" s="163"/>
+      <c r="B123" s="92">
         <v>4</v>
       </c>
-      <c r="C123" s="81" t="s">
+      <c r="C123" s="79" t="s">
         <v>13</v>
       </c>
-      <c r="D123" s="81" t="s">
-        <v>162</v>
-      </c>
-      <c r="E123" s="33">
+      <c r="D123" s="79" t="s">
+        <v>161</v>
+      </c>
+      <c r="E123" s="32">
         <v>0.5</v>
       </c>
-      <c r="F123" s="34" t="s">
+      <c r="F123" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="G123" s="89">
+      <c r="G123" s="87">
         <v>1.5524</v>
       </c>
-      <c r="H123" s="89">
+      <c r="H123" s="87">
         <v>1.5491000000000001</v>
       </c>
-      <c r="I123" s="112">
+      <c r="I123" s="110">
         <v>1.5594999999999999</v>
       </c>
-      <c r="J123" s="90">
+      <c r="J123" s="88">
         <v>35</v>
       </c>
-      <c r="K123" s="89"/>
-      <c r="L123" s="36" t="s">
+      <c r="K123" s="87"/>
+      <c r="L123" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="M123" s="135">
+      <c r="M123" s="133">
         <f t="shared" si="17"/>
         <v>2.1515151515152087</v>
       </c>
-      <c r="N123" s="125">
+      <c r="N123" s="123">
         <f t="shared" si="18"/>
         <v>32.999999999998586</v>
       </c>
-      <c r="O123" s="136">
+      <c r="O123" s="134">
         <f t="shared" si="19"/>
         <v>70.999999999998849</v>
       </c>
-      <c r="P123" s="137" t="s">
+      <c r="P123" s="135" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="124" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A124" s="163"/>
+      <c r="B124" s="92">
+        <v>5</v>
+      </c>
+      <c r="C124" s="79" t="s">
+        <v>13</v>
+      </c>
+      <c r="D124" s="79" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="124" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A124" s="146"/>
-      <c r="B124" s="94">
-        <v>5</v>
-      </c>
-      <c r="C124" s="81" t="s">
-        <v>13</v>
-      </c>
-      <c r="D124" s="81" t="s">
-        <v>165</v>
-      </c>
-      <c r="E124" s="33">
+      <c r="E124" s="32">
         <v>0.41666666666666663</v>
       </c>
-      <c r="F124" s="34" t="s">
+      <c r="F124" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="G124" s="89">
+      <c r="G124" s="87">
         <v>1.5483</v>
       </c>
-      <c r="H124" s="89">
+      <c r="H124" s="87">
         <v>1.5507</v>
       </c>
-      <c r="I124" s="112">
+      <c r="I124" s="110">
         <v>1.5453000000000001</v>
       </c>
-      <c r="J124" s="127">
+      <c r="J124" s="125">
         <v>30</v>
       </c>
-      <c r="K124" s="89"/>
-      <c r="L124" s="36" t="s">
+      <c r="K124" s="87"/>
+      <c r="L124" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="M124" s="135">
+      <c r="M124" s="133">
         <f t="shared" si="17"/>
         <v>1.2499999999999769</v>
       </c>
-      <c r="N124" s="125">
+      <c r="N124" s="123">
         <f t="shared" si="18"/>
         <v>23.999999999999577</v>
       </c>
-      <c r="O124" s="136">
+      <c r="O124" s="134">
         <f t="shared" si="19"/>
         <v>29.999999999998916</v>
       </c>
-      <c r="P124" s="137" t="s">
+      <c r="P124" s="135" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="125" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A125" s="163"/>
+      <c r="B125" s="92">
+        <v>6</v>
+      </c>
+      <c r="C125" s="79" t="s">
+        <v>13</v>
+      </c>
+      <c r="D125" s="79" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="125" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A125" s="146"/>
-      <c r="B125" s="94">
-        <v>6</v>
-      </c>
-      <c r="C125" s="81" t="s">
-        <v>13</v>
-      </c>
-      <c r="D125" s="81" t="s">
-        <v>167</v>
-      </c>
-      <c r="E125" s="33">
+      <c r="E125" s="32">
         <v>0.5</v>
       </c>
-      <c r="F125" s="34" t="s">
+      <c r="F125" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="G125" s="89">
+      <c r="G125" s="87">
         <v>1.5441</v>
       </c>
-      <c r="H125" s="89">
+      <c r="H125" s="87">
         <v>1.5390999999999999</v>
       </c>
-      <c r="I125" s="112">
+      <c r="I125" s="110">
         <v>1.5549999999999999</v>
       </c>
-      <c r="J125" s="90">
+      <c r="J125" s="88">
         <v>62</v>
       </c>
-      <c r="K125" s="89"/>
-      <c r="L125" s="36" t="s">
+      <c r="K125" s="87"/>
+      <c r="L125" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="M125" s="135">
+      <c r="M125" s="133">
         <f t="shared" si="17"/>
         <v>2.1799999999999318</v>
       </c>
-      <c r="N125" s="125">
+      <c r="N125" s="123">
         <f t="shared" si="18"/>
         <v>50.000000000001151</v>
       </c>
-      <c r="O125" s="136">
+      <c r="O125" s="134">
         <f t="shared" si="19"/>
         <v>108.9999999999991</v>
       </c>
-      <c r="P125" s="137" t="s">
+      <c r="P125" s="135" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="126" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A126" s="163"/>
+      <c r="B126" s="92">
+        <v>7</v>
+      </c>
+      <c r="C126" s="79" t="s">
+        <v>13</v>
+      </c>
+      <c r="D126" s="79" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="126" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A126" s="146"/>
-      <c r="B126" s="94">
-        <v>7</v>
-      </c>
-      <c r="C126" s="81" t="s">
-        <v>13</v>
-      </c>
-      <c r="D126" s="81" t="s">
-        <v>169</v>
-      </c>
-      <c r="E126" s="33">
+      <c r="E126" s="32">
         <v>0.5</v>
       </c>
-      <c r="F126" s="34" t="s">
+      <c r="F126" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="G126" s="89">
+      <c r="G126" s="87">
         <v>1.5487000000000002</v>
       </c>
-      <c r="H126" s="89">
+      <c r="H126" s="87">
         <v>1.5517000000000001</v>
       </c>
-      <c r="I126" s="112">
+      <c r="I126" s="110">
         <v>1.5430000000000001</v>
       </c>
-      <c r="J126" s="75">
+      <c r="J126" s="73">
         <v>-15</v>
       </c>
-      <c r="K126" s="111" t="s">
-        <v>49</v>
-      </c>
-      <c r="L126" s="36" t="s">
+      <c r="K126" s="109" t="s">
+        <v>48</v>
+      </c>
+      <c r="L126" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="M126" s="135">
+      <c r="M126" s="133">
         <f t="shared" si="17"/>
         <v>1.9000000000000814</v>
       </c>
-      <c r="N126" s="125">
+      <c r="N126" s="123">
         <f t="shared" si="18"/>
         <v>29.999999999998916</v>
       </c>
-      <c r="O126" s="136">
+      <c r="O126" s="134">
         <f t="shared" si="19"/>
         <v>57.000000000000384</v>
       </c>
-      <c r="P126" s="137" t="s">
+      <c r="P126" s="135" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="127" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A127" s="163"/>
+      <c r="B127" s="92">
+        <v>8</v>
+      </c>
+      <c r="C127" s="79" t="s">
+        <v>13</v>
+      </c>
+      <c r="D127" s="79" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="127" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A127" s="146"/>
-      <c r="B127" s="94">
-        <v>8</v>
-      </c>
-      <c r="C127" s="81" t="s">
-        <v>13</v>
-      </c>
-      <c r="D127" s="81" t="s">
-        <v>171</v>
-      </c>
-      <c r="E127" s="33">
+      <c r="E127" s="32">
         <v>0.5</v>
       </c>
-      <c r="F127" s="34" t="s">
+      <c r="F127" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="G127" s="89">
+      <c r="G127" s="87">
         <v>1.5472000000000001</v>
       </c>
-      <c r="H127" s="89">
+      <c r="H127" s="87">
         <v>1.5508999999999999</v>
       </c>
-      <c r="I127" s="112">
+      <c r="I127" s="110">
         <v>1.5434999999999999</v>
       </c>
-      <c r="J127" s="75">
+      <c r="J127" s="73">
         <v>-13</v>
       </c>
-      <c r="K127" s="111" t="s">
-        <v>49</v>
-      </c>
-      <c r="L127" s="36" t="s">
+      <c r="K127" s="109" t="s">
+        <v>48</v>
+      </c>
+      <c r="L127" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="M127" s="135">
+      <c r="M127" s="133">
         <f t="shared" si="17"/>
         <v>1.0000000000001201</v>
       </c>
-      <c r="N127" s="125">
+      <c r="N127" s="123">
         <f t="shared" si="18"/>
         <v>36.999999999998145</v>
       </c>
-      <c r="O127" s="136">
+      <c r="O127" s="134">
         <f t="shared" si="19"/>
         <v>37.000000000002593</v>
       </c>
-      <c r="P127" s="137" t="s">
+      <c r="P127" s="135" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="128" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A128" s="163"/>
+      <c r="B128" s="92">
+        <v>9</v>
+      </c>
+      <c r="C128" s="79" t="s">
+        <v>17</v>
+      </c>
+      <c r="D128" s="79" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="128" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A128" s="146"/>
-      <c r="B128" s="94">
-        <v>9</v>
-      </c>
-      <c r="C128" s="81" t="s">
-        <v>17</v>
-      </c>
-      <c r="D128" s="81" t="s">
-        <v>173</v>
-      </c>
-      <c r="E128" s="33">
+      <c r="E128" s="32">
         <v>0.56597222222222221</v>
       </c>
-      <c r="F128" s="34" t="s">
+      <c r="F128" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="G128" s="89">
+      <c r="G128" s="87">
         <v>1.9823</v>
       </c>
-      <c r="H128" s="89">
+      <c r="H128" s="87">
         <v>1.9786000000000001</v>
       </c>
-      <c r="I128" s="112">
+      <c r="I128" s="110">
         <v>1.9885999999999999</v>
       </c>
-      <c r="J128" s="90">
+      <c r="J128" s="88">
         <v>10</v>
       </c>
-      <c r="K128" s="89"/>
-      <c r="L128" s="95" t="s">
+      <c r="K128" s="87"/>
+      <c r="L128" s="93" t="s">
         <v>15</v>
       </c>
-      <c r="M128" s="135">
+      <c r="M128" s="133">
         <f t="shared" si="17"/>
         <v>1.7027027027027806</v>
       </c>
-      <c r="N128" s="125">
+      <c r="N128" s="123">
         <f t="shared" si="18"/>
         <v>36.999999999998145</v>
       </c>
-      <c r="O128" s="136">
+      <c r="O128" s="134">
         <f t="shared" si="19"/>
         <v>62.999999999999723</v>
       </c>
-      <c r="P128" s="137" t="s">
-        <v>174</v>
+      <c r="P128" s="135" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="129" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A129" s="146"/>
-      <c r="B129" s="94">
+      <c r="A129" s="163"/>
+      <c r="B129" s="92">
         <v>10</v>
       </c>
-      <c r="C129" s="81" t="s">
+      <c r="C129" s="79" t="s">
         <v>13</v>
       </c>
-      <c r="D129" s="81" t="s">
-        <v>173</v>
-      </c>
-      <c r="E129" s="33">
+      <c r="D129" s="79" t="s">
+        <v>172</v>
+      </c>
+      <c r="E129" s="32">
         <v>0.66666666666666663</v>
       </c>
-      <c r="F129" s="34" t="s">
+      <c r="F129" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="G129" s="89">
+      <c r="G129" s="87">
         <v>1.5758000000000001</v>
       </c>
-      <c r="H129" s="89">
+      <c r="H129" s="87">
         <v>1.5718000000000001</v>
       </c>
-      <c r="I129" s="112">
+      <c r="I129" s="110">
         <v>1.58</v>
       </c>
-      <c r="J129" s="90">
+      <c r="J129" s="88">
         <v>17.5</v>
       </c>
-      <c r="K129" s="96"/>
-      <c r="L129" s="95" t="s">
+      <c r="K129" s="94"/>
+      <c r="L129" s="93" t="s">
         <v>15</v>
       </c>
-      <c r="M129" s="135">
+      <c r="M129" s="133">
         <f t="shared" si="17"/>
         <v>1.0499999999999945</v>
       </c>
-      <c r="N129" s="125">
+      <c r="N129" s="123">
         <f t="shared" si="18"/>
         <v>40.000000000000036</v>
       </c>
-      <c r="O129" s="136">
+      <c r="O129" s="134">
         <f t="shared" si="19"/>
         <v>41.999999999999815</v>
       </c>
-      <c r="P129" s="137" t="s">
+      <c r="P129" s="135" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="130" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A130" s="163"/>
+      <c r="B130" s="92">
+        <v>11</v>
+      </c>
+      <c r="C130" s="79" t="s">
+        <v>13</v>
+      </c>
+      <c r="D130" s="79" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="130" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A130" s="146"/>
-      <c r="B130" s="94">
-        <v>11</v>
-      </c>
-      <c r="C130" s="81" t="s">
-        <v>13</v>
-      </c>
-      <c r="D130" s="81" t="s">
-        <v>176</v>
-      </c>
-      <c r="E130" s="33">
+      <c r="E130" s="32">
         <v>0.66666666666666663</v>
       </c>
-      <c r="F130" s="34" t="s">
+      <c r="F130" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="G130" s="89">
+      <c r="G130" s="87">
         <v>1.5772999999999999</v>
       </c>
-      <c r="H130" s="89">
+      <c r="H130" s="87">
         <v>1.5734999999999999</v>
       </c>
-      <c r="I130" s="112">
+      <c r="I130" s="110">
         <v>1.589</v>
       </c>
-      <c r="J130" s="90">
+      <c r="J130" s="88">
         <v>23</v>
       </c>
-      <c r="K130" s="89"/>
-      <c r="L130" s="95" t="s">
+      <c r="K130" s="87"/>
+      <c r="L130" s="93" t="s">
         <v>15</v>
       </c>
-      <c r="M130" s="37">
+      <c r="M130" s="36">
         <f t="shared" si="17"/>
         <v>3.0789473684210433</v>
       </c>
-      <c r="N130" s="125">
+      <c r="N130" s="123">
         <f t="shared" si="18"/>
         <v>38.000000000000256</v>
       </c>
-      <c r="O130" s="136">
+      <c r="O130" s="134">
         <f t="shared" si="19"/>
         <v>117.00000000000044</v>
       </c>
-      <c r="P130" s="40" t="s">
-        <v>177</v>
+      <c r="P130" s="39" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="131" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A131" s="146"/>
-      <c r="B131" s="82"/>
-      <c r="C131" s="46"/>
-      <c r="D131" s="46"/>
-      <c r="E131" s="46"/>
-      <c r="F131" s="50"/>
-      <c r="G131" s="51"/>
-      <c r="H131" s="51"/>
-      <c r="I131" s="103"/>
-      <c r="J131" s="83"/>
-      <c r="K131" s="50"/>
-      <c r="L131" s="53"/>
-      <c r="M131" s="54"/>
-      <c r="N131" s="55"/>
-      <c r="O131" s="56"/>
-      <c r="P131" s="57"/>
+      <c r="A131" s="163"/>
+      <c r="B131" s="80"/>
+      <c r="C131" s="45"/>
+      <c r="D131" s="45"/>
+      <c r="E131" s="45"/>
+      <c r="F131" s="49"/>
+      <c r="G131" s="50"/>
+      <c r="H131" s="50"/>
+      <c r="I131" s="101"/>
+      <c r="J131" s="81"/>
+      <c r="K131" s="49"/>
+      <c r="L131" s="52"/>
+      <c r="M131" s="53"/>
+      <c r="N131" s="54"/>
+      <c r="O131" s="55"/>
+      <c r="P131" s="56"/>
     </row>
     <row r="135" spans="1:16" x14ac:dyDescent="0.2">
       <c r="I135" s="20" t="s">
@@ -10445,24 +10559,24 @@
         <f>SUM(J136:J143)</f>
         <v>271.5</v>
       </c>
-      <c r="P135" s="108" t="s">
+      <c r="P135" s="106" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="136" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A136" s="145" t="s">
-        <v>224</v>
-      </c>
-      <c r="B136" s="122">
+      <c r="A136" s="164" t="s">
+        <v>217</v>
+      </c>
+      <c r="B136" s="120">
         <v>1</v>
       </c>
-      <c r="C136" s="86" t="s">
+      <c r="C136" s="84" t="s">
         <v>13</v>
       </c>
-      <c r="D136" s="86" t="s">
-        <v>178</v>
-      </c>
-      <c r="E136" s="64">
+      <c r="D136" s="84" t="s">
+        <v>177</v>
+      </c>
+      <c r="E136" s="62">
         <v>0.5</v>
       </c>
       <c r="F136" s="18" t="s">
@@ -10474,95 +10588,95 @@
       <c r="H136" s="19">
         <v>1.5559000000000001</v>
       </c>
-      <c r="I136" s="98">
+      <c r="I136" s="96">
         <v>1.5464</v>
       </c>
-      <c r="J136" s="131">
+      <c r="J136" s="129">
         <v>0</v>
       </c>
-      <c r="K136" s="132" t="s">
+      <c r="K136" s="130" t="s">
         <v>31</v>
       </c>
-      <c r="L136" s="67" t="s">
+      <c r="L136" s="65" t="s">
         <v>15</v>
       </c>
-      <c r="M136" s="68">
+      <c r="M136" s="66">
         <f t="shared" ref="M136:M142" si="20">IF((I136-G136)/(H136-G136)&lt;0,(I136-G136)/(H136-G136)*-1,(I136-G136)/(H136-G136))</f>
         <v>0.97916666666662333</v>
       </c>
-      <c r="N136" s="123">
+      <c r="N136" s="121">
         <f t="shared" ref="N136:N142" si="21">IF((G136-H136)*10000&lt;1,(G136-H136)*-1*10000,(G136-H136)*10000)</f>
         <v>48.000000000001378</v>
       </c>
-      <c r="O136" s="133">
+      <c r="O136" s="131">
         <f t="shared" ref="O136:O142" si="22">N136*M136</f>
         <v>46.999999999999268</v>
       </c>
-      <c r="P136" s="134" t="s">
+      <c r="P136" s="132" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="137" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A137" s="164"/>
+      <c r="B137" s="92">
+        <v>2</v>
+      </c>
+      <c r="C137" s="57" t="s">
+        <v>17</v>
+      </c>
+      <c r="D137" s="72" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="137" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A137" s="145"/>
-      <c r="B137" s="94">
-        <v>2</v>
-      </c>
-      <c r="C137" s="58" t="s">
-        <v>17</v>
-      </c>
-      <c r="D137" s="74" t="s">
-        <v>180</v>
-      </c>
-      <c r="E137" s="33">
+      <c r="E137" s="32">
         <v>0.5</v>
       </c>
-      <c r="F137" s="34" t="s">
+      <c r="F137" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="G137" s="35">
+      <c r="G137" s="34">
         <v>1.9556</v>
       </c>
-      <c r="H137" s="35">
+      <c r="H137" s="34">
         <v>1.9517</v>
       </c>
-      <c r="I137" s="44">
+      <c r="I137" s="43">
         <v>1.96</v>
       </c>
-      <c r="J137" s="138">
+      <c r="J137" s="136">
         <v>77</v>
       </c>
-      <c r="K137" s="89"/>
-      <c r="L137" s="36" t="s">
+      <c r="K137" s="87"/>
+      <c r="L137" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="M137" s="37">
+      <c r="M137" s="36">
         <f t="shared" si="20"/>
         <v>1.1282051282051135</v>
       </c>
-      <c r="N137" s="125">
+      <c r="N137" s="123">
         <f t="shared" si="21"/>
         <v>39.000000000000142</v>
       </c>
-      <c r="O137" s="136">
+      <c r="O137" s="134">
         <f t="shared" si="22"/>
         <v>43.999999999999588</v>
       </c>
-      <c r="P137" s="137" t="s">
-        <v>181</v>
+      <c r="P137" s="135" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="138" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A138" s="145"/>
-      <c r="B138" s="94">
+      <c r="A138" s="164"/>
+      <c r="B138" s="92">
         <v>3</v>
       </c>
       <c r="C138" t="s">
         <v>13</v>
       </c>
       <c r="D138" t="s">
-        <v>182</v>
-      </c>
-      <c r="E138" s="60">
+        <v>181</v>
+      </c>
+      <c r="E138" s="59">
         <v>0.33333333333333331</v>
       </c>
       <c r="F138" s="1" t="s">
@@ -10580,238 +10694,238 @@
       <c r="J138" s="3">
         <v>73</v>
       </c>
-      <c r="L138" s="36" t="s">
+      <c r="L138" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="M138" s="37">
+      <c r="M138" s="36">
         <f t="shared" si="20"/>
         <v>1.6400000000000319</v>
       </c>
-      <c r="N138" s="125">
+      <c r="N138" s="123">
         <f t="shared" si="21"/>
         <v>24.999999999999467</v>
       </c>
-      <c r="O138" s="136">
+      <c r="O138" s="134">
         <f t="shared" si="22"/>
         <v>40.999999999999922</v>
       </c>
-      <c r="P138" s="137" t="s">
+      <c r="P138" s="135" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="139" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A139" s="164"/>
+      <c r="B139" s="92">
+        <v>4</v>
+      </c>
+      <c r="C139" s="79" t="s">
+        <v>13</v>
+      </c>
+      <c r="D139" s="79" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="139" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A139" s="145"/>
-      <c r="B139" s="94">
-        <v>4</v>
-      </c>
-      <c r="C139" s="81" t="s">
-        <v>13</v>
-      </c>
-      <c r="D139" s="81" t="s">
-        <v>184</v>
-      </c>
-      <c r="E139" s="33">
+      <c r="E139" s="32">
         <v>0.5</v>
       </c>
-      <c r="F139" s="34" t="s">
+      <c r="F139" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="G139" s="89">
+      <c r="G139" s="87">
         <v>1.5423</v>
       </c>
-      <c r="H139" s="89">
+      <c r="H139" s="87">
         <v>1.5386000000000002</v>
       </c>
-      <c r="I139" s="112">
+      <c r="I139" s="110">
         <v>1.5529999999999999</v>
       </c>
-      <c r="J139" s="90">
+      <c r="J139" s="88">
         <v>49</v>
       </c>
-      <c r="K139" s="89"/>
-      <c r="L139" s="36" t="s">
+      <c r="K139" s="87"/>
+      <c r="L139" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="M139" s="37">
+      <c r="M139" s="36">
         <f t="shared" si="20"/>
         <v>2.8918918918920182</v>
       </c>
-      <c r="N139" s="125">
+      <c r="N139" s="123">
         <f t="shared" si="21"/>
         <v>36.999999999998145</v>
       </c>
-      <c r="O139" s="136">
+      <c r="O139" s="134">
         <f t="shared" si="22"/>
         <v>106.99999999999932</v>
       </c>
-      <c r="P139" s="137" t="s">
+      <c r="P139" s="135" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="140" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A140" s="164"/>
+      <c r="B140" s="92">
+        <v>5</v>
+      </c>
+      <c r="C140" s="79" t="s">
+        <v>13</v>
+      </c>
+      <c r="D140" s="79" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="140" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A140" s="145"/>
-      <c r="B140" s="94">
-        <v>5</v>
-      </c>
-      <c r="C140" s="81" t="s">
-        <v>13</v>
-      </c>
-      <c r="D140" s="81" t="s">
-        <v>186</v>
-      </c>
-      <c r="E140" s="33">
+      <c r="E140" s="32">
         <v>0.83333333333333326</v>
       </c>
-      <c r="F140" s="34" t="s">
+      <c r="F140" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="G140" s="89">
+      <c r="G140" s="87">
         <v>1.5527000000000002</v>
       </c>
-      <c r="H140" s="89">
+      <c r="H140" s="87">
         <v>1.5495000000000001</v>
       </c>
-      <c r="I140" s="112">
+      <c r="I140" s="110">
         <v>1.5575000000000001</v>
       </c>
-      <c r="J140" s="127">
+      <c r="J140" s="125">
         <v>11</v>
       </c>
-      <c r="K140" s="89"/>
-      <c r="L140" s="36" t="s">
+      <c r="K140" s="87"/>
+      <c r="L140" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="M140" s="37">
+      <c r="M140" s="36">
         <f t="shared" si="20"/>
         <v>1.4999999999999307</v>
       </c>
-      <c r="N140" s="125">
+      <c r="N140" s="123">
         <f t="shared" si="21"/>
         <v>32.000000000000917</v>
       </c>
-      <c r="O140" s="136">
+      <c r="O140" s="134">
         <f t="shared" si="22"/>
         <v>47.999999999999162</v>
       </c>
-      <c r="P140" s="137" t="s">
+      <c r="P140" s="135" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="141" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A141" s="164"/>
+      <c r="B141" s="92">
+        <v>6</v>
+      </c>
+      <c r="C141" s="79" t="s">
+        <v>13</v>
+      </c>
+      <c r="D141" s="79" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="141" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A141" s="145"/>
-      <c r="B141" s="94">
-        <v>6</v>
-      </c>
-      <c r="C141" s="81" t="s">
-        <v>13</v>
-      </c>
-      <c r="D141" s="81" t="s">
-        <v>188</v>
-      </c>
-      <c r="E141" s="33">
+      <c r="E141" s="32">
         <v>0.16666666666666666</v>
       </c>
-      <c r="F141" s="34" t="s">
+      <c r="F141" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="G141" s="89">
+      <c r="G141" s="87">
         <v>1.5521</v>
       </c>
-      <c r="H141" s="89">
+      <c r="H141" s="87">
         <v>1.5486</v>
       </c>
-      <c r="I141" s="112">
+      <c r="I141" s="110">
         <v>1.5575000000000001</v>
       </c>
-      <c r="J141" s="138">
+      <c r="J141" s="136">
         <v>51.5</v>
       </c>
-      <c r="K141" s="89"/>
-      <c r="L141" s="36" t="s">
+      <c r="K141" s="87"/>
+      <c r="L141" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="M141" s="37">
+      <c r="M141" s="36">
         <f t="shared" si="20"/>
         <v>1.5428571428571374</v>
       </c>
-      <c r="N141" s="125">
+      <c r="N141" s="123">
         <f t="shared" si="21"/>
         <v>35.000000000000583</v>
       </c>
-      <c r="O141" s="136">
+      <c r="O141" s="134">
         <f t="shared" si="22"/>
         <v>54.000000000000711</v>
       </c>
-      <c r="P141" s="137" t="s">
+      <c r="P141" s="135" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="142" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A142" s="164"/>
+      <c r="B142" s="92">
+        <v>7</v>
+      </c>
+      <c r="C142" s="79" t="s">
+        <v>17</v>
+      </c>
+      <c r="D142" s="79" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="142" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A142" s="145"/>
-      <c r="B142" s="94">
-        <v>7</v>
-      </c>
-      <c r="C142" s="81" t="s">
-        <v>17</v>
-      </c>
-      <c r="D142" s="81" t="s">
-        <v>190</v>
-      </c>
-      <c r="E142" s="33">
+      <c r="E142" s="32">
         <v>0.5</v>
       </c>
-      <c r="F142" s="34" t="s">
+      <c r="F142" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="G142" s="89">
+      <c r="G142" s="87">
         <v>1.9719000000000002</v>
       </c>
-      <c r="H142" s="89">
+      <c r="H142" s="87">
         <v>1.9690000000000001</v>
       </c>
-      <c r="I142" s="112">
+      <c r="I142" s="110">
         <v>1.9744999999999999</v>
       </c>
-      <c r="J142" s="138">
+      <c r="J142" s="136">
         <v>10</v>
       </c>
-      <c r="K142" s="111"/>
-      <c r="L142" s="36" t="s">
+      <c r="K142" s="109"/>
+      <c r="L142" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="M142" s="37">
+      <c r="M142" s="36">
         <f t="shared" si="20"/>
         <v>0.89655172413779372</v>
       </c>
-      <c r="N142" s="125">
+      <c r="N142" s="123">
         <f t="shared" si="21"/>
         <v>29.000000000001247</v>
       </c>
-      <c r="O142" s="136">
+      <c r="O142" s="134">
         <f t="shared" si="22"/>
         <v>25.999999999997137</v>
       </c>
-      <c r="P142" s="137" t="s">
-        <v>191</v>
+      <c r="P142" s="135" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="143" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A143" s="145"/>
-      <c r="B143" s="82"/>
-      <c r="C143" s="46"/>
-      <c r="D143" s="46"/>
-      <c r="E143" s="46"/>
-      <c r="F143" s="50"/>
-      <c r="G143" s="51"/>
-      <c r="H143" s="51"/>
-      <c r="I143" s="103"/>
-      <c r="J143" s="103"/>
-      <c r="K143" s="50"/>
-      <c r="L143" s="53"/>
-      <c r="M143" s="54"/>
-      <c r="N143" s="55"/>
-      <c r="O143" s="56"/>
-      <c r="P143" s="57"/>
+      <c r="A143" s="164"/>
+      <c r="B143" s="80"/>
+      <c r="C143" s="45"/>
+      <c r="D143" s="45"/>
+      <c r="E143" s="45"/>
+      <c r="F143" s="49"/>
+      <c r="G143" s="50"/>
+      <c r="H143" s="50"/>
+      <c r="I143" s="101"/>
+      <c r="J143" s="101"/>
+      <c r="K143" s="49"/>
+      <c r="L143" s="52"/>
+      <c r="M143" s="53"/>
+      <c r="N143" s="54"/>
+      <c r="O143" s="55"/>
+      <c r="P143" s="56"/>
     </row>
     <row r="146" spans="1:16" x14ac:dyDescent="0.2">
       <c r="I146" s="20" t="s">
@@ -10821,27 +10935,27 @@
         <f>SUM(J147:J157)</f>
         <v>232</v>
       </c>
-      <c r="P146" s="108" t="s">
+      <c r="P146" s="106" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="147" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A147" s="145" t="s">
-        <v>224</v>
-      </c>
-      <c r="B147" s="122">
+      <c r="A147" s="164" t="s">
+        <v>217</v>
+      </c>
+      <c r="B147" s="120">
         <v>1</v>
       </c>
-      <c r="C147" s="86" t="s">
+      <c r="C147" s="84" t="s">
         <v>13</v>
       </c>
-      <c r="D147" s="86" t="s">
-        <v>192</v>
-      </c>
-      <c r="E147" s="64">
+      <c r="D147" s="84" t="s">
+        <v>191</v>
+      </c>
+      <c r="E147" s="62">
         <v>0.5</v>
       </c>
-      <c r="F147" s="66" t="s">
+      <c r="F147" s="64" t="s">
         <v>20</v>
       </c>
       <c r="G147" s="19">
@@ -10850,626 +10964,626 @@
       <c r="H147" s="19">
         <v>1.5736000000000001</v>
       </c>
-      <c r="I147" s="98">
+      <c r="I147" s="96">
         <v>1.5827</v>
       </c>
-      <c r="J147" s="65">
+      <c r="J147" s="63">
         <v>19.5</v>
       </c>
-      <c r="K147" s="132"/>
-      <c r="L147" s="67" t="s">
+      <c r="K147" s="130"/>
+      <c r="L147" s="65" t="s">
         <v>15</v>
       </c>
-      <c r="M147" s="68">
+      <c r="M147" s="66">
         <f t="shared" ref="M147:M158" si="23">IF((I147-G147)/(H147-G147)&lt;0,(I147-G147)/(H147-G147)*-1,(I147-G147)/(H147-G147))</f>
         <v>1.1162790697674299</v>
       </c>
-      <c r="N147" s="123">
+      <c r="N147" s="121">
         <f t="shared" ref="N147:N158" si="24">IF((G147-H147)*10000&lt;1,(G147-H147)*-1*10000,(G147-H147)*10000)</f>
         <v>42.999999999999702</v>
       </c>
-      <c r="O147" s="133">
+      <c r="O147" s="131">
         <f t="shared" ref="O147:O158" si="25">N147*M147</f>
         <v>47.999999999999147</v>
       </c>
-      <c r="P147" s="134" t="s">
+      <c r="P147" s="132" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="148" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A148" s="164"/>
+      <c r="B148" s="92">
+        <v>2</v>
+      </c>
+      <c r="C148" s="57" t="s">
+        <v>13</v>
+      </c>
+      <c r="D148" s="72" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="148" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A148" s="145"/>
-      <c r="B148" s="94">
-        <v>2</v>
-      </c>
-      <c r="C148" s="58" t="s">
-        <v>13</v>
-      </c>
-      <c r="D148" s="74" t="s">
-        <v>194</v>
-      </c>
-      <c r="E148" s="33">
+      <c r="E148" s="32">
         <v>0.5</v>
       </c>
-      <c r="F148" s="34" t="s">
+      <c r="F148" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="G148" s="35">
+      <c r="G148" s="34">
         <v>1.5790000000000002</v>
       </c>
-      <c r="H148" s="35">
+      <c r="H148" s="34">
         <v>1.5820000000000001</v>
       </c>
-      <c r="I148" s="44">
+      <c r="I148" s="43">
         <v>1.5760000000000001</v>
       </c>
-      <c r="J148" s="75">
+      <c r="J148" s="73">
         <v>-30</v>
       </c>
-      <c r="K148" s="111" t="s">
-        <v>49</v>
-      </c>
-      <c r="L148" s="36" t="s">
+      <c r="K148" s="109" t="s">
+        <v>48</v>
+      </c>
+      <c r="L148" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="M148" s="37">
+      <c r="M148" s="36">
         <f t="shared" si="23"/>
         <v>1.0000000000000739</v>
       </c>
-      <c r="N148" s="125">
+      <c r="N148" s="123">
         <f t="shared" si="24"/>
         <v>29.999999999998916</v>
       </c>
-      <c r="O148" s="136">
+      <c r="O148" s="134">
         <f t="shared" si="25"/>
         <v>30.000000000001133</v>
       </c>
-      <c r="P148" s="137" t="s">
-        <v>195</v>
+      <c r="P148" s="135" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="149" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A149" s="145"/>
-      <c r="B149" s="94">
+      <c r="A149" s="164"/>
+      <c r="B149" s="92">
         <v>3</v>
       </c>
-      <c r="C149" s="30" t="s">
+      <c r="C149" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="D149" s="30" t="s">
-        <v>194</v>
-      </c>
-      <c r="E149" s="33">
+      <c r="D149" s="29" t="s">
+        <v>193</v>
+      </c>
+      <c r="E149" s="32">
         <v>0.66666666666666663</v>
       </c>
-      <c r="F149" s="34" t="s">
+      <c r="F149" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="G149" s="35">
+      <c r="G149" s="34">
         <v>1.5851999999999999</v>
       </c>
-      <c r="H149" s="35">
+      <c r="H149" s="34">
         <v>1.5821000000000001</v>
       </c>
-      <c r="I149" s="35">
+      <c r="I149" s="34">
         <v>1.5985</v>
       </c>
       <c r="J149" s="10">
         <v>27</v>
       </c>
-      <c r="K149" s="34"/>
-      <c r="L149" s="36" t="s">
+      <c r="K149" s="33"/>
+      <c r="L149" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="M149" s="37">
+      <c r="M149" s="36">
         <f t="shared" si="23"/>
         <v>4.2903225806453555</v>
       </c>
-      <c r="N149" s="125">
+      <c r="N149" s="123">
         <f t="shared" si="24"/>
         <v>30.999999999998806</v>
       </c>
-      <c r="O149" s="136">
+      <c r="O149" s="134">
         <f t="shared" si="25"/>
         <v>133.00000000000091</v>
       </c>
-      <c r="P149" s="137" t="s">
+      <c r="P149" s="135" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="150" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A150" s="164"/>
+      <c r="B150" s="92">
+        <v>4</v>
+      </c>
+      <c r="C150" s="79" t="s">
+        <v>13</v>
+      </c>
+      <c r="D150" s="79" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="150" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A150" s="145"/>
-      <c r="B150" s="94">
-        <v>4</v>
-      </c>
-      <c r="C150" s="81" t="s">
-        <v>13</v>
-      </c>
-      <c r="D150" s="81" t="s">
-        <v>197</v>
-      </c>
-      <c r="E150" s="33">
+      <c r="E150" s="32">
         <v>0.5</v>
       </c>
-      <c r="F150" s="34" t="s">
+      <c r="F150" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="G150" s="89">
+      <c r="G150" s="87">
         <v>1.569</v>
       </c>
-      <c r="H150" s="89">
+      <c r="H150" s="87">
         <v>1.5727</v>
       </c>
-      <c r="I150" s="112">
+      <c r="I150" s="110">
         <v>1.5649999999999999</v>
       </c>
-      <c r="J150" s="90">
+      <c r="J150" s="88">
         <v>15</v>
       </c>
-      <c r="K150" s="89"/>
-      <c r="L150" s="36" t="s">
+      <c r="K150" s="87"/>
+      <c r="L150" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="M150" s="37">
+      <c r="M150" s="36">
         <f t="shared" si="23"/>
         <v>1.0810810810810714</v>
       </c>
-      <c r="N150" s="125">
+      <c r="N150" s="123">
         <f t="shared" si="24"/>
         <v>37.000000000000369</v>
       </c>
-      <c r="O150" s="136">
+      <c r="O150" s="134">
         <f t="shared" si="25"/>
         <v>40.000000000000043</v>
       </c>
-      <c r="P150" s="137" t="s">
+      <c r="P150" s="135" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="151" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A151" s="164"/>
+      <c r="B151" s="92">
+        <v>5</v>
+      </c>
+      <c r="C151" s="79" t="s">
+        <v>17</v>
+      </c>
+      <c r="D151" s="79" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="151" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A151" s="145"/>
-      <c r="B151" s="94">
-        <v>5</v>
-      </c>
-      <c r="C151" s="81" t="s">
-        <v>17</v>
-      </c>
-      <c r="D151" s="81" t="s">
-        <v>199</v>
-      </c>
-      <c r="E151" s="33">
+      <c r="E151" s="32">
         <v>0.33333333333333331</v>
       </c>
-      <c r="F151" s="34" t="s">
+      <c r="F151" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="G151" s="89">
+      <c r="G151" s="87">
         <v>1.9755</v>
       </c>
-      <c r="H151" s="89">
+      <c r="H151" s="87">
         <v>1.9789000000000001</v>
       </c>
-      <c r="I151" s="112">
+      <c r="I151" s="110">
         <v>1.9718</v>
       </c>
-      <c r="J151" s="90">
+      <c r="J151" s="88">
         <v>39.5</v>
       </c>
-      <c r="K151" s="89"/>
-      <c r="L151" s="36" t="s">
+      <c r="K151" s="87"/>
+      <c r="L151" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="M151" s="37">
+      <c r="M151" s="36">
         <f t="shared" si="23"/>
         <v>1.0882352941176356</v>
       </c>
-      <c r="N151" s="125">
+      <c r="N151" s="123">
         <f t="shared" si="24"/>
         <v>34.000000000000696</v>
       </c>
-      <c r="O151" s="136">
+      <c r="O151" s="134">
         <f t="shared" si="25"/>
         <v>37.000000000000369</v>
       </c>
-      <c r="P151" s="137" t="s">
+      <c r="P151" s="135" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="152" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A152" s="164"/>
+      <c r="B152" s="92">
+        <v>6</v>
+      </c>
+      <c r="C152" s="79" t="s">
+        <v>13</v>
+      </c>
+      <c r="D152" s="79" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="152" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A152" s="145"/>
-      <c r="B152" s="94">
-        <v>6</v>
-      </c>
-      <c r="C152" s="81" t="s">
-        <v>13</v>
-      </c>
-      <c r="D152" s="81" t="s">
-        <v>201</v>
-      </c>
-      <c r="E152" s="33">
+      <c r="E152" s="32">
         <v>0.66666666666666663</v>
       </c>
-      <c r="F152" s="34" t="s">
+      <c r="F152" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="G152" s="89">
+      <c r="G152" s="87">
         <v>1.5727</v>
       </c>
-      <c r="H152" s="89">
+      <c r="H152" s="87">
         <v>1.5688</v>
       </c>
-      <c r="I152" s="112">
+      <c r="I152" s="110">
         <v>1.58</v>
       </c>
-      <c r="J152" s="90">
+      <c r="J152" s="88">
         <v>36.5</v>
       </c>
-      <c r="K152" s="89"/>
-      <c r="L152" s="36" t="s">
+      <c r="K152" s="87"/>
+      <c r="L152" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="M152" s="37">
+      <c r="M152" s="36">
         <f t="shared" si="23"/>
         <v>1.8717948717948865</v>
       </c>
-      <c r="N152" s="125">
+      <c r="N152" s="123">
         <f t="shared" si="24"/>
         <v>39.000000000000142</v>
       </c>
-      <c r="O152" s="136">
+      <c r="O152" s="134">
         <f t="shared" si="25"/>
         <v>73.000000000000838</v>
       </c>
-      <c r="P152" s="137" t="s">
+      <c r="P152" s="135" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="153" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A153" s="164"/>
+      <c r="B153" s="92">
+        <v>7</v>
+      </c>
+      <c r="C153" s="79" t="s">
+        <v>13</v>
+      </c>
+      <c r="D153" s="79" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="153" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A153" s="145"/>
-      <c r="B153" s="94">
-        <v>7</v>
-      </c>
-      <c r="C153" s="81" t="s">
-        <v>13</v>
-      </c>
-      <c r="D153" s="81" t="s">
-        <v>203</v>
-      </c>
-      <c r="E153" s="33">
+      <c r="E153" s="32">
         <v>0.33333333333333331</v>
       </c>
-      <c r="F153" s="34" t="s">
+      <c r="F153" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="G153" s="89">
+      <c r="G153" s="87">
         <v>1.5936999999999999</v>
       </c>
-      <c r="H153" s="89">
+      <c r="H153" s="87">
         <v>1.59</v>
       </c>
-      <c r="I153" s="112">
+      <c r="I153" s="110">
         <v>1.6</v>
       </c>
-      <c r="J153" s="90">
+      <c r="J153" s="88">
         <v>63</v>
       </c>
-      <c r="K153" s="89"/>
-      <c r="L153" s="36" t="s">
+      <c r="K153" s="87"/>
+      <c r="L153" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="M153" s="37">
+      <c r="M153" s="36">
         <f t="shared" si="23"/>
         <v>1.7027027027028405</v>
       </c>
-      <c r="N153" s="125">
+      <c r="N153" s="123">
         <f t="shared" si="24"/>
         <v>36.999999999998145</v>
       </c>
-      <c r="O153" s="136">
+      <c r="O153" s="134">
         <f t="shared" si="25"/>
         <v>63.00000000000194</v>
       </c>
-      <c r="P153" s="137" t="s">
+      <c r="P153" s="135" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="154" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A154" s="164"/>
+      <c r="B154" s="92">
+        <v>8</v>
+      </c>
+      <c r="C154" s="79" t="s">
+        <v>17</v>
+      </c>
+      <c r="D154" s="79" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="154" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A154" s="145"/>
-      <c r="B154" s="94">
-        <v>8</v>
-      </c>
-      <c r="C154" s="81" t="s">
-        <v>17</v>
-      </c>
-      <c r="D154" s="81" t="s">
-        <v>205</v>
-      </c>
-      <c r="E154" s="33">
+      <c r="E154" s="32">
         <v>0.16666666666666666</v>
       </c>
-      <c r="F154" s="34" t="s">
+      <c r="F154" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="G154" s="89">
+      <c r="G154" s="87">
         <v>1.9953000000000001</v>
       </c>
-      <c r="H154" s="89">
+      <c r="H154" s="87">
         <v>2.0003000000000002</v>
       </c>
-      <c r="I154" s="112">
+      <c r="I154" s="110">
         <v>1.9882</v>
       </c>
-      <c r="J154" s="127">
+      <c r="J154" s="125">
         <v>1</v>
       </c>
-      <c r="K154" s="89"/>
-      <c r="L154" s="36" t="s">
+      <c r="K154" s="87"/>
+      <c r="L154" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="M154" s="37">
+      <c r="M154" s="36">
         <f t="shared" si="23"/>
         <v>1.4199999999999884</v>
       </c>
-      <c r="N154" s="125">
+      <c r="N154" s="123">
         <f t="shared" si="24"/>
         <v>50.000000000001151</v>
       </c>
-      <c r="O154" s="136">
+      <c r="O154" s="134">
         <f t="shared" si="25"/>
         <v>71.000000000001052</v>
       </c>
-      <c r="P154" s="137" t="s">
-        <v>206</v>
+      <c r="P154" s="135" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="155" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A155" s="145"/>
-      <c r="B155" s="94">
+      <c r="A155" s="164"/>
+      <c r="B155" s="92">
         <v>9</v>
       </c>
-      <c r="C155" s="81" t="s">
+      <c r="C155" s="79" t="s">
         <v>13</v>
       </c>
-      <c r="D155" s="81" t="s">
-        <v>205</v>
-      </c>
-      <c r="E155" s="33">
+      <c r="D155" s="79" t="s">
+        <v>204</v>
+      </c>
+      <c r="E155" s="32">
         <v>0.5</v>
       </c>
-      <c r="F155" s="34" t="s">
+      <c r="F155" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="G155" s="89">
+      <c r="G155" s="87">
         <v>1.5847</v>
       </c>
-      <c r="H155" s="89">
+      <c r="H155" s="87">
         <v>1.5878999999999999</v>
       </c>
-      <c r="I155" s="112">
+      <c r="I155" s="110">
         <v>1.5805</v>
       </c>
-      <c r="J155" s="138">
+      <c r="J155" s="136">
         <v>9</v>
       </c>
-      <c r="K155" s="89"/>
-      <c r="L155" s="36" t="s">
+      <c r="K155" s="87"/>
+      <c r="L155" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="M155" s="37">
+      <c r="M155" s="36">
         <f t="shared" si="23"/>
         <v>1.3125000000000477</v>
       </c>
-      <c r="N155" s="125">
+      <c r="N155" s="123">
         <f t="shared" si="24"/>
         <v>31.999999999998696</v>
       </c>
-      <c r="O155" s="136">
+      <c r="O155" s="134">
         <f t="shared" si="25"/>
         <v>41.999999999999815</v>
       </c>
-      <c r="P155" s="137" t="s">
+      <c r="P155" s="135" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="156" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A156" s="164"/>
+      <c r="B156" s="92">
+        <v>10</v>
+      </c>
+      <c r="C156" s="79" t="s">
+        <v>13</v>
+      </c>
+      <c r="D156" s="79" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="156" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A156" s="145"/>
-      <c r="B156" s="94">
-        <v>10</v>
-      </c>
-      <c r="C156" s="81" t="s">
-        <v>13</v>
-      </c>
-      <c r="D156" s="81" t="s">
-        <v>208</v>
-      </c>
-      <c r="E156" s="33">
+      <c r="E156" s="32">
         <v>0.75</v>
       </c>
-      <c r="F156" s="34" t="s">
+      <c r="F156" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="G156" s="89">
+      <c r="G156" s="87">
         <v>1.5860000000000001</v>
       </c>
-      <c r="H156" s="89">
+      <c r="H156" s="87">
         <v>1.5836999999999999</v>
       </c>
-      <c r="I156" s="112">
+      <c r="I156" s="110">
         <v>1.59</v>
       </c>
-      <c r="J156" s="138">
+      <c r="J156" s="136">
         <v>30.5</v>
       </c>
-      <c r="K156" s="111"/>
-      <c r="L156" s="36" t="s">
+      <c r="K156" s="109"/>
+      <c r="L156" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="M156" s="37">
+      <c r="M156" s="36">
         <f t="shared" si="23"/>
         <v>1.7391304347824659</v>
       </c>
-      <c r="N156" s="125">
+      <c r="N156" s="123">
         <f t="shared" si="24"/>
         <v>23.000000000001908</v>
       </c>
-      <c r="O156" s="136">
+      <c r="O156" s="134">
         <f t="shared" si="25"/>
         <v>40.000000000000036</v>
       </c>
-      <c r="P156" s="137" t="s">
+      <c r="P156" s="135" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="157" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A157" s="164"/>
+      <c r="B157" s="92">
+        <v>11</v>
+      </c>
+      <c r="C157" s="79" t="s">
+        <v>13</v>
+      </c>
+      <c r="D157" s="79" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="157" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A157" s="145"/>
-      <c r="B157" s="94">
-        <v>11</v>
-      </c>
-      <c r="C157" s="81" t="s">
-        <v>13</v>
-      </c>
-      <c r="D157" s="81" t="s">
-        <v>210</v>
-      </c>
-      <c r="E157" s="33">
+      <c r="E157" s="32">
         <v>0.33333333333333331</v>
       </c>
-      <c r="F157" s="34" t="s">
+      <c r="F157" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="G157" s="89">
+      <c r="G157" s="87">
         <v>1.5756999999999999</v>
       </c>
-      <c r="H157" s="89">
+      <c r="H157" s="87">
         <v>1.5789</v>
       </c>
-      <c r="I157" s="112">
+      <c r="I157" s="110">
         <v>1.57</v>
       </c>
-      <c r="J157" s="138">
+      <c r="J157" s="136">
         <v>21</v>
       </c>
-      <c r="K157" s="89"/>
-      <c r="L157" s="36" t="s">
+      <c r="K157" s="87"/>
+      <c r="L157" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="M157" s="37">
+      <c r="M157" s="36">
         <f t="shared" si="23"/>
         <v>1.7812499999998916</v>
       </c>
-      <c r="N157" s="125">
+      <c r="N157" s="123">
         <f t="shared" si="24"/>
         <v>32.000000000000917</v>
       </c>
-      <c r="O157" s="136">
+      <c r="O157" s="134">
         <f t="shared" si="25"/>
         <v>56.999999999998167</v>
       </c>
-      <c r="P157" s="137" t="s">
+      <c r="P157" s="135" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="158" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A158" s="164"/>
+      <c r="B158" s="92">
+        <v>12</v>
+      </c>
+      <c r="C158" s="79" t="s">
+        <v>13</v>
+      </c>
+      <c r="D158" s="79" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="158" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A158" s="145"/>
-      <c r="B158" s="94">
-        <v>12</v>
-      </c>
-      <c r="C158" s="81" t="s">
-        <v>13</v>
-      </c>
-      <c r="D158" s="81" t="s">
-        <v>212</v>
-      </c>
-      <c r="E158" s="33">
+      <c r="E158" s="32">
         <v>0.5</v>
       </c>
-      <c r="F158" s="34"/>
-      <c r="G158" s="35">
+      <c r="F158" s="33"/>
+      <c r="G158" s="34">
         <v>1.5669999999999999</v>
       </c>
-      <c r="H158" s="35">
+      <c r="H158" s="34">
         <v>1.5640000000000001</v>
       </c>
-      <c r="I158" s="35">
+      <c r="I158" s="34">
         <v>1.57</v>
       </c>
       <c r="J158" s="10">
         <v>0</v>
       </c>
-      <c r="K158" s="139" t="s">
+      <c r="K158" s="137" t="s">
         <v>31</v>
       </c>
-      <c r="L158" s="95" t="s">
+      <c r="L158" s="93" t="s">
         <v>15</v>
       </c>
-      <c r="M158" s="37">
+      <c r="M158" s="36">
         <f t="shared" si="23"/>
         <v>1.0000000000000739</v>
       </c>
-      <c r="N158" s="38">
+      <c r="N158" s="37">
         <f t="shared" si="24"/>
         <v>29.999999999998916</v>
       </c>
-      <c r="O158" s="30">
+      <c r="O158" s="29">
         <f t="shared" si="25"/>
         <v>30.000000000001133</v>
       </c>
-      <c r="P158" s="137" t="s">
-        <v>213</v>
+      <c r="P158" s="135" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="159" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A159" s="145"/>
-      <c r="B159" s="94"/>
-      <c r="C159" s="30"/>
-      <c r="D159" s="30"/>
-      <c r="E159" s="30"/>
-      <c r="F159" s="34"/>
-      <c r="G159" s="35"/>
-      <c r="H159" s="35"/>
-      <c r="I159" s="35"/>
+      <c r="A159" s="164"/>
+      <c r="B159" s="92"/>
+      <c r="C159" s="29"/>
+      <c r="D159" s="29"/>
+      <c r="E159" s="29"/>
+      <c r="F159" s="33"/>
+      <c r="G159" s="34"/>
+      <c r="H159" s="34"/>
+      <c r="I159" s="34"/>
       <c r="J159" s="10"/>
-      <c r="K159" s="34"/>
-      <c r="L159" s="30"/>
-      <c r="M159" s="37"/>
-      <c r="N159" s="38"/>
-      <c r="O159" s="30"/>
-      <c r="P159" s="137"/>
+      <c r="K159" s="33"/>
+      <c r="L159" s="29"/>
+      <c r="M159" s="36"/>
+      <c r="N159" s="37"/>
+      <c r="O159" s="29"/>
+      <c r="P159" s="135"/>
     </row>
     <row r="160" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A160" s="145"/>
-      <c r="B160" s="94"/>
-      <c r="C160" s="30"/>
-      <c r="D160" s="30"/>
-      <c r="E160" s="30"/>
-      <c r="F160" s="34"/>
-      <c r="G160" s="35"/>
-      <c r="H160" s="35"/>
-      <c r="I160" s="35"/>
+      <c r="A160" s="164"/>
+      <c r="B160" s="92"/>
+      <c r="C160" s="29"/>
+      <c r="D160" s="29"/>
+      <c r="E160" s="29"/>
+      <c r="F160" s="33"/>
+      <c r="G160" s="34"/>
+      <c r="H160" s="34"/>
+      <c r="I160" s="34"/>
       <c r="J160" s="10"/>
-      <c r="K160" s="34"/>
-      <c r="L160" s="30"/>
-      <c r="M160" s="37"/>
-      <c r="N160" s="38"/>
-      <c r="O160" s="30"/>
-      <c r="P160" s="137"/>
+      <c r="K160" s="33"/>
+      <c r="L160" s="29"/>
+      <c r="M160" s="36"/>
+      <c r="N160" s="37"/>
+      <c r="O160" s="29"/>
+      <c r="P160" s="135"/>
     </row>
     <row r="161" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A161" s="145"/>
-      <c r="B161" s="128"/>
-      <c r="C161" s="46"/>
-      <c r="D161" s="46"/>
-      <c r="E161" s="46"/>
-      <c r="F161" s="140"/>
-      <c r="G161" s="51"/>
-      <c r="H161" s="51"/>
-      <c r="I161" s="51"/>
-      <c r="J161" s="83"/>
-      <c r="K161" s="140"/>
-      <c r="L161" s="46"/>
-      <c r="M161" s="54"/>
-      <c r="N161" s="55"/>
-      <c r="O161" s="46"/>
-      <c r="P161" s="141"/>
+      <c r="A161" s="164"/>
+      <c r="B161" s="126"/>
+      <c r="C161" s="45"/>
+      <c r="D161" s="45"/>
+      <c r="E161" s="45"/>
+      <c r="F161" s="138"/>
+      <c r="G161" s="50"/>
+      <c r="H161" s="50"/>
+      <c r="I161" s="50"/>
+      <c r="J161" s="81"/>
+      <c r="K161" s="138"/>
+      <c r="L161" s="45"/>
+      <c r="M161" s="53"/>
+      <c r="N161" s="54"/>
+      <c r="O161" s="45"/>
+      <c r="P161" s="139"/>
     </row>
   </sheetData>
   <mergeCells count="15">
@@ -11509,4 +11623,464 @@
   </colBreaks>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet3"/>
+  <dimension ref="A1:O36"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="6" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="1"/>
+    <col min="4" max="4" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="1"/>
+    <col min="6" max="6" width="9.140625" style="160"/>
+    <col min="7" max="7" width="9.140625" style="1"/>
+    <col min="12" max="12" width="4.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B1" s="15"/>
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="169"/>
+      <c r="I1" s="169"/>
+      <c r="J1" s="169"/>
+      <c r="K1" s="1"/>
+      <c r="M1" s="4"/>
+      <c r="N1" s="5"/>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B2" s="16"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="J2" s="21">
+        <f>SUM(J4:J4)</f>
+        <v>48</v>
+      </c>
+      <c r="K2" s="18"/>
+      <c r="L2" s="16"/>
+      <c r="M2" s="170" t="s">
+        <v>8</v>
+      </c>
+      <c r="N2" s="170"/>
+      <c r="O2" s="170"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A3" s="23"/>
+      <c r="B3" s="140" t="s">
+        <v>231</v>
+      </c>
+      <c r="C3" s="142" t="s">
+        <v>223</v>
+      </c>
+      <c r="D3" s="141" t="s">
+        <v>224</v>
+      </c>
+      <c r="E3" s="141" t="s">
+        <v>225</v>
+      </c>
+      <c r="F3" s="141" t="s">
+        <v>215</v>
+      </c>
+      <c r="G3" s="25" t="s">
+        <v>213</v>
+      </c>
+      <c r="H3" s="25" t="s">
+        <v>214</v>
+      </c>
+      <c r="I3" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="J3" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="K3" s="25" t="s">
+        <v>215</v>
+      </c>
+      <c r="L3" s="171" t="s">
+        <v>216</v>
+      </c>
+      <c r="M3" s="171"/>
+      <c r="N3" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="O3" s="25" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A4" s="163" t="s">
+        <v>218</v>
+      </c>
+      <c r="B4" s="16">
+        <v>1</v>
+      </c>
+      <c r="C4" s="161" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="162" t="s">
+        <v>230</v>
+      </c>
+      <c r="E4" s="62">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="F4" s="64" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" s="19">
+        <v>1.2538199999999999</v>
+      </c>
+      <c r="H4" s="19">
+        <v>1.2487999999999999</v>
+      </c>
+      <c r="I4" s="19">
+        <v>1.2675399999999999</v>
+      </c>
+      <c r="J4" s="63">
+        <v>48</v>
+      </c>
+      <c r="K4" s="64"/>
+      <c r="L4" s="65" t="s">
+        <v>15</v>
+      </c>
+      <c r="M4" s="66">
+        <f t="shared" ref="M4" si="0">IF((I4-G4)/(H4-G4)&lt;0,(I4-G4)/(H4-G4)*-1,(I4-G4)/(H4-G4))</f>
+        <v>2.7330677290836429</v>
+      </c>
+      <c r="N4" s="67">
+        <f t="shared" ref="N4" si="1">IF((G4-H4)*10000&lt;1,(G4-H4)*-1*10000,(G4-H4)*10000)</f>
+        <v>50.200000000000244</v>
+      </c>
+      <c r="O4" s="68">
+        <f t="shared" ref="O4" si="2">N4*M4</f>
+        <v>137.19999999999953</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A5" s="163"/>
+      <c r="B5" s="70">
+        <v>2</v>
+      </c>
+      <c r="D5" s="29"/>
+      <c r="E5" s="29"/>
+      <c r="F5" s="29"/>
+      <c r="G5" s="29"/>
+      <c r="H5" s="29"/>
+      <c r="I5" s="29"/>
+      <c r="J5" s="29"/>
+      <c r="K5" s="29"/>
+      <c r="L5" s="29"/>
+      <c r="M5" s="29"/>
+      <c r="N5" s="29"/>
+      <c r="O5" s="158"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A6" s="163"/>
+      <c r="B6" s="70">
+        <v>3</v>
+      </c>
+      <c r="C6" s="29"/>
+      <c r="D6" s="29"/>
+      <c r="E6" s="29"/>
+      <c r="F6" s="29"/>
+      <c r="G6" s="29"/>
+      <c r="H6" s="29"/>
+      <c r="I6" s="29"/>
+      <c r="J6" s="29"/>
+      <c r="K6" s="29"/>
+      <c r="L6" s="29"/>
+      <c r="M6" s="29"/>
+      <c r="N6" s="29"/>
+      <c r="O6" s="158"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A7" s="163"/>
+      <c r="B7" s="74">
+        <v>4</v>
+      </c>
+      <c r="C7" s="29"/>
+      <c r="D7" s="29"/>
+      <c r="E7" s="29"/>
+      <c r="F7" s="29"/>
+      <c r="G7" s="29"/>
+      <c r="H7" s="29"/>
+      <c r="I7" s="29"/>
+      <c r="J7" s="29"/>
+      <c r="K7" s="29"/>
+      <c r="L7" s="29"/>
+      <c r="M7" s="29"/>
+      <c r="N7" s="29"/>
+      <c r="O7" s="158"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A8" s="163"/>
+      <c r="B8" s="70">
+        <v>5</v>
+      </c>
+      <c r="C8" s="29"/>
+      <c r="D8" s="29"/>
+      <c r="E8" s="29"/>
+      <c r="F8" s="29"/>
+      <c r="G8" s="29"/>
+      <c r="H8" s="29"/>
+      <c r="I8" s="29"/>
+      <c r="J8" s="29"/>
+      <c r="K8" s="29"/>
+      <c r="L8" s="29"/>
+      <c r="M8" s="29"/>
+      <c r="N8" s="29"/>
+      <c r="O8" s="158"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A9" s="163"/>
+      <c r="B9" s="74">
+        <v>6</v>
+      </c>
+      <c r="C9" s="29"/>
+      <c r="D9" s="29"/>
+      <c r="E9" s="29"/>
+      <c r="F9" s="29"/>
+      <c r="G9" s="29"/>
+      <c r="H9" s="29"/>
+      <c r="I9" s="29"/>
+      <c r="J9" s="29"/>
+      <c r="K9" s="29"/>
+      <c r="L9" s="29"/>
+      <c r="M9" s="29"/>
+      <c r="N9" s="29"/>
+      <c r="O9" s="158"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A10" s="163"/>
+      <c r="B10" s="70">
+        <v>7</v>
+      </c>
+      <c r="C10" s="29"/>
+      <c r="D10" s="29"/>
+      <c r="E10" s="29"/>
+      <c r="F10" s="29"/>
+      <c r="G10" s="29"/>
+      <c r="H10" s="29"/>
+      <c r="I10" s="29"/>
+      <c r="J10" s="29"/>
+      <c r="K10" s="29"/>
+      <c r="L10" s="29"/>
+      <c r="M10" s="29"/>
+      <c r="N10" s="29"/>
+      <c r="O10" s="158"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A11" s="163"/>
+      <c r="B11" s="74">
+        <v>8</v>
+      </c>
+      <c r="C11" s="29"/>
+      <c r="D11" s="29"/>
+      <c r="E11" s="29"/>
+      <c r="F11" s="29"/>
+      <c r="G11" s="29"/>
+      <c r="H11" s="29"/>
+      <c r="I11" s="29"/>
+      <c r="J11" s="29"/>
+      <c r="K11" s="29"/>
+      <c r="L11" s="29"/>
+      <c r="M11" s="29"/>
+      <c r="N11" s="29"/>
+      <c r="O11" s="158"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A12" s="163"/>
+      <c r="B12" s="70">
+        <v>9</v>
+      </c>
+      <c r="C12" s="29"/>
+      <c r="D12" s="29"/>
+      <c r="E12" s="29"/>
+      <c r="F12" s="29"/>
+      <c r="G12" s="29"/>
+      <c r="H12" s="29"/>
+      <c r="I12" s="29"/>
+      <c r="J12" s="29"/>
+      <c r="K12" s="29"/>
+      <c r="L12" s="29"/>
+      <c r="M12" s="29"/>
+      <c r="N12" s="29"/>
+      <c r="O12" s="158"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A13" s="163"/>
+      <c r="B13" s="70">
+        <v>10</v>
+      </c>
+      <c r="C13" s="29"/>
+      <c r="D13" s="29"/>
+      <c r="E13" s="29"/>
+      <c r="F13" s="29"/>
+      <c r="G13" s="29"/>
+      <c r="H13" s="29"/>
+      <c r="I13" s="29"/>
+      <c r="J13" s="29"/>
+      <c r="K13" s="29"/>
+      <c r="L13" s="29"/>
+      <c r="M13" s="29"/>
+      <c r="N13" s="29"/>
+      <c r="O13" s="158"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A14" s="163"/>
+      <c r="B14" s="70">
+        <v>11</v>
+      </c>
+      <c r="C14" s="29"/>
+      <c r="D14" s="29"/>
+      <c r="E14" s="29"/>
+      <c r="F14" s="29"/>
+      <c r="G14" s="29"/>
+      <c r="H14" s="29"/>
+      <c r="I14" s="29"/>
+      <c r="J14" s="29"/>
+      <c r="K14" s="29"/>
+      <c r="L14" s="29"/>
+      <c r="M14" s="29"/>
+      <c r="N14" s="29"/>
+      <c r="O14" s="158"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A15" s="163"/>
+      <c r="B15" s="80">
+        <v>12</v>
+      </c>
+      <c r="C15" s="45"/>
+      <c r="D15" s="45"/>
+      <c r="E15" s="45"/>
+      <c r="F15" s="45"/>
+      <c r="G15" s="45"/>
+      <c r="H15" s="45"/>
+      <c r="I15" s="45"/>
+      <c r="J15" s="45"/>
+      <c r="K15" s="45"/>
+      <c r="L15" s="45"/>
+      <c r="M15" s="45"/>
+      <c r="N15" s="45"/>
+      <c r="O15" s="159"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="E16" s="160"/>
+      <c r="F16" s="1"/>
+      <c r="G16"/>
+    </row>
+    <row r="17" spans="5:6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="E17" s="160"/>
+      <c r="F17" s="1"/>
+    </row>
+    <row r="18" spans="5:6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="E18" s="160"/>
+      <c r="F18" s="1"/>
+    </row>
+    <row r="19" spans="5:6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="E19" s="160"/>
+      <c r="F19" s="1"/>
+    </row>
+    <row r="20" spans="5:6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="E20" s="160"/>
+      <c r="F20" s="1"/>
+    </row>
+    <row r="21" spans="5:6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="E21" s="160"/>
+      <c r="F21" s="1"/>
+    </row>
+    <row r="22" spans="5:6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="E22" s="160"/>
+      <c r="F22" s="1"/>
+    </row>
+    <row r="23" spans="5:6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="E23" s="160"/>
+      <c r="F23" s="1"/>
+    </row>
+    <row r="24" spans="5:6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="E24" s="160"/>
+      <c r="F24" s="1"/>
+    </row>
+    <row r="25" spans="5:6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="E25" s="160"/>
+      <c r="F25" s="1"/>
+    </row>
+    <row r="26" spans="5:6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="E26" s="160"/>
+      <c r="F26" s="1"/>
+    </row>
+    <row r="27" spans="5:6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="E27" s="160"/>
+      <c r="F27" s="1"/>
+    </row>
+    <row r="34" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="36" customFormat="1" x14ac:dyDescent="0.2"/>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="H1:J1"/>
+    <mergeCell ref="M2:O2"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="A4:A15"/>
+  </mergeCells>
+  <phoneticPr fontId="28" type="noConversion"/>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4:C15">
+      <formula1>"EurUsd,GbpUsd"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4:F15">
+      <formula1>"b,s"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+  <controls>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="4099" r:id="rId3" name="DTPicker21">
+          <controlPr defaultSize="0" autoLine="0" autoPict="0" r:id="rId4">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>600075</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>152400</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>152400</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="4099" r:id="rId3" name="DTPicker21"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+  </controls>
+</worksheet>
 </file>